--- a/FantasyFootballData2020.xlsx
+++ b/FantasyFootballData2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b88e9b99c0e7d8c4/Documents/GitHub/fantasy_football_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1223" documentId="13_ncr:1_{C78650B9-42D7-43C9-A95D-11F9998F55D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{72546C78-8CAA-400B-9E50-8DD2F1EB5406}"/>
+  <xr:revisionPtr revIDLastSave="1592" documentId="13_ncr:1_{C78650B9-42D7-43C9-A95D-11F9998F55D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{ED5C60A6-83A6-402A-8694-6B3BE78C9D9F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{5502643F-E293-4B89-852D-6B7EFC2AEEB4}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="16920" windowHeight="10540" activeTab="1" xr2:uid="{5502643F-E293-4B89-852D-6B7EFC2AEEB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4258" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5193" uniqueCount="257">
   <si>
     <t>Name</t>
   </si>
@@ -789,6 +789,27 @@
   <si>
     <t>Antonio BrownAntonio Brown</t>
   </si>
+  <si>
+    <t>La'Mical PerineLa'Mical Perine</t>
+  </si>
+  <si>
+    <t>Brandon AiyukBrandon Aiyuk</t>
+  </si>
+  <si>
+    <t>Joey SlyeJoey Slye</t>
+  </si>
+  <si>
+    <t>DeeJay DallasDeeJay Dallas</t>
+  </si>
+  <si>
+    <t>Nelson AgholorNelson Agholor</t>
+  </si>
+  <si>
+    <t>Baker MayfieldBaker Mayfield</t>
+  </si>
+  <si>
+    <t>Stephen GostkowskiStephen Gostkowski</t>
+  </si>
 </sst>
 </file>
 
@@ -1147,7 +1168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7633469-55EE-4FF2-8B49-4F591545F24A}">
   <dimension ref="A1:G641"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A642" sqref="A642"/>
     </sheetView>
   </sheetViews>
@@ -15909,10 +15930,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED8B136-D96F-431C-BD0D-F7EA8CFD860F}">
-  <dimension ref="A1:G480"/>
+  <dimension ref="A1:G640"/>
   <sheetViews>
-    <sheetView topLeftCell="A449" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H464" sqref="H464"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F324" sqref="F324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23321,8 +23342,17 @@
       <c r="E322">
         <v>22.8</v>
       </c>
+      <c r="F322" t="s">
+        <v>3</v>
+      </c>
+      <c r="G322">
+        <v>7</v>
+      </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A323" t="s">
+        <v>218</v>
+      </c>
       <c r="B323" t="s">
         <v>6</v>
       </c>
@@ -23335,8 +23365,17 @@
       <c r="E323">
         <v>8.6</v>
       </c>
+      <c r="F323" t="s">
+        <v>3</v>
+      </c>
+      <c r="G323">
+        <v>7</v>
+      </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A324" t="s">
+        <v>218</v>
+      </c>
       <c r="B324" t="s">
         <v>7</v>
       </c>
@@ -23349,8 +23388,17 @@
       <c r="E324">
         <v>25.3</v>
       </c>
+      <c r="F324" t="s">
+        <v>3</v>
+      </c>
+      <c r="G324">
+        <v>7</v>
+      </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A325" t="s">
+        <v>218</v>
+      </c>
       <c r="B325" t="s">
         <v>7</v>
       </c>
@@ -23363,8 +23411,17 @@
       <c r="E325">
         <v>15.5</v>
       </c>
+      <c r="F325" t="s">
+        <v>3</v>
+      </c>
+      <c r="G325">
+        <v>7</v>
+      </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A326" t="s">
+        <v>218</v>
+      </c>
       <c r="B326" t="s">
         <v>13</v>
       </c>
@@ -23377,8 +23434,17 @@
       <c r="E326">
         <v>8.1</v>
       </c>
+      <c r="F326" t="s">
+        <v>3</v>
+      </c>
+      <c r="G326">
+        <v>7</v>
+      </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A327" t="s">
+        <v>218</v>
+      </c>
       <c r="B327" t="s">
         <v>6</v>
       </c>
@@ -23391,8 +23457,17 @@
       <c r="E327">
         <v>5.0999999999999996</v>
       </c>
+      <c r="F327" t="s">
+        <v>3</v>
+      </c>
+      <c r="G327">
+        <v>7</v>
+      </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A328" t="s">
+        <v>218</v>
+      </c>
       <c r="B328" t="s">
         <v>16</v>
       </c>
@@ -23405,8 +23480,17 @@
       <c r="E328">
         <v>5</v>
       </c>
+      <c r="F328" t="s">
+        <v>3</v>
+      </c>
+      <c r="G328">
+        <v>7</v>
+      </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A329" t="s">
+        <v>218</v>
+      </c>
       <c r="B329" t="s">
         <v>18</v>
       </c>
@@ -23419,8 +23503,17 @@
       <c r="E329">
         <v>10</v>
       </c>
+      <c r="F329" t="s">
+        <v>3</v>
+      </c>
+      <c r="G329">
+        <v>7</v>
+      </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A330" t="s">
+        <v>218</v>
+      </c>
       <c r="B330" t="s">
         <v>7</v>
       </c>
@@ -23436,8 +23529,14 @@
       <c r="F330" t="s">
         <v>45</v>
       </c>
+      <c r="G330">
+        <v>7</v>
+      </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A331" t="s">
+        <v>218</v>
+      </c>
       <c r="B331" t="s">
         <v>18</v>
       </c>
@@ -23450,8 +23549,17 @@
       <c r="E331">
         <v>0</v>
       </c>
+      <c r="F331" t="s">
+        <v>45</v>
+      </c>
+      <c r="G331">
+        <v>7</v>
+      </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A332" t="s">
+        <v>218</v>
+      </c>
       <c r="B332" t="s">
         <v>4</v>
       </c>
@@ -23464,8 +23572,17 @@
       <c r="E332">
         <v>-0.18</v>
       </c>
+      <c r="F332" t="s">
+        <v>45</v>
+      </c>
+      <c r="G332">
+        <v>7</v>
+      </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A333" t="s">
+        <v>218</v>
+      </c>
       <c r="B333" t="s">
         <v>6</v>
       </c>
@@ -23478,8 +23595,17 @@
       <c r="E333">
         <v>0.8</v>
       </c>
+      <c r="F333" t="s">
+        <v>45</v>
+      </c>
+      <c r="G333">
+        <v>7</v>
+      </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A334" t="s">
+        <v>218</v>
+      </c>
       <c r="B334" t="s">
         <v>7</v>
       </c>
@@ -23492,8 +23618,17 @@
       <c r="E334">
         <v>15.5</v>
       </c>
+      <c r="F334" t="s">
+        <v>45</v>
+      </c>
+      <c r="G334">
+        <v>7</v>
+      </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A335" t="s">
+        <v>218</v>
+      </c>
       <c r="B335" t="s">
         <v>7</v>
       </c>
@@ -23506,8 +23641,17 @@
       <c r="E335">
         <v>18.8</v>
       </c>
+      <c r="F335" t="s">
+        <v>45</v>
+      </c>
+      <c r="G335">
+        <v>7</v>
+      </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A336" t="s">
+        <v>218</v>
+      </c>
       <c r="B336" t="s">
         <v>7</v>
       </c>
@@ -23520,8 +23664,14 @@
       <c r="E336">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F336" t="s">
+        <v>45</v>
+      </c>
+      <c r="G336">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>224</v>
       </c>
@@ -23540,8 +23690,11 @@
       <c r="F337" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G337">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>224</v>
       </c>
@@ -23557,8 +23710,17 @@
       <c r="E338">
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F338" t="s">
+        <v>3</v>
+      </c>
+      <c r="G338">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A339" t="s">
+        <v>224</v>
+      </c>
       <c r="B339" t="s">
         <v>6</v>
       </c>
@@ -23571,8 +23733,17 @@
       <c r="E339">
         <v>19.2</v>
       </c>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F339" t="s">
+        <v>3</v>
+      </c>
+      <c r="G339">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A340" t="s">
+        <v>224</v>
+      </c>
       <c r="B340" t="s">
         <v>7</v>
       </c>
@@ -23585,8 +23756,17 @@
       <c r="E340">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F340" t="s">
+        <v>3</v>
+      </c>
+      <c r="G340">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A341" t="s">
+        <v>224</v>
+      </c>
       <c r="B341" t="s">
         <v>7</v>
       </c>
@@ -23599,8 +23779,17 @@
       <c r="E341">
         <v>53</v>
       </c>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F341" t="s">
+        <v>3</v>
+      </c>
+      <c r="G341">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A342" t="s">
+        <v>224</v>
+      </c>
       <c r="B342" t="s">
         <v>13</v>
       </c>
@@ -23613,8 +23802,17 @@
       <c r="E342">
         <v>17</v>
       </c>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F342" t="s">
+        <v>3</v>
+      </c>
+      <c r="G342">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A343" t="s">
+        <v>224</v>
+      </c>
       <c r="B343" t="s">
         <v>6</v>
       </c>
@@ -23627,8 +23825,17 @@
       <c r="E343">
         <v>22.2</v>
       </c>
-    </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F343" t="s">
+        <v>3</v>
+      </c>
+      <c r="G343">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A344" t="s">
+        <v>224</v>
+      </c>
       <c r="B344" t="s">
         <v>16</v>
       </c>
@@ -23641,8 +23848,17 @@
       <c r="E344">
         <v>16</v>
       </c>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F344" t="s">
+        <v>3</v>
+      </c>
+      <c r="G344">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A345" t="s">
+        <v>224</v>
+      </c>
       <c r="B345" t="s">
         <v>18</v>
       </c>
@@ -23655,8 +23871,17 @@
       <c r="E345">
         <v>4</v>
       </c>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F345" t="s">
+        <v>3</v>
+      </c>
+      <c r="G345">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A346" t="s">
+        <v>224</v>
+      </c>
       <c r="B346" t="s">
         <v>7</v>
       </c>
@@ -23672,8 +23897,14 @@
       <c r="F346" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G346">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A347" t="s">
+        <v>224</v>
+      </c>
       <c r="B347" t="s">
         <v>7</v>
       </c>
@@ -23686,8 +23917,17 @@
       <c r="E347">
         <v>0</v>
       </c>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F347" t="s">
+        <v>45</v>
+      </c>
+      <c r="G347">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A348" t="s">
+        <v>224</v>
+      </c>
       <c r="B348" t="s">
         <v>6</v>
       </c>
@@ -23700,8 +23940,17 @@
       <c r="E348">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F348" t="s">
+        <v>45</v>
+      </c>
+      <c r="G348">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A349" t="s">
+        <v>224</v>
+      </c>
       <c r="B349" t="s">
         <v>7</v>
       </c>
@@ -23714,8 +23963,17 @@
       <c r="E349">
         <v>13</v>
       </c>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F349" t="s">
+        <v>45</v>
+      </c>
+      <c r="G349">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A350" t="s">
+        <v>224</v>
+      </c>
       <c r="B350" t="s">
         <v>16</v>
       </c>
@@ -23728,8 +23986,17 @@
       <c r="E350">
         <v>16</v>
       </c>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F350" t="s">
+        <v>45</v>
+      </c>
+      <c r="G350">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A351" t="s">
+        <v>224</v>
+      </c>
       <c r="B351" t="s">
         <v>6</v>
       </c>
@@ -23742,8 +24009,17 @@
       <c r="E351">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F351" t="s">
+        <v>45</v>
+      </c>
+      <c r="G351">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A352" t="s">
+        <v>224</v>
+      </c>
       <c r="B352" t="s">
         <v>13</v>
       </c>
@@ -23756,8 +24032,14 @@
       <c r="E352">
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F352" t="s">
+        <v>45</v>
+      </c>
+      <c r="G352">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>222</v>
       </c>
@@ -23776,8 +24058,11 @@
       <c r="F353" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G353">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>222</v>
       </c>
@@ -23793,8 +24078,17 @@
       <c r="E354">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F354" t="s">
+        <v>3</v>
+      </c>
+      <c r="G354">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A355" t="s">
+        <v>222</v>
+      </c>
       <c r="B355" t="s">
         <v>6</v>
       </c>
@@ -23807,8 +24101,17 @@
       <c r="E355">
         <v>31.7</v>
       </c>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F355" t="s">
+        <v>3</v>
+      </c>
+      <c r="G355">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A356" t="s">
+        <v>222</v>
+      </c>
       <c r="B356" t="s">
         <v>7</v>
       </c>
@@ -23821,8 +24124,17 @@
       <c r="E356">
         <v>24.3</v>
       </c>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F356" t="s">
+        <v>3</v>
+      </c>
+      <c r="G356">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A357" t="s">
+        <v>222</v>
+      </c>
       <c r="B357" t="s">
         <v>7</v>
       </c>
@@ -23835,8 +24147,17 @@
       <c r="E357">
         <v>19.899999999999999</v>
       </c>
-    </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F357" t="s">
+        <v>3</v>
+      </c>
+      <c r="G357">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A358" t="s">
+        <v>222</v>
+      </c>
       <c r="B358" t="s">
         <v>13</v>
       </c>
@@ -23849,8 +24170,17 @@
       <c r="E358">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F358" t="s">
+        <v>3</v>
+      </c>
+      <c r="G358">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A359" t="s">
+        <v>222</v>
+      </c>
       <c r="B359" t="s">
         <v>7</v>
       </c>
@@ -23863,8 +24193,17 @@
       <c r="E359">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F359" t="s">
+        <v>3</v>
+      </c>
+      <c r="G359">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A360" t="s">
+        <v>222</v>
+      </c>
       <c r="B360" t="s">
         <v>16</v>
       </c>
@@ -23877,8 +24216,17 @@
       <c r="E360">
         <v>21</v>
       </c>
-    </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F360" t="s">
+        <v>3</v>
+      </c>
+      <c r="G360">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A361" t="s">
+        <v>222</v>
+      </c>
       <c r="B361" t="s">
         <v>18</v>
       </c>
@@ -23891,8 +24239,17 @@
       <c r="E361">
         <v>9</v>
       </c>
-    </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F361" t="s">
+        <v>3</v>
+      </c>
+      <c r="G361">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A362" t="s">
+        <v>222</v>
+      </c>
       <c r="B362" t="s">
         <v>6</v>
       </c>
@@ -23908,8 +24265,14 @@
       <c r="F362" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G362">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A363" t="s">
+        <v>222</v>
+      </c>
       <c r="B363" t="s">
         <v>6</v>
       </c>
@@ -23922,8 +24285,17 @@
       <c r="E363">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F363" t="s">
+        <v>45</v>
+      </c>
+      <c r="G363">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A364" t="s">
+        <v>222</v>
+      </c>
       <c r="B364" t="s">
         <v>7</v>
       </c>
@@ -23936,8 +24308,17 @@
       <c r="E364">
         <v>0</v>
       </c>
-    </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F364" t="s">
+        <v>45</v>
+      </c>
+      <c r="G364">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A365" t="s">
+        <v>222</v>
+      </c>
       <c r="B365" t="s">
         <v>7</v>
       </c>
@@ -23950,8 +24331,17 @@
       <c r="E365">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F365" t="s">
+        <v>45</v>
+      </c>
+      <c r="G365">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A366" t="s">
+        <v>222</v>
+      </c>
       <c r="B366" t="s">
         <v>7</v>
       </c>
@@ -23964,8 +24354,17 @@
       <c r="E366">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F366" t="s">
+        <v>45</v>
+      </c>
+      <c r="G366">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A367" t="s">
+        <v>222</v>
+      </c>
       <c r="B367" t="s">
         <v>16</v>
       </c>
@@ -23978,8 +24377,17 @@
       <c r="E367">
         <v>0</v>
       </c>
-    </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F367" t="s">
+        <v>45</v>
+      </c>
+      <c r="G367">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A368" t="s">
+        <v>222</v>
+      </c>
       <c r="B368" t="s">
         <v>13</v>
       </c>
@@ -23992,8 +24400,14 @@
       <c r="E368">
         <v>0</v>
       </c>
-    </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F368" t="s">
+        <v>45</v>
+      </c>
+      <c r="G368">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>225</v>
       </c>
@@ -24012,8 +24426,11 @@
       <c r="F369" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G369">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>225</v>
       </c>
@@ -24029,8 +24446,17 @@
       <c r="E370">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F370" t="s">
+        <v>3</v>
+      </c>
+      <c r="G370">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A371" t="s">
+        <v>225</v>
+      </c>
       <c r="B371" t="s">
         <v>6</v>
       </c>
@@ -24043,8 +24469,17 @@
       <c r="E371">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F371" t="s">
+        <v>3</v>
+      </c>
+      <c r="G371">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A372" t="s">
+        <v>225</v>
+      </c>
       <c r="B372" t="s">
         <v>7</v>
       </c>
@@ -24057,8 +24492,17 @@
       <c r="E372">
         <v>17.399999999999999</v>
       </c>
-    </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F372" t="s">
+        <v>3</v>
+      </c>
+      <c r="G372">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A373" t="s">
+        <v>225</v>
+      </c>
       <c r="B373" t="s">
         <v>7</v>
       </c>
@@ -24071,8 +24515,17 @@
       <c r="E373">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F373" t="s">
+        <v>3</v>
+      </c>
+      <c r="G373">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A374" t="s">
+        <v>225</v>
+      </c>
       <c r="B374" t="s">
         <v>13</v>
       </c>
@@ -24085,8 +24538,17 @@
       <c r="E374">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F374" t="s">
+        <v>3</v>
+      </c>
+      <c r="G374">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A375" t="s">
+        <v>225</v>
+      </c>
       <c r="B375" t="s">
         <v>6</v>
       </c>
@@ -24099,8 +24561,17 @@
       <c r="E375">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F375" t="s">
+        <v>3</v>
+      </c>
+      <c r="G375">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A376" t="s">
+        <v>225</v>
+      </c>
       <c r="B376" t="s">
         <v>16</v>
       </c>
@@ -24113,8 +24584,17 @@
       <c r="E376">
         <v>10</v>
       </c>
-    </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F376" t="s">
+        <v>3</v>
+      </c>
+      <c r="G376">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A377" t="s">
+        <v>225</v>
+      </c>
       <c r="B377" t="s">
         <v>18</v>
       </c>
@@ -24127,8 +24607,17 @@
       <c r="E377">
         <v>9</v>
       </c>
-    </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F377" t="s">
+        <v>3</v>
+      </c>
+      <c r="G377">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A378" t="s">
+        <v>225</v>
+      </c>
       <c r="B378" t="s">
         <v>7</v>
       </c>
@@ -24144,8 +24633,14 @@
       <c r="F378" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G378">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A379" t="s">
+        <v>225</v>
+      </c>
       <c r="B379" t="s">
         <v>7</v>
       </c>
@@ -24158,8 +24653,17 @@
       <c r="E379">
         <v>0</v>
       </c>
-    </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F379" t="s">
+        <v>45</v>
+      </c>
+      <c r="G379">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A380" t="s">
+        <v>225</v>
+      </c>
       <c r="B380" t="s">
         <v>6</v>
       </c>
@@ -24172,8 +24676,17 @@
       <c r="E380">
         <v>0</v>
       </c>
-    </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F380" t="s">
+        <v>45</v>
+      </c>
+      <c r="G380">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A381" t="s">
+        <v>225</v>
+      </c>
       <c r="B381" t="s">
         <v>6</v>
       </c>
@@ -24186,8 +24699,17 @@
       <c r="E381">
         <v>0</v>
       </c>
-    </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F381" t="s">
+        <v>45</v>
+      </c>
+      <c r="G381">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A382" t="s">
+        <v>225</v>
+      </c>
       <c r="B382" t="s">
         <v>7</v>
       </c>
@@ -24200,8 +24722,17 @@
       <c r="E382">
         <v>9</v>
       </c>
-    </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F382" t="s">
+        <v>45</v>
+      </c>
+      <c r="G382">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A383" t="s">
+        <v>225</v>
+      </c>
       <c r="B383" t="s">
         <v>7</v>
       </c>
@@ -24214,8 +24745,17 @@
       <c r="E383">
         <v>20.7</v>
       </c>
-    </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F383" t="s">
+        <v>45</v>
+      </c>
+      <c r="G383">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A384" t="s">
+        <v>225</v>
+      </c>
       <c r="B384" t="s">
         <v>4</v>
       </c>
@@ -24228,8 +24768,14 @@
       <c r="E384">
         <v>19.16</v>
       </c>
-    </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F384" t="s">
+        <v>45</v>
+      </c>
+      <c r="G384">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>226</v>
       </c>
@@ -24248,8 +24794,11 @@
       <c r="F385" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G385">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>226</v>
       </c>
@@ -24265,8 +24814,17 @@
       <c r="E386">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F386" t="s">
+        <v>3</v>
+      </c>
+      <c r="G386">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A387" t="s">
+        <v>226</v>
+      </c>
       <c r="B387" t="s">
         <v>6</v>
       </c>
@@ -24279,8 +24837,17 @@
       <c r="E387">
         <v>21.4</v>
       </c>
-    </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F387" t="s">
+        <v>3</v>
+      </c>
+      <c r="G387">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A388" t="s">
+        <v>226</v>
+      </c>
       <c r="B388" t="s">
         <v>7</v>
       </c>
@@ -24293,8 +24860,17 @@
       <c r="E388">
         <v>11</v>
       </c>
-    </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F388" t="s">
+        <v>3</v>
+      </c>
+      <c r="G388">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A389" t="s">
+        <v>226</v>
+      </c>
       <c r="B389" t="s">
         <v>7</v>
       </c>
@@ -24307,8 +24883,17 @@
       <c r="E389">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F389" t="s">
+        <v>3</v>
+      </c>
+      <c r="G389">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A390" t="s">
+        <v>226</v>
+      </c>
       <c r="B390" t="s">
         <v>13</v>
       </c>
@@ -24321,8 +24906,17 @@
       <c r="E390">
         <v>16.899999999999999</v>
       </c>
-    </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F390" t="s">
+        <v>3</v>
+      </c>
+      <c r="G390">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A391" t="s">
+        <v>226</v>
+      </c>
       <c r="B391" t="s">
         <v>7</v>
       </c>
@@ -24335,8 +24929,17 @@
       <c r="E391">
         <v>22.2</v>
       </c>
-    </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F391" t="s">
+        <v>3</v>
+      </c>
+      <c r="G391">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A392" t="s">
+        <v>226</v>
+      </c>
       <c r="B392" t="s">
         <v>16</v>
       </c>
@@ -24349,8 +24952,17 @@
       <c r="E392">
         <v>14</v>
       </c>
-    </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F392" t="s">
+        <v>3</v>
+      </c>
+      <c r="G392">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A393" t="s">
+        <v>226</v>
+      </c>
       <c r="B393" t="s">
         <v>18</v>
       </c>
@@ -24363,8 +24975,17 @@
       <c r="E393">
         <v>2</v>
       </c>
-    </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F393" t="s">
+        <v>3</v>
+      </c>
+      <c r="G393">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A394" t="s">
+        <v>226</v>
+      </c>
       <c r="B394" t="s">
         <v>6</v>
       </c>
@@ -24380,8 +25001,14 @@
       <c r="F394" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G394">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A395" t="s">
+        <v>226</v>
+      </c>
       <c r="B395" t="s">
         <v>6</v>
       </c>
@@ -24394,8 +25021,17 @@
       <c r="E395">
         <v>0</v>
       </c>
-    </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F395" t="s">
+        <v>45</v>
+      </c>
+      <c r="G395">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A396" t="s">
+        <v>226</v>
+      </c>
       <c r="B396" t="s">
         <v>13</v>
       </c>
@@ -24408,8 +25044,17 @@
       <c r="E396">
         <v>0</v>
       </c>
-    </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F396" t="s">
+        <v>45</v>
+      </c>
+      <c r="G396">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A397" t="s">
+        <v>226</v>
+      </c>
       <c r="B397" t="s">
         <v>7</v>
       </c>
@@ -24422,8 +25067,17 @@
       <c r="E397">
         <v>0</v>
       </c>
-    </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F397" t="s">
+        <v>45</v>
+      </c>
+      <c r="G397">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A398" t="s">
+        <v>226</v>
+      </c>
       <c r="B398" t="s">
         <v>16</v>
       </c>
@@ -24436,8 +25090,17 @@
       <c r="E398">
         <v>1</v>
       </c>
-    </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F398" t="s">
+        <v>45</v>
+      </c>
+      <c r="G398">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A399" t="s">
+        <v>226</v>
+      </c>
       <c r="B399" t="s">
         <v>4</v>
       </c>
@@ -24450,8 +25113,17 @@
       <c r="E399">
         <v>38.479999999999997</v>
       </c>
-    </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F399" t="s">
+        <v>45</v>
+      </c>
+      <c r="G399">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A400" t="s">
+        <v>226</v>
+      </c>
       <c r="B400" t="s">
         <v>7</v>
       </c>
@@ -24464,8 +25136,14 @@
       <c r="E400">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F400" t="s">
+        <v>45</v>
+      </c>
+      <c r="G400">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>221</v>
       </c>
@@ -24484,8 +25162,11 @@
       <c r="F401" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G401">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>221</v>
       </c>
@@ -24501,8 +25182,17 @@
       <c r="E402">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F402" t="s">
+        <v>3</v>
+      </c>
+      <c r="G402">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A403" t="s">
+        <v>221</v>
+      </c>
       <c r="B403" t="s">
         <v>6</v>
       </c>
@@ -24515,8 +25205,17 @@
       <c r="E403">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F403" t="s">
+        <v>3</v>
+      </c>
+      <c r="G403">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A404" t="s">
+        <v>221</v>
+      </c>
       <c r="B404" t="s">
         <v>7</v>
       </c>
@@ -24529,8 +25228,17 @@
       <c r="E404">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F404" t="s">
+        <v>3</v>
+      </c>
+      <c r="G404">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A405" t="s">
+        <v>221</v>
+      </c>
       <c r="B405" t="s">
         <v>7</v>
       </c>
@@ -24543,8 +25251,17 @@
       <c r="E405">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F405" t="s">
+        <v>3</v>
+      </c>
+      <c r="G405">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A406" t="s">
+        <v>221</v>
+      </c>
       <c r="B406" t="s">
         <v>13</v>
       </c>
@@ -24557,8 +25274,17 @@
       <c r="E406">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F406" t="s">
+        <v>3</v>
+      </c>
+      <c r="G406">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A407" t="s">
+        <v>221</v>
+      </c>
       <c r="B407" t="s">
         <v>7</v>
       </c>
@@ -24571,8 +25297,17 @@
       <c r="E407">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F407" t="s">
+        <v>3</v>
+      </c>
+      <c r="G407">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A408" t="s">
+        <v>221</v>
+      </c>
       <c r="B408" t="s">
         <v>16</v>
       </c>
@@ -24585,8 +25320,17 @@
       <c r="E408">
         <v>8</v>
       </c>
-    </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F408" t="s">
+        <v>3</v>
+      </c>
+      <c r="G408">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A409" t="s">
+        <v>221</v>
+      </c>
       <c r="B409" t="s">
         <v>18</v>
       </c>
@@ -24599,8 +25343,17 @@
       <c r="E409">
         <v>3</v>
       </c>
-    </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F409" t="s">
+        <v>3</v>
+      </c>
+      <c r="G409">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A410" t="s">
+        <v>221</v>
+      </c>
       <c r="B410" t="s">
         <v>13</v>
       </c>
@@ -24616,8 +25369,14 @@
       <c r="F410" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G410">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A411" t="s">
+        <v>221</v>
+      </c>
       <c r="B411" t="s">
         <v>6</v>
       </c>
@@ -24630,8 +25389,17 @@
       <c r="E411">
         <v>15.7</v>
       </c>
-    </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F411" t="s">
+        <v>45</v>
+      </c>
+      <c r="G411">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A412" t="s">
+        <v>221</v>
+      </c>
       <c r="B412" t="s">
         <v>7</v>
       </c>
@@ -24644,8 +25412,17 @@
       <c r="E412">
         <v>29</v>
       </c>
-    </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F412" t="s">
+        <v>45</v>
+      </c>
+      <c r="G412">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A413" t="s">
+        <v>221</v>
+      </c>
       <c r="B413" t="s">
         <v>7</v>
       </c>
@@ -24658,8 +25435,17 @@
       <c r="E413">
         <v>4</v>
       </c>
-    </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F413" t="s">
+        <v>45</v>
+      </c>
+      <c r="G413">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A414" t="s">
+        <v>221</v>
+      </c>
       <c r="B414" t="s">
         <v>7</v>
       </c>
@@ -24672,8 +25458,17 @@
       <c r="E414">
         <v>0</v>
       </c>
-    </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F414" t="s">
+        <v>45</v>
+      </c>
+      <c r="G414">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A415" t="s">
+        <v>221</v>
+      </c>
       <c r="B415" t="s">
         <v>6</v>
       </c>
@@ -24686,8 +25481,17 @@
       <c r="E415">
         <v>0</v>
       </c>
-    </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F415" t="s">
+        <v>45</v>
+      </c>
+      <c r="G415">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A416" t="s">
+        <v>221</v>
+      </c>
       <c r="B416" t="s">
         <v>7</v>
       </c>
@@ -24700,8 +25504,14 @@
       <c r="E416">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F416" t="s">
+        <v>45</v>
+      </c>
+      <c r="G416">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>227</v>
       </c>
@@ -24720,8 +25530,11 @@
       <c r="F417" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G417">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>227</v>
       </c>
@@ -24737,8 +25550,17 @@
       <c r="E418">
         <v>15.2</v>
       </c>
-    </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F418" t="s">
+        <v>3</v>
+      </c>
+      <c r="G418">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A419" t="s">
+        <v>227</v>
+      </c>
       <c r="B419" t="s">
         <v>6</v>
       </c>
@@ -24751,8 +25573,17 @@
       <c r="E419">
         <v>16.399999999999999</v>
       </c>
-    </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F419" t="s">
+        <v>3</v>
+      </c>
+      <c r="G419">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A420" t="s">
+        <v>227</v>
+      </c>
       <c r="B420" t="s">
         <v>7</v>
       </c>
@@ -24765,8 +25596,17 @@
       <c r="E420">
         <v>22</v>
       </c>
-    </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F420" t="s">
+        <v>3</v>
+      </c>
+      <c r="G420">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A421" t="s">
+        <v>227</v>
+      </c>
       <c r="B421" t="s">
         <v>7</v>
       </c>
@@ -24779,8 +25619,17 @@
       <c r="E421">
         <v>27.74</v>
       </c>
-    </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F421" t="s">
+        <v>3</v>
+      </c>
+      <c r="G421">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A422" t="s">
+        <v>227</v>
+      </c>
       <c r="B422" t="s">
         <v>13</v>
       </c>
@@ -24793,8 +25642,17 @@
       <c r="E422">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F422" t="s">
+        <v>3</v>
+      </c>
+      <c r="G422">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A423" t="s">
+        <v>227</v>
+      </c>
       <c r="B423" t="s">
         <v>6</v>
       </c>
@@ -24807,8 +25665,17 @@
       <c r="E423">
         <v>18.8</v>
       </c>
-    </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F423" t="s">
+        <v>3</v>
+      </c>
+      <c r="G423">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A424" t="s">
+        <v>227</v>
+      </c>
       <c r="B424" t="s">
         <v>16</v>
       </c>
@@ -24821,8 +25688,17 @@
       <c r="E424">
         <v>9</v>
       </c>
-    </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F424" t="s">
+        <v>3</v>
+      </c>
+      <c r="G424">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A425" t="s">
+        <v>227</v>
+      </c>
       <c r="B425" t="s">
         <v>18</v>
       </c>
@@ -24835,8 +25711,17 @@
       <c r="E425">
         <v>5</v>
       </c>
-    </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F425" t="s">
+        <v>3</v>
+      </c>
+      <c r="G425">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A426" t="s">
+        <v>227</v>
+      </c>
       <c r="B426" t="s">
         <v>6</v>
       </c>
@@ -24852,8 +25737,14 @@
       <c r="F426" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G426">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A427" t="s">
+        <v>227</v>
+      </c>
       <c r="B427" t="s">
         <v>7</v>
       </c>
@@ -24866,8 +25757,17 @@
       <c r="E427">
         <v>0</v>
       </c>
-    </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F427" t="s">
+        <v>45</v>
+      </c>
+      <c r="G427">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A428" t="s">
+        <v>227</v>
+      </c>
       <c r="B428" t="s">
         <v>16</v>
       </c>
@@ -24880,8 +25780,17 @@
       <c r="E428">
         <v>4</v>
       </c>
-    </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F428" t="s">
+        <v>45</v>
+      </c>
+      <c r="G428">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A429" t="s">
+        <v>227</v>
+      </c>
       <c r="B429" t="s">
         <v>6</v>
       </c>
@@ -24894,8 +25803,17 @@
       <c r="E429">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F429" t="s">
+        <v>45</v>
+      </c>
+      <c r="G429">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A430" t="s">
+        <v>227</v>
+      </c>
       <c r="B430" t="s">
         <v>7</v>
       </c>
@@ -24908,8 +25826,17 @@
       <c r="E430">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F430" t="s">
+        <v>45</v>
+      </c>
+      <c r="G430">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A431" t="s">
+        <v>227</v>
+      </c>
       <c r="B431" t="s">
         <v>7</v>
       </c>
@@ -24922,8 +25849,17 @@
       <c r="E431">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F431" t="s">
+        <v>45</v>
+      </c>
+      <c r="G431">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A432" t="s">
+        <v>227</v>
+      </c>
       <c r="B432" t="s">
         <v>6</v>
       </c>
@@ -24936,8 +25872,14 @@
       <c r="E432">
         <v>20.6</v>
       </c>
-    </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F432" t="s">
+        <v>45</v>
+      </c>
+      <c r="G432">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>219</v>
       </c>
@@ -24956,8 +25898,11 @@
       <c r="F433" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G433">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>219</v>
       </c>
@@ -24973,8 +25918,17 @@
       <c r="E434">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F434" t="s">
+        <v>3</v>
+      </c>
+      <c r="G434">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A435" t="s">
+        <v>219</v>
+      </c>
       <c r="B435" t="s">
         <v>6</v>
       </c>
@@ -24987,8 +25941,17 @@
       <c r="E435">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F435" t="s">
+        <v>3</v>
+      </c>
+      <c r="G435">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A436" t="s">
+        <v>219</v>
+      </c>
       <c r="B436" t="s">
         <v>7</v>
       </c>
@@ -25001,8 +25964,17 @@
       <c r="E436">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F436" t="s">
+        <v>3</v>
+      </c>
+      <c r="G436">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A437" t="s">
+        <v>219</v>
+      </c>
       <c r="B437" t="s">
         <v>7</v>
       </c>
@@ -25015,8 +25987,17 @@
       <c r="E437">
         <v>22.5</v>
       </c>
-    </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F437" t="s">
+        <v>3</v>
+      </c>
+      <c r="G437">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A438" t="s">
+        <v>219</v>
+      </c>
       <c r="B438" t="s">
         <v>13</v>
       </c>
@@ -25029,8 +26010,17 @@
       <c r="E438">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F438" t="s">
+        <v>3</v>
+      </c>
+      <c r="G438">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A439" t="s">
+        <v>219</v>
+      </c>
       <c r="B439" t="s">
         <v>6</v>
       </c>
@@ -25043,8 +26033,17 @@
       <c r="E439">
         <v>18.2</v>
       </c>
-    </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F439" t="s">
+        <v>3</v>
+      </c>
+      <c r="G439">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A440" t="s">
+        <v>219</v>
+      </c>
       <c r="B440" t="s">
         <v>16</v>
       </c>
@@ -25057,8 +26056,17 @@
       <c r="E440">
         <v>4</v>
       </c>
-    </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F440" t="s">
+        <v>3</v>
+      </c>
+      <c r="G440">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A441" t="s">
+        <v>219</v>
+      </c>
       <c r="B441" t="s">
         <v>18</v>
       </c>
@@ -25071,8 +26079,17 @@
       <c r="E441">
         <v>14</v>
       </c>
-    </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F441" t="s">
+        <v>3</v>
+      </c>
+      <c r="G441">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A442" t="s">
+        <v>219</v>
+      </c>
       <c r="B442" t="s">
         <v>6</v>
       </c>
@@ -25088,8 +26105,14 @@
       <c r="F442" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G442">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A443" t="s">
+        <v>219</v>
+      </c>
       <c r="B443" t="s">
         <v>4</v>
       </c>
@@ -25102,8 +26125,17 @@
       <c r="E443">
         <v>0</v>
       </c>
-    </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F443" t="s">
+        <v>45</v>
+      </c>
+      <c r="G443">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A444" t="s">
+        <v>219</v>
+      </c>
       <c r="B444" t="s">
         <v>7</v>
       </c>
@@ -25116,8 +26148,17 @@
       <c r="E444">
         <v>13</v>
       </c>
-    </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F444" t="s">
+        <v>45</v>
+      </c>
+      <c r="G444">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A445" t="s">
+        <v>219</v>
+      </c>
       <c r="B445" t="s">
         <v>6</v>
       </c>
@@ -25130,8 +26171,17 @@
       <c r="E445">
         <v>0</v>
       </c>
-    </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F445" t="s">
+        <v>45</v>
+      </c>
+      <c r="G445">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A446" t="s">
+        <v>219</v>
+      </c>
       <c r="B446" t="s">
         <v>16</v>
       </c>
@@ -25144,8 +26194,17 @@
       <c r="E446">
         <v>0</v>
       </c>
-    </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F446" t="s">
+        <v>45</v>
+      </c>
+      <c r="G446">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A447" t="s">
+        <v>219</v>
+      </c>
       <c r="B447" t="s">
         <v>7</v>
       </c>
@@ -25158,8 +26217,17 @@
       <c r="E447">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F447" t="s">
+        <v>45</v>
+      </c>
+      <c r="G447">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A448" t="s">
+        <v>219</v>
+      </c>
       <c r="B448" t="s">
         <v>7</v>
       </c>
@@ -25172,8 +26240,14 @@
       <c r="E448">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F448" t="s">
+        <v>45</v>
+      </c>
+      <c r="G448">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>225</v>
       </c>
@@ -25192,8 +26266,11 @@
       <c r="F449" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G449">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>225</v>
       </c>
@@ -25209,8 +26286,17 @@
       <c r="E450">
         <v>14.1</v>
       </c>
-    </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F450" t="s">
+        <v>3</v>
+      </c>
+      <c r="G450">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A451" t="s">
+        <v>225</v>
+      </c>
       <c r="B451" t="s">
         <v>6</v>
       </c>
@@ -25223,8 +26309,17 @@
       <c r="E451">
         <v>12</v>
       </c>
-    </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F451" t="s">
+        <v>3</v>
+      </c>
+      <c r="G451">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A452" t="s">
+        <v>225</v>
+      </c>
       <c r="B452" t="s">
         <v>7</v>
       </c>
@@ -25237,8 +26332,17 @@
       <c r="E452">
         <v>17.7</v>
       </c>
-    </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F452" t="s">
+        <v>3</v>
+      </c>
+      <c r="G452">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A453" t="s">
+        <v>225</v>
+      </c>
       <c r="B453" t="s">
         <v>7</v>
       </c>
@@ -25251,8 +26355,17 @@
       <c r="E453">
         <v>23.8</v>
       </c>
-    </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F453" t="s">
+        <v>3</v>
+      </c>
+      <c r="G453">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A454" t="s">
+        <v>225</v>
+      </c>
       <c r="B454" t="s">
         <v>13</v>
       </c>
@@ -25265,8 +26378,17 @@
       <c r="E454">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F454" t="s">
+        <v>3</v>
+      </c>
+      <c r="G454">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A455" t="s">
+        <v>225</v>
+      </c>
       <c r="B455" t="s">
         <v>7</v>
       </c>
@@ -25279,8 +26401,17 @@
       <c r="E455">
         <v>27.3</v>
       </c>
-    </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F455" t="s">
+        <v>3</v>
+      </c>
+      <c r="G455">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A456" t="s">
+        <v>225</v>
+      </c>
       <c r="B456" t="s">
         <v>16</v>
       </c>
@@ -25293,8 +26424,17 @@
       <c r="E456">
         <v>2</v>
       </c>
-    </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F456" t="s">
+        <v>3</v>
+      </c>
+      <c r="G456">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A457" t="s">
+        <v>225</v>
+      </c>
       <c r="B457" t="s">
         <v>18</v>
       </c>
@@ -25307,8 +26447,17 @@
       <c r="E457">
         <v>15</v>
       </c>
-    </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F457" t="s">
+        <v>3</v>
+      </c>
+      <c r="G457">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A458" t="s">
+        <v>225</v>
+      </c>
       <c r="B458" t="s">
         <v>6</v>
       </c>
@@ -25324,8 +26473,14 @@
       <c r="F458" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G458">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A459" t="s">
+        <v>225</v>
+      </c>
       <c r="B459" t="s">
         <v>13</v>
       </c>
@@ -25338,8 +26493,17 @@
       <c r="E459">
         <v>12.8</v>
       </c>
-    </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F459" t="s">
+        <v>45</v>
+      </c>
+      <c r="G459">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A460" t="s">
+        <v>225</v>
+      </c>
       <c r="B460" t="s">
         <v>7</v>
       </c>
@@ -25352,8 +26516,17 @@
       <c r="E460">
         <v>0</v>
       </c>
-    </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F460" t="s">
+        <v>45</v>
+      </c>
+      <c r="G460">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A461" t="s">
+        <v>225</v>
+      </c>
       <c r="B461" t="s">
         <v>6</v>
       </c>
@@ -25366,8 +26539,17 @@
       <c r="E461">
         <v>0</v>
       </c>
-    </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F461" t="s">
+        <v>45</v>
+      </c>
+      <c r="G461">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A462" t="s">
+        <v>225</v>
+      </c>
       <c r="B462" t="s">
         <v>4</v>
       </c>
@@ -25380,8 +26562,17 @@
       <c r="E462">
         <v>33.64</v>
       </c>
-    </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F462" t="s">
+        <v>45</v>
+      </c>
+      <c r="G462">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A463" t="s">
+        <v>225</v>
+      </c>
       <c r="B463" t="s">
         <v>7</v>
       </c>
@@ -25394,8 +26585,17 @@
       <c r="E463">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F463" t="s">
+        <v>45</v>
+      </c>
+      <c r="G463">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A464" t="s">
+        <v>225</v>
+      </c>
       <c r="B464" t="s">
         <v>7</v>
       </c>
@@ -25408,8 +26608,14 @@
       <c r="E464">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F464" t="s">
+        <v>45</v>
+      </c>
+      <c r="G464">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>220</v>
       </c>
@@ -25428,8 +26634,11 @@
       <c r="F465" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G465">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>220</v>
       </c>
@@ -25445,8 +26654,17 @@
       <c r="E466">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F466" t="s">
+        <v>3</v>
+      </c>
+      <c r="G466">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A467" t="s">
+        <v>220</v>
+      </c>
       <c r="B467" t="s">
         <v>6</v>
       </c>
@@ -25459,8 +26677,17 @@
       <c r="E467">
         <v>-0.1</v>
       </c>
-    </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F467" t="s">
+        <v>3</v>
+      </c>
+      <c r="G467">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A468" t="s">
+        <v>220</v>
+      </c>
       <c r="B468" t="s">
         <v>7</v>
       </c>
@@ -25473,8 +26700,17 @@
       <c r="E468">
         <v>44.6</v>
       </c>
-    </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F468" t="s">
+        <v>3</v>
+      </c>
+      <c r="G468">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A469" t="s">
+        <v>220</v>
+      </c>
       <c r="B469" t="s">
         <v>7</v>
       </c>
@@ -25487,8 +26723,17 @@
       <c r="E469">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F469" t="s">
+        <v>3</v>
+      </c>
+      <c r="G469">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A470" t="s">
+        <v>220</v>
+      </c>
       <c r="B470" t="s">
         <v>13</v>
       </c>
@@ -25501,8 +26746,17 @@
       <c r="E470">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F470" t="s">
+        <v>3</v>
+      </c>
+      <c r="G470">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A471" t="s">
+        <v>220</v>
+      </c>
       <c r="B471" t="s">
         <v>7</v>
       </c>
@@ -25515,8 +26769,17 @@
       <c r="E471">
         <v>15.2</v>
       </c>
-    </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F471" t="s">
+        <v>3</v>
+      </c>
+      <c r="G471">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A472" t="s">
+        <v>220</v>
+      </c>
       <c r="B472" t="s">
         <v>16</v>
       </c>
@@ -25529,8 +26792,17 @@
       <c r="E472">
         <v>1</v>
       </c>
-    </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F472" t="s">
+        <v>3</v>
+      </c>
+      <c r="G472">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A473" t="s">
+        <v>220</v>
+      </c>
       <c r="B473" t="s">
         <v>18</v>
       </c>
@@ -25543,8 +26815,17 @@
       <c r="E473">
         <v>11</v>
       </c>
-    </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F473" t="s">
+        <v>3</v>
+      </c>
+      <c r="G473">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A474" t="s">
+        <v>220</v>
+      </c>
       <c r="B474" t="s">
         <v>13</v>
       </c>
@@ -25560,8 +26841,14 @@
       <c r="F474" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G474">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A475" t="s">
+        <v>220</v>
+      </c>
       <c r="B475" t="s">
         <v>7</v>
       </c>
@@ -25574,8 +26861,17 @@
       <c r="E475">
         <v>17.899999999999999</v>
       </c>
-    </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F475" t="s">
+        <v>45</v>
+      </c>
+      <c r="G475">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A476" t="s">
+        <v>220</v>
+      </c>
       <c r="B476" t="s">
         <v>6</v>
       </c>
@@ -25588,8 +26884,17 @@
       <c r="E476">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F476" t="s">
+        <v>45</v>
+      </c>
+      <c r="G476">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A477" t="s">
+        <v>220</v>
+      </c>
       <c r="B477" t="s">
         <v>6</v>
       </c>
@@ -25602,8 +26907,17 @@
       <c r="E477">
         <v>0</v>
       </c>
-    </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F477" t="s">
+        <v>45</v>
+      </c>
+      <c r="G477">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="478" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A478" t="s">
+        <v>220</v>
+      </c>
       <c r="B478" t="s">
         <v>7</v>
       </c>
@@ -25616,8 +26930,17 @@
       <c r="E478">
         <v>0</v>
       </c>
-    </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F478" t="s">
+        <v>45</v>
+      </c>
+      <c r="G478">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A479" t="s">
+        <v>220</v>
+      </c>
       <c r="B479" t="s">
         <v>6</v>
       </c>
@@ -25630,8 +26953,17 @@
       <c r="E479">
         <v>0</v>
       </c>
-    </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F479" t="s">
+        <v>45</v>
+      </c>
+      <c r="G479">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="480" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A480" t="s">
+        <v>220</v>
+      </c>
       <c r="B480" t="s">
         <v>7</v>
       </c>
@@ -25643,6 +26975,3692 @@
       </c>
       <c r="E480">
         <v>0</v>
+      </c>
+      <c r="F480" t="s">
+        <v>45</v>
+      </c>
+      <c r="G480">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A481" t="s">
+        <v>227</v>
+      </c>
+      <c r="B481" t="s">
+        <v>4</v>
+      </c>
+      <c r="C481" t="s">
+        <v>229</v>
+      </c>
+      <c r="D481">
+        <v>17.5</v>
+      </c>
+      <c r="E481">
+        <v>12.04</v>
+      </c>
+      <c r="F481" t="s">
+        <v>3</v>
+      </c>
+      <c r="G481">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="482" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A482" t="s">
+        <v>227</v>
+      </c>
+      <c r="B482" t="s">
+        <v>6</v>
+      </c>
+      <c r="C482" t="s">
+        <v>127</v>
+      </c>
+      <c r="D482">
+        <v>15.5</v>
+      </c>
+      <c r="E482">
+        <v>6.1</v>
+      </c>
+      <c r="F482" t="s">
+        <v>3</v>
+      </c>
+      <c r="G482">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="483" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A483" t="s">
+        <v>227</v>
+      </c>
+      <c r="B483" t="s">
+        <v>6</v>
+      </c>
+      <c r="C483" t="s">
+        <v>128</v>
+      </c>
+      <c r="D483">
+        <v>18</v>
+      </c>
+      <c r="E483">
+        <v>12.9</v>
+      </c>
+      <c r="F483" t="s">
+        <v>3</v>
+      </c>
+      <c r="G483">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="484" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A484" t="s">
+        <v>227</v>
+      </c>
+      <c r="B484" t="s">
+        <v>7</v>
+      </c>
+      <c r="C484" t="s">
+        <v>135</v>
+      </c>
+      <c r="D484">
+        <v>13.9</v>
+      </c>
+      <c r="E484">
+        <v>0</v>
+      </c>
+      <c r="F484" t="s">
+        <v>3</v>
+      </c>
+      <c r="G484">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="485" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A485" t="s">
+        <v>227</v>
+      </c>
+      <c r="B485" t="s">
+        <v>7</v>
+      </c>
+      <c r="C485" t="s">
+        <v>129</v>
+      </c>
+      <c r="D485">
+        <v>12.1</v>
+      </c>
+      <c r="E485">
+        <v>13.7</v>
+      </c>
+      <c r="F485" t="s">
+        <v>3</v>
+      </c>
+      <c r="G485">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="486" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A486" t="s">
+        <v>227</v>
+      </c>
+      <c r="B486" t="s">
+        <v>13</v>
+      </c>
+      <c r="C486" t="s">
+        <v>14</v>
+      </c>
+      <c r="D486">
+        <v>12.8</v>
+      </c>
+      <c r="E486">
+        <v>14.1</v>
+      </c>
+      <c r="F486" t="s">
+        <v>3</v>
+      </c>
+      <c r="G486">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="487" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A487" t="s">
+        <v>227</v>
+      </c>
+      <c r="B487" t="s">
+        <v>6</v>
+      </c>
+      <c r="C487" t="s">
+        <v>136</v>
+      </c>
+      <c r="D487">
+        <v>14.9</v>
+      </c>
+      <c r="E487">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F487" t="s">
+        <v>3</v>
+      </c>
+      <c r="G487">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="488" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A488" t="s">
+        <v>227</v>
+      </c>
+      <c r="B488" t="s">
+        <v>16</v>
+      </c>
+      <c r="C488" t="s">
+        <v>173</v>
+      </c>
+      <c r="D488">
+        <v>5.9</v>
+      </c>
+      <c r="E488">
+        <v>7</v>
+      </c>
+      <c r="F488" t="s">
+        <v>3</v>
+      </c>
+      <c r="G488">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A489" t="s">
+        <v>227</v>
+      </c>
+      <c r="B489" t="s">
+        <v>18</v>
+      </c>
+      <c r="C489" t="s">
+        <v>134</v>
+      </c>
+      <c r="D489">
+        <v>8</v>
+      </c>
+      <c r="E489">
+        <v>15</v>
+      </c>
+      <c r="F489" t="s">
+        <v>3</v>
+      </c>
+      <c r="G489">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="490" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A490" t="s">
+        <v>227</v>
+      </c>
+      <c r="B490" t="s">
+        <v>6</v>
+      </c>
+      <c r="C490" t="s">
+        <v>137</v>
+      </c>
+      <c r="D490">
+        <v>12.5</v>
+      </c>
+      <c r="E490">
+        <v>5.3</v>
+      </c>
+      <c r="F490" t="s">
+        <v>45</v>
+      </c>
+      <c r="G490">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="491" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A491" t="s">
+        <v>227</v>
+      </c>
+      <c r="B491" t="s">
+        <v>7</v>
+      </c>
+      <c r="C491" t="s">
+        <v>138</v>
+      </c>
+      <c r="D491" t="s">
+        <v>213</v>
+      </c>
+      <c r="E491">
+        <v>0</v>
+      </c>
+      <c r="F491" t="s">
+        <v>45</v>
+      </c>
+      <c r="G491">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="492" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A492" t="s">
+        <v>227</v>
+      </c>
+      <c r="B492" t="s">
+        <v>13</v>
+      </c>
+      <c r="C492" t="s">
+        <v>131</v>
+      </c>
+      <c r="D492">
+        <v>9.9</v>
+      </c>
+      <c r="E492">
+        <v>12</v>
+      </c>
+      <c r="F492" t="s">
+        <v>45</v>
+      </c>
+      <c r="G492">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A493" t="s">
+        <v>227</v>
+      </c>
+      <c r="B493" t="s">
+        <v>6</v>
+      </c>
+      <c r="C493" t="s">
+        <v>139</v>
+      </c>
+      <c r="D493">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E493">
+        <v>13.1</v>
+      </c>
+      <c r="F493" t="s">
+        <v>45</v>
+      </c>
+      <c r="G493">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A494" t="s">
+        <v>227</v>
+      </c>
+      <c r="B494" t="s">
+        <v>7</v>
+      </c>
+      <c r="C494" t="s">
+        <v>140</v>
+      </c>
+      <c r="D494">
+        <v>6.9</v>
+      </c>
+      <c r="E494">
+        <v>22.6</v>
+      </c>
+      <c r="F494" t="s">
+        <v>45</v>
+      </c>
+      <c r="G494">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="495" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A495" t="s">
+        <v>227</v>
+      </c>
+      <c r="B495" t="s">
+        <v>7</v>
+      </c>
+      <c r="C495" t="s">
+        <v>130</v>
+      </c>
+      <c r="D495" t="s">
+        <v>213</v>
+      </c>
+      <c r="E495">
+        <v>0</v>
+      </c>
+      <c r="F495" t="s">
+        <v>45</v>
+      </c>
+      <c r="G495">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="496" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A496" t="s">
+        <v>227</v>
+      </c>
+      <c r="B496" t="s">
+        <v>4</v>
+      </c>
+      <c r="C496" t="s">
+        <v>126</v>
+      </c>
+      <c r="D496">
+        <v>15</v>
+      </c>
+      <c r="E496">
+        <v>22.44</v>
+      </c>
+      <c r="F496" t="s">
+        <v>45</v>
+      </c>
+      <c r="G496">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A497" t="s">
+        <v>218</v>
+      </c>
+      <c r="B497" t="s">
+        <v>4</v>
+      </c>
+      <c r="C497" t="s">
+        <v>24</v>
+      </c>
+      <c r="D497">
+        <v>19.2</v>
+      </c>
+      <c r="E497">
+        <v>22.54</v>
+      </c>
+      <c r="F497" t="s">
+        <v>3</v>
+      </c>
+      <c r="G497">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A498" t="s">
+        <v>218</v>
+      </c>
+      <c r="B498" t="s">
+        <v>6</v>
+      </c>
+      <c r="C498" t="s">
+        <v>9</v>
+      </c>
+      <c r="D498">
+        <v>22.9</v>
+      </c>
+      <c r="E498">
+        <v>25.3</v>
+      </c>
+      <c r="F498" t="s">
+        <v>3</v>
+      </c>
+      <c r="G498">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A499" t="s">
+        <v>218</v>
+      </c>
+      <c r="B499" t="s">
+        <v>6</v>
+      </c>
+      <c r="C499" t="s">
+        <v>190</v>
+      </c>
+      <c r="D499">
+        <v>19</v>
+      </c>
+      <c r="E499">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F499" t="s">
+        <v>3</v>
+      </c>
+      <c r="G499">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="500" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A500" t="s">
+        <v>218</v>
+      </c>
+      <c r="B500" t="s">
+        <v>7</v>
+      </c>
+      <c r="C500" t="s">
+        <v>11</v>
+      </c>
+      <c r="D500">
+        <v>14.4</v>
+      </c>
+      <c r="E500">
+        <v>7.5</v>
+      </c>
+      <c r="F500" t="s">
+        <v>3</v>
+      </c>
+      <c r="G500">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="501" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A501" t="s">
+        <v>218</v>
+      </c>
+      <c r="B501" t="s">
+        <v>7</v>
+      </c>
+      <c r="C501" t="s">
+        <v>12</v>
+      </c>
+      <c r="D501">
+        <v>12.9</v>
+      </c>
+      <c r="E501">
+        <v>1.5</v>
+      </c>
+      <c r="F501" t="s">
+        <v>3</v>
+      </c>
+      <c r="G501">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="502" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A502" t="s">
+        <v>218</v>
+      </c>
+      <c r="B502" t="s">
+        <v>13</v>
+      </c>
+      <c r="C502" t="s">
+        <v>206</v>
+      </c>
+      <c r="D502">
+        <v>9.1</v>
+      </c>
+      <c r="E502">
+        <v>3.3</v>
+      </c>
+      <c r="F502" t="s">
+        <v>3</v>
+      </c>
+      <c r="G502">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="503" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A503" t="s">
+        <v>218</v>
+      </c>
+      <c r="B503" t="s">
+        <v>7</v>
+      </c>
+      <c r="C503" t="s">
+        <v>214</v>
+      </c>
+      <c r="D503">
+        <v>13</v>
+      </c>
+      <c r="E503">
+        <v>14.4</v>
+      </c>
+      <c r="F503" t="s">
+        <v>3</v>
+      </c>
+      <c r="G503">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="504" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A504" t="s">
+        <v>218</v>
+      </c>
+      <c r="B504" t="s">
+        <v>16</v>
+      </c>
+      <c r="C504" t="s">
+        <v>191</v>
+      </c>
+      <c r="D504">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E504">
+        <v>6</v>
+      </c>
+      <c r="F504" t="s">
+        <v>3</v>
+      </c>
+      <c r="G504">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A505" t="s">
+        <v>218</v>
+      </c>
+      <c r="B505" t="s">
+        <v>18</v>
+      </c>
+      <c r="C505" t="s">
+        <v>19</v>
+      </c>
+      <c r="D505">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E505">
+        <v>8</v>
+      </c>
+      <c r="F505" t="s">
+        <v>3</v>
+      </c>
+      <c r="G505">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="506" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A506" t="s">
+        <v>218</v>
+      </c>
+      <c r="B506" t="s">
+        <v>6</v>
+      </c>
+      <c r="C506" t="s">
+        <v>10</v>
+      </c>
+      <c r="D506" t="s">
+        <v>213</v>
+      </c>
+      <c r="E506">
+        <v>0</v>
+      </c>
+      <c r="F506" t="s">
+        <v>45</v>
+      </c>
+      <c r="G506">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A507" t="s">
+        <v>218</v>
+      </c>
+      <c r="B507" t="s">
+        <v>4</v>
+      </c>
+      <c r="C507" t="s">
+        <v>8</v>
+      </c>
+      <c r="D507">
+        <v>15.4</v>
+      </c>
+      <c r="E507">
+        <v>18.36</v>
+      </c>
+      <c r="F507" t="s">
+        <v>45</v>
+      </c>
+      <c r="G507">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="508" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A508" t="s">
+        <v>218</v>
+      </c>
+      <c r="B508" t="s">
+        <v>6</v>
+      </c>
+      <c r="C508" t="s">
+        <v>192</v>
+      </c>
+      <c r="D508">
+        <v>0</v>
+      </c>
+      <c r="E508">
+        <v>0</v>
+      </c>
+      <c r="F508" t="s">
+        <v>45</v>
+      </c>
+      <c r="G508">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A509" t="s">
+        <v>218</v>
+      </c>
+      <c r="B509" t="s">
+        <v>7</v>
+      </c>
+      <c r="C509" t="s">
+        <v>207</v>
+      </c>
+      <c r="D509">
+        <v>10</v>
+      </c>
+      <c r="E509">
+        <v>26.8</v>
+      </c>
+      <c r="F509" t="s">
+        <v>45</v>
+      </c>
+      <c r="G509">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="510" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A510" t="s">
+        <v>218</v>
+      </c>
+      <c r="B510" t="s">
+        <v>7</v>
+      </c>
+      <c r="C510" t="s">
+        <v>233</v>
+      </c>
+      <c r="D510">
+        <v>14.1</v>
+      </c>
+      <c r="E510">
+        <v>19.8</v>
+      </c>
+      <c r="F510" t="s">
+        <v>45</v>
+      </c>
+      <c r="G510">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="511" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A511" t="s">
+        <v>218</v>
+      </c>
+      <c r="B511" t="s">
+        <v>6</v>
+      </c>
+      <c r="C511" t="s">
+        <v>250</v>
+      </c>
+      <c r="D511">
+        <v>10.5</v>
+      </c>
+      <c r="E511">
+        <v>5.3</v>
+      </c>
+      <c r="F511" t="s">
+        <v>45</v>
+      </c>
+      <c r="G511">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="512" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A512" t="s">
+        <v>218</v>
+      </c>
+      <c r="B512" t="s">
+        <v>7</v>
+      </c>
+      <c r="C512" t="s">
+        <v>251</v>
+      </c>
+      <c r="D512">
+        <v>12.4</v>
+      </c>
+      <c r="E512">
+        <v>23.1</v>
+      </c>
+      <c r="F512" t="s">
+        <v>45</v>
+      </c>
+      <c r="G512">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="513" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A513" t="s">
+        <v>221</v>
+      </c>
+      <c r="B513" t="s">
+        <v>4</v>
+      </c>
+      <c r="C513" t="s">
+        <v>62</v>
+      </c>
+      <c r="D513">
+        <v>22.3</v>
+      </c>
+      <c r="E513">
+        <v>36.64</v>
+      </c>
+      <c r="F513" t="s">
+        <v>3</v>
+      </c>
+      <c r="G513">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="514" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A514" t="s">
+        <v>221</v>
+      </c>
+      <c r="B514" t="s">
+        <v>6</v>
+      </c>
+      <c r="C514" t="s">
+        <v>71</v>
+      </c>
+      <c r="D514">
+        <v>13.8</v>
+      </c>
+      <c r="E514">
+        <v>10.1</v>
+      </c>
+      <c r="F514" t="s">
+        <v>3</v>
+      </c>
+      <c r="G514">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="515" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A515" t="s">
+        <v>221</v>
+      </c>
+      <c r="B515" t="s">
+        <v>6</v>
+      </c>
+      <c r="C515" t="s">
+        <v>202</v>
+      </c>
+      <c r="D515">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E515">
+        <v>13.3</v>
+      </c>
+      <c r="F515" t="s">
+        <v>3</v>
+      </c>
+      <c r="G515">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="516" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A516" t="s">
+        <v>221</v>
+      </c>
+      <c r="B516" t="s">
+        <v>7</v>
+      </c>
+      <c r="C516" t="s">
+        <v>65</v>
+      </c>
+      <c r="D516">
+        <v>16.2</v>
+      </c>
+      <c r="E516">
+        <v>25.8</v>
+      </c>
+      <c r="F516" t="s">
+        <v>3</v>
+      </c>
+      <c r="G516">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="517" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A517" t="s">
+        <v>221</v>
+      </c>
+      <c r="B517" t="s">
+        <v>7</v>
+      </c>
+      <c r="C517" t="s">
+        <v>66</v>
+      </c>
+      <c r="D517">
+        <v>14.2</v>
+      </c>
+      <c r="E517">
+        <v>28.4</v>
+      </c>
+      <c r="F517" t="s">
+        <v>3</v>
+      </c>
+      <c r="G517">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="518" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A518" t="s">
+        <v>221</v>
+      </c>
+      <c r="B518" t="s">
+        <v>13</v>
+      </c>
+      <c r="C518" t="s">
+        <v>163</v>
+      </c>
+      <c r="D518">
+        <v>10.3</v>
+      </c>
+      <c r="E518">
+        <v>11.7</v>
+      </c>
+      <c r="F518" t="s">
+        <v>3</v>
+      </c>
+      <c r="G518">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="519" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A519" t="s">
+        <v>221</v>
+      </c>
+      <c r="B519" t="s">
+        <v>7</v>
+      </c>
+      <c r="C519" t="s">
+        <v>73</v>
+      </c>
+      <c r="D519">
+        <v>14.1</v>
+      </c>
+      <c r="E519">
+        <v>1.6</v>
+      </c>
+      <c r="F519" t="s">
+        <v>3</v>
+      </c>
+      <c r="G519">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="520" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A520" t="s">
+        <v>221</v>
+      </c>
+      <c r="B520" t="s">
+        <v>16</v>
+      </c>
+      <c r="C520" t="s">
+        <v>133</v>
+      </c>
+      <c r="D520">
+        <v>5.9</v>
+      </c>
+      <c r="E520">
+        <v>2</v>
+      </c>
+      <c r="F520" t="s">
+        <v>3</v>
+      </c>
+      <c r="G520">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="521" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A521" t="s">
+        <v>221</v>
+      </c>
+      <c r="B521" t="s">
+        <v>18</v>
+      </c>
+      <c r="C521" t="s">
+        <v>252</v>
+      </c>
+      <c r="D521">
+        <v>9.5</v>
+      </c>
+      <c r="E521">
+        <v>5</v>
+      </c>
+      <c r="F521" t="s">
+        <v>3</v>
+      </c>
+      <c r="G521">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="522" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A522" t="s">
+        <v>221</v>
+      </c>
+      <c r="B522" t="s">
+        <v>13</v>
+      </c>
+      <c r="C522" t="s">
+        <v>67</v>
+      </c>
+      <c r="D522">
+        <v>0</v>
+      </c>
+      <c r="E522">
+        <v>0</v>
+      </c>
+      <c r="F522" t="s">
+        <v>45</v>
+      </c>
+      <c r="G522">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="523" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A523" t="s">
+        <v>221</v>
+      </c>
+      <c r="B523" t="s">
+        <v>7</v>
+      </c>
+      <c r="C523" t="s">
+        <v>68</v>
+      </c>
+      <c r="D523" t="s">
+        <v>213</v>
+      </c>
+      <c r="E523">
+        <v>0</v>
+      </c>
+      <c r="F523" t="s">
+        <v>45</v>
+      </c>
+      <c r="G523">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="524" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A524" t="s">
+        <v>221</v>
+      </c>
+      <c r="B524" t="s">
+        <v>6</v>
+      </c>
+      <c r="C524" t="s">
+        <v>72</v>
+      </c>
+      <c r="D524">
+        <v>13.7</v>
+      </c>
+      <c r="E524">
+        <v>6.6</v>
+      </c>
+      <c r="F524" t="s">
+        <v>45</v>
+      </c>
+      <c r="G524">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="525" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A525" t="s">
+        <v>221</v>
+      </c>
+      <c r="B525" t="s">
+        <v>7</v>
+      </c>
+      <c r="C525" t="s">
+        <v>74</v>
+      </c>
+      <c r="D525">
+        <v>10.3</v>
+      </c>
+      <c r="E525">
+        <v>11.3</v>
+      </c>
+      <c r="F525" t="s">
+        <v>45</v>
+      </c>
+      <c r="G525">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="526" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A526" t="s">
+        <v>221</v>
+      </c>
+      <c r="B526" t="s">
+        <v>7</v>
+      </c>
+      <c r="C526" t="s">
+        <v>75</v>
+      </c>
+      <c r="D526">
+        <v>0</v>
+      </c>
+      <c r="E526">
+        <v>0</v>
+      </c>
+      <c r="F526" t="s">
+        <v>45</v>
+      </c>
+      <c r="G526">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="527" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A527" t="s">
+        <v>221</v>
+      </c>
+      <c r="B527" t="s">
+        <v>6</v>
+      </c>
+      <c r="C527" t="s">
+        <v>77</v>
+      </c>
+      <c r="D527">
+        <v>12.8</v>
+      </c>
+      <c r="E527">
+        <v>17.2</v>
+      </c>
+      <c r="F527" t="s">
+        <v>45</v>
+      </c>
+      <c r="G527">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="528" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A528" t="s">
+        <v>221</v>
+      </c>
+      <c r="B528" t="s">
+        <v>7</v>
+      </c>
+      <c r="C528" t="s">
+        <v>238</v>
+      </c>
+      <c r="D528" t="s">
+        <v>213</v>
+      </c>
+      <c r="E528">
+        <v>0</v>
+      </c>
+      <c r="F528" t="s">
+        <v>45</v>
+      </c>
+      <c r="G528">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="529" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A529" t="s">
+        <v>222</v>
+      </c>
+      <c r="B529" t="s">
+        <v>4</v>
+      </c>
+      <c r="C529" t="s">
+        <v>235</v>
+      </c>
+      <c r="D529">
+        <v>16.3</v>
+      </c>
+      <c r="E529">
+        <v>12.54</v>
+      </c>
+      <c r="F529" t="s">
+        <v>3</v>
+      </c>
+      <c r="G529">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="530" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A530" t="s">
+        <v>222</v>
+      </c>
+      <c r="B530" t="s">
+        <v>6</v>
+      </c>
+      <c r="C530" t="s">
+        <v>87</v>
+      </c>
+      <c r="D530">
+        <v>11.5</v>
+      </c>
+      <c r="E530">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F530" t="s">
+        <v>3</v>
+      </c>
+      <c r="G530">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="531" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A531" t="s">
+        <v>222</v>
+      </c>
+      <c r="B531" t="s">
+        <v>6</v>
+      </c>
+      <c r="C531" t="s">
+        <v>253</v>
+      </c>
+      <c r="D531">
+        <v>12.4</v>
+      </c>
+      <c r="E531">
+        <v>22.8</v>
+      </c>
+      <c r="F531" t="s">
+        <v>3</v>
+      </c>
+      <c r="G531">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="532" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A532" t="s">
+        <v>222</v>
+      </c>
+      <c r="B532" t="s">
+        <v>7</v>
+      </c>
+      <c r="C532" t="s">
+        <v>82</v>
+      </c>
+      <c r="D532">
+        <v>15.6</v>
+      </c>
+      <c r="E532">
+        <v>7.2</v>
+      </c>
+      <c r="F532" t="s">
+        <v>3</v>
+      </c>
+      <c r="G532">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="533" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A533" t="s">
+        <v>222</v>
+      </c>
+      <c r="B533" t="s">
+        <v>7</v>
+      </c>
+      <c r="C533" t="s">
+        <v>84</v>
+      </c>
+      <c r="D533">
+        <v>15.8</v>
+      </c>
+      <c r="E533">
+        <v>15.2</v>
+      </c>
+      <c r="F533" t="s">
+        <v>3</v>
+      </c>
+      <c r="G533">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="534" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A534" t="s">
+        <v>222</v>
+      </c>
+      <c r="B534" t="s">
+        <v>13</v>
+      </c>
+      <c r="C534" t="s">
+        <v>83</v>
+      </c>
+      <c r="D534">
+        <v>11.6</v>
+      </c>
+      <c r="E534">
+        <v>7.3</v>
+      </c>
+      <c r="F534" t="s">
+        <v>3</v>
+      </c>
+      <c r="G534">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="535" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A535" t="s">
+        <v>222</v>
+      </c>
+      <c r="B535" t="s">
+        <v>7</v>
+      </c>
+      <c r="C535" t="s">
+        <v>21</v>
+      </c>
+      <c r="D535">
+        <v>10.3</v>
+      </c>
+      <c r="E535">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F535" t="s">
+        <v>3</v>
+      </c>
+      <c r="G535">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="536" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A536" t="s">
+        <v>222</v>
+      </c>
+      <c r="B536" t="s">
+        <v>16</v>
+      </c>
+      <c r="C536" t="s">
+        <v>241</v>
+      </c>
+      <c r="D536">
+        <v>8</v>
+      </c>
+      <c r="E536">
+        <v>10</v>
+      </c>
+      <c r="F536" t="s">
+        <v>3</v>
+      </c>
+      <c r="G536">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="537" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A537" t="s">
+        <v>222</v>
+      </c>
+      <c r="B537" t="s">
+        <v>18</v>
+      </c>
+      <c r="C537" t="s">
+        <v>86</v>
+      </c>
+      <c r="D537">
+        <v>7.7</v>
+      </c>
+      <c r="E537">
+        <v>4</v>
+      </c>
+      <c r="F537" t="s">
+        <v>3</v>
+      </c>
+      <c r="G537">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="538" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A538" t="s">
+        <v>222</v>
+      </c>
+      <c r="B538" t="s">
+        <v>7</v>
+      </c>
+      <c r="C538" t="s">
+        <v>81</v>
+      </c>
+      <c r="D538" t="s">
+        <v>213</v>
+      </c>
+      <c r="E538">
+        <v>0</v>
+      </c>
+      <c r="F538" t="s">
+        <v>45</v>
+      </c>
+      <c r="G538">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="539" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A539" t="s">
+        <v>222</v>
+      </c>
+      <c r="B539" t="s">
+        <v>6</v>
+      </c>
+      <c r="C539" t="s">
+        <v>79</v>
+      </c>
+      <c r="D539">
+        <v>0</v>
+      </c>
+      <c r="E539">
+        <v>0</v>
+      </c>
+      <c r="F539" t="s">
+        <v>45</v>
+      </c>
+      <c r="G539">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="540" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A540" t="s">
+        <v>222</v>
+      </c>
+      <c r="B540" t="s">
+        <v>6</v>
+      </c>
+      <c r="C540" t="s">
+        <v>80</v>
+      </c>
+      <c r="D540">
+        <v>0</v>
+      </c>
+      <c r="E540">
+        <v>0</v>
+      </c>
+      <c r="F540" t="s">
+        <v>45</v>
+      </c>
+      <c r="G540">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="541" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A541" t="s">
+        <v>222</v>
+      </c>
+      <c r="B541" t="s">
+        <v>4</v>
+      </c>
+      <c r="C541" t="s">
+        <v>78</v>
+      </c>
+      <c r="D541" t="s">
+        <v>213</v>
+      </c>
+      <c r="E541">
+        <v>0</v>
+      </c>
+      <c r="F541" t="s">
+        <v>45</v>
+      </c>
+      <c r="G541">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="542" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A542" t="s">
+        <v>222</v>
+      </c>
+      <c r="B542" t="s">
+        <v>7</v>
+      </c>
+      <c r="C542" t="s">
+        <v>88</v>
+      </c>
+      <c r="D542">
+        <v>12</v>
+      </c>
+      <c r="E542">
+        <v>7.3</v>
+      </c>
+      <c r="F542" t="s">
+        <v>45</v>
+      </c>
+      <c r="G542">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="543" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A543" t="s">
+        <v>222</v>
+      </c>
+      <c r="B543" t="s">
+        <v>6</v>
+      </c>
+      <c r="C543" t="s">
+        <v>93</v>
+      </c>
+      <c r="D543" t="s">
+        <v>213</v>
+      </c>
+      <c r="E543">
+        <v>0</v>
+      </c>
+      <c r="F543" t="s">
+        <v>45</v>
+      </c>
+      <c r="G543">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="544" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A544" t="s">
+        <v>222</v>
+      </c>
+      <c r="B544" t="s">
+        <v>16</v>
+      </c>
+      <c r="C544" t="s">
+        <v>101</v>
+      </c>
+      <c r="D544">
+        <v>6.4</v>
+      </c>
+      <c r="E544">
+        <v>15</v>
+      </c>
+      <c r="F544" t="s">
+        <v>45</v>
+      </c>
+      <c r="G544">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="545" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A545" t="s">
+        <v>219</v>
+      </c>
+      <c r="B545" t="s">
+        <v>4</v>
+      </c>
+      <c r="C545" t="s">
+        <v>40</v>
+      </c>
+      <c r="D545">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="E545">
+        <v>12.46</v>
+      </c>
+      <c r="F545" t="s">
+        <v>3</v>
+      </c>
+      <c r="G545">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="546" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A546" t="s">
+        <v>219</v>
+      </c>
+      <c r="B546" t="s">
+        <v>6</v>
+      </c>
+      <c r="C546" t="s">
+        <v>36</v>
+      </c>
+      <c r="D546">
+        <v>15.9</v>
+      </c>
+      <c r="E546">
+        <v>12.5</v>
+      </c>
+      <c r="F546" t="s">
+        <v>3</v>
+      </c>
+      <c r="G546">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="547" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A547" t="s">
+        <v>219</v>
+      </c>
+      <c r="B547" t="s">
+        <v>6</v>
+      </c>
+      <c r="C547" t="s">
+        <v>33</v>
+      </c>
+      <c r="D547">
+        <v>15.4</v>
+      </c>
+      <c r="E547">
+        <v>9.9</v>
+      </c>
+      <c r="F547" t="s">
+        <v>3</v>
+      </c>
+      <c r="G547">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="548" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A548" t="s">
+        <v>219</v>
+      </c>
+      <c r="B548" t="s">
+        <v>7</v>
+      </c>
+      <c r="C548" t="s">
+        <v>30</v>
+      </c>
+      <c r="D548">
+        <v>14.1</v>
+      </c>
+      <c r="E548">
+        <v>22</v>
+      </c>
+      <c r="F548" t="s">
+        <v>3</v>
+      </c>
+      <c r="G548">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="549" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A549" t="s">
+        <v>219</v>
+      </c>
+      <c r="B549" t="s">
+        <v>7</v>
+      </c>
+      <c r="C549" t="s">
+        <v>31</v>
+      </c>
+      <c r="D549">
+        <v>17.8</v>
+      </c>
+      <c r="E549">
+        <v>21.7</v>
+      </c>
+      <c r="F549" t="s">
+        <v>3</v>
+      </c>
+      <c r="G549">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="550" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A550" t="s">
+        <v>219</v>
+      </c>
+      <c r="B550" t="s">
+        <v>13</v>
+      </c>
+      <c r="C550" t="s">
+        <v>32</v>
+      </c>
+      <c r="D550">
+        <v>15.5</v>
+      </c>
+      <c r="E550">
+        <v>24.9</v>
+      </c>
+      <c r="F550" t="s">
+        <v>3</v>
+      </c>
+      <c r="G550">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="551" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A551" t="s">
+        <v>219</v>
+      </c>
+      <c r="B551" t="s">
+        <v>7</v>
+      </c>
+      <c r="C551" t="s">
+        <v>157</v>
+      </c>
+      <c r="D551">
+        <v>11</v>
+      </c>
+      <c r="E551">
+        <v>21.4</v>
+      </c>
+      <c r="F551" t="s">
+        <v>3</v>
+      </c>
+      <c r="G551">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="552" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A552" t="s">
+        <v>219</v>
+      </c>
+      <c r="B552" t="s">
+        <v>16</v>
+      </c>
+      <c r="C552" t="s">
+        <v>247</v>
+      </c>
+      <c r="D552">
+        <v>5.5</v>
+      </c>
+      <c r="E552">
+        <v>0</v>
+      </c>
+      <c r="F552" t="s">
+        <v>3</v>
+      </c>
+      <c r="G552">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="553" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A553" t="s">
+        <v>219</v>
+      </c>
+      <c r="B553" t="s">
+        <v>18</v>
+      </c>
+      <c r="C553" t="s">
+        <v>35</v>
+      </c>
+      <c r="D553">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E553">
+        <v>5</v>
+      </c>
+      <c r="F553" t="s">
+        <v>3</v>
+      </c>
+      <c r="G553">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="554" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A554" t="s">
+        <v>219</v>
+      </c>
+      <c r="B554" t="s">
+        <v>6</v>
+      </c>
+      <c r="C554" t="s">
+        <v>28</v>
+      </c>
+      <c r="D554">
+        <v>0</v>
+      </c>
+      <c r="E554">
+        <v>0</v>
+      </c>
+      <c r="F554" t="s">
+        <v>45</v>
+      </c>
+      <c r="G554">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="555" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A555" t="s">
+        <v>219</v>
+      </c>
+      <c r="B555" t="s">
+        <v>4</v>
+      </c>
+      <c r="C555" t="s">
+        <v>27</v>
+      </c>
+      <c r="D555">
+        <v>20.6</v>
+      </c>
+      <c r="E555">
+        <v>14.82</v>
+      </c>
+      <c r="F555" t="s">
+        <v>45</v>
+      </c>
+      <c r="G555">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="556" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A556" t="s">
+        <v>219</v>
+      </c>
+      <c r="B556" t="s">
+        <v>7</v>
+      </c>
+      <c r="C556" t="s">
+        <v>38</v>
+      </c>
+      <c r="D556">
+        <v>9.6</v>
+      </c>
+      <c r="E556">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="F556" t="s">
+        <v>45</v>
+      </c>
+      <c r="G556">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="557" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A557" t="s">
+        <v>219</v>
+      </c>
+      <c r="B557" t="s">
+        <v>16</v>
+      </c>
+      <c r="C557" t="s">
+        <v>34</v>
+      </c>
+      <c r="D557">
+        <v>5.2</v>
+      </c>
+      <c r="E557">
+        <v>6</v>
+      </c>
+      <c r="F557" t="s">
+        <v>45</v>
+      </c>
+      <c r="G557">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="558" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A558" t="s">
+        <v>219</v>
+      </c>
+      <c r="B558" t="s">
+        <v>7</v>
+      </c>
+      <c r="C558" t="s">
+        <v>41</v>
+      </c>
+      <c r="D558">
+        <v>0</v>
+      </c>
+      <c r="E558">
+        <v>0</v>
+      </c>
+      <c r="F558" t="s">
+        <v>45</v>
+      </c>
+      <c r="G558">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="559" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A559" t="s">
+        <v>219</v>
+      </c>
+      <c r="B559" t="s">
+        <v>7</v>
+      </c>
+      <c r="C559" t="s">
+        <v>42</v>
+      </c>
+      <c r="D559">
+        <v>9.1</v>
+      </c>
+      <c r="E559">
+        <v>21</v>
+      </c>
+      <c r="F559" t="s">
+        <v>45</v>
+      </c>
+      <c r="G559">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="560" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A560" t="s">
+        <v>219</v>
+      </c>
+      <c r="B560" t="s">
+        <v>6</v>
+      </c>
+      <c r="C560" t="s">
+        <v>239</v>
+      </c>
+      <c r="D560" t="s">
+        <v>213</v>
+      </c>
+      <c r="E560">
+        <v>0</v>
+      </c>
+      <c r="F560" t="s">
+        <v>45</v>
+      </c>
+      <c r="G560">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="561" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A561" t="s">
+        <v>226</v>
+      </c>
+      <c r="B561" t="s">
+        <v>4</v>
+      </c>
+      <c r="C561" t="s">
+        <v>212</v>
+      </c>
+      <c r="D561">
+        <v>18.8</v>
+      </c>
+      <c r="E561">
+        <v>21.22</v>
+      </c>
+      <c r="F561" t="s">
+        <v>3</v>
+      </c>
+      <c r="G561">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="562" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A562" t="s">
+        <v>226</v>
+      </c>
+      <c r="B562" t="s">
+        <v>6</v>
+      </c>
+      <c r="C562" t="s">
+        <v>242</v>
+      </c>
+      <c r="D562">
+        <v>18.3</v>
+      </c>
+      <c r="E562">
+        <v>18.2</v>
+      </c>
+      <c r="F562" t="s">
+        <v>3</v>
+      </c>
+      <c r="G562">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="563" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A563" t="s">
+        <v>226</v>
+      </c>
+      <c r="B563" t="s">
+        <v>6</v>
+      </c>
+      <c r="C563" t="s">
+        <v>153</v>
+      </c>
+      <c r="D563">
+        <v>6.1</v>
+      </c>
+      <c r="E563">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="F563" t="s">
+        <v>3</v>
+      </c>
+      <c r="G563">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="564" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A564" t="s">
+        <v>226</v>
+      </c>
+      <c r="B564" t="s">
+        <v>7</v>
+      </c>
+      <c r="C564" t="s">
+        <v>148</v>
+      </c>
+      <c r="D564">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="E564">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F564" t="s">
+        <v>3</v>
+      </c>
+      <c r="G564">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="565" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A565" t="s">
+        <v>226</v>
+      </c>
+      <c r="B565" t="s">
+        <v>7</v>
+      </c>
+      <c r="C565" t="s">
+        <v>236</v>
+      </c>
+      <c r="D565">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E565">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F565" t="s">
+        <v>3</v>
+      </c>
+      <c r="G565">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="566" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A566" t="s">
+        <v>226</v>
+      </c>
+      <c r="B566" t="s">
+        <v>13</v>
+      </c>
+      <c r="C566" t="s">
+        <v>155</v>
+      </c>
+      <c r="D566">
+        <v>9.6</v>
+      </c>
+      <c r="E566">
+        <v>13.5</v>
+      </c>
+      <c r="F566" t="s">
+        <v>3</v>
+      </c>
+      <c r="G566">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="567" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A567" t="s">
+        <v>226</v>
+      </c>
+      <c r="B567" t="s">
+        <v>7</v>
+      </c>
+      <c r="C567" t="s">
+        <v>254</v>
+      </c>
+      <c r="D567">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E567">
+        <v>0</v>
+      </c>
+      <c r="F567" t="s">
+        <v>3</v>
+      </c>
+      <c r="G567">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="568" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A568" t="s">
+        <v>226</v>
+      </c>
+      <c r="B568" t="s">
+        <v>16</v>
+      </c>
+      <c r="C568" t="s">
+        <v>183</v>
+      </c>
+      <c r="D568">
+        <v>7</v>
+      </c>
+      <c r="E568">
+        <v>8</v>
+      </c>
+      <c r="F568" t="s">
+        <v>3</v>
+      </c>
+      <c r="G568">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="569" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A569" t="s">
+        <v>226</v>
+      </c>
+      <c r="B569" t="s">
+        <v>18</v>
+      </c>
+      <c r="C569" t="s">
+        <v>203</v>
+      </c>
+      <c r="D569">
+        <v>8.4</v>
+      </c>
+      <c r="E569">
+        <v>13</v>
+      </c>
+      <c r="F569" t="s">
+        <v>3</v>
+      </c>
+      <c r="G569">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="570" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A570" t="s">
+        <v>226</v>
+      </c>
+      <c r="B570" t="s">
+        <v>6</v>
+      </c>
+      <c r="C570" t="s">
+        <v>151</v>
+      </c>
+      <c r="D570">
+        <v>0</v>
+      </c>
+      <c r="E570">
+        <v>0</v>
+      </c>
+      <c r="F570" t="s">
+        <v>45</v>
+      </c>
+      <c r="G570">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="571" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A571" t="s">
+        <v>226</v>
+      </c>
+      <c r="B571" t="s">
+        <v>6</v>
+      </c>
+      <c r="C571" t="s">
+        <v>143</v>
+      </c>
+      <c r="D571">
+        <v>0</v>
+      </c>
+      <c r="E571">
+        <v>0</v>
+      </c>
+      <c r="F571" t="s">
+        <v>45</v>
+      </c>
+      <c r="G571">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="572" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A572" t="s">
+        <v>226</v>
+      </c>
+      <c r="B572" t="s">
+        <v>7</v>
+      </c>
+      <c r="C572" t="s">
+        <v>145</v>
+      </c>
+      <c r="D572">
+        <v>16.2</v>
+      </c>
+      <c r="E572">
+        <v>20.7</v>
+      </c>
+      <c r="F572" t="s">
+        <v>45</v>
+      </c>
+      <c r="G572">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="573" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A573" t="s">
+        <v>226</v>
+      </c>
+      <c r="B573" t="s">
+        <v>4</v>
+      </c>
+      <c r="C573" t="s">
+        <v>142</v>
+      </c>
+      <c r="D573" t="s">
+        <v>213</v>
+      </c>
+      <c r="E573">
+        <v>0</v>
+      </c>
+      <c r="F573" t="s">
+        <v>45</v>
+      </c>
+      <c r="G573">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="574" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A574" t="s">
+        <v>226</v>
+      </c>
+      <c r="B574" t="s">
+        <v>13</v>
+      </c>
+      <c r="C574" t="s">
+        <v>147</v>
+      </c>
+      <c r="D574">
+        <v>7</v>
+      </c>
+      <c r="E574">
+        <v>3.4</v>
+      </c>
+      <c r="F574" t="s">
+        <v>45</v>
+      </c>
+      <c r="G574">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="575" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A575" t="s">
+        <v>226</v>
+      </c>
+      <c r="B575" t="s">
+        <v>6</v>
+      </c>
+      <c r="C575" t="s">
+        <v>169</v>
+      </c>
+      <c r="D575">
+        <v>7.4</v>
+      </c>
+      <c r="E575">
+        <v>5.5</v>
+      </c>
+      <c r="F575" t="s">
+        <v>45</v>
+      </c>
+      <c r="G575">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="576" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A576" t="s">
+        <v>226</v>
+      </c>
+      <c r="B576" t="s">
+        <v>7</v>
+      </c>
+      <c r="C576" t="s">
+        <v>243</v>
+      </c>
+      <c r="D576">
+        <v>0</v>
+      </c>
+      <c r="E576">
+        <v>0</v>
+      </c>
+      <c r="F576" t="s">
+        <v>45</v>
+      </c>
+      <c r="G576">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="577" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A577" t="s">
+        <v>220</v>
+      </c>
+      <c r="B577" t="s">
+        <v>4</v>
+      </c>
+      <c r="C577" t="s">
+        <v>201</v>
+      </c>
+      <c r="D577">
+        <v>17</v>
+      </c>
+      <c r="E577">
+        <v>17.32</v>
+      </c>
+      <c r="F577" t="s">
+        <v>3</v>
+      </c>
+      <c r="G577">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="578" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A578" t="s">
+        <v>220</v>
+      </c>
+      <c r="B578" t="s">
+        <v>6</v>
+      </c>
+      <c r="C578" t="s">
+        <v>47</v>
+      </c>
+      <c r="D578">
+        <v>16.7</v>
+      </c>
+      <c r="E578">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F578" t="s">
+        <v>3</v>
+      </c>
+      <c r="G578">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="579" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A579" t="s">
+        <v>220</v>
+      </c>
+      <c r="B579" t="s">
+        <v>6</v>
+      </c>
+      <c r="C579" t="s">
+        <v>95</v>
+      </c>
+      <c r="D579">
+        <v>18.7</v>
+      </c>
+      <c r="E579">
+        <v>48.6</v>
+      </c>
+      <c r="F579" t="s">
+        <v>3</v>
+      </c>
+      <c r="G579">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="580" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A580" t="s">
+        <v>220</v>
+      </c>
+      <c r="B580" t="s">
+        <v>7</v>
+      </c>
+      <c r="C580" t="s">
+        <v>49</v>
+      </c>
+      <c r="D580">
+        <v>21.4</v>
+      </c>
+      <c r="E580">
+        <v>30.3</v>
+      </c>
+      <c r="F580" t="s">
+        <v>3</v>
+      </c>
+      <c r="G580">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="581" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A581" t="s">
+        <v>220</v>
+      </c>
+      <c r="B581" t="s">
+        <v>7</v>
+      </c>
+      <c r="C581" t="s">
+        <v>100</v>
+      </c>
+      <c r="D581">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="E581">
+        <v>40.1</v>
+      </c>
+      <c r="F581" t="s">
+        <v>3</v>
+      </c>
+      <c r="G581">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="582" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A582" t="s">
+        <v>220</v>
+      </c>
+      <c r="B582" t="s">
+        <v>13</v>
+      </c>
+      <c r="C582" t="s">
+        <v>51</v>
+      </c>
+      <c r="D582">
+        <v>12.8</v>
+      </c>
+      <c r="E582">
+        <v>6.2</v>
+      </c>
+      <c r="F582" t="s">
+        <v>3</v>
+      </c>
+      <c r="G582">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="583" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A583" t="s">
+        <v>220</v>
+      </c>
+      <c r="B583" t="s">
+        <v>7</v>
+      </c>
+      <c r="C583" t="s">
+        <v>52</v>
+      </c>
+      <c r="D583">
+        <v>12.5</v>
+      </c>
+      <c r="E583">
+        <v>3.9</v>
+      </c>
+      <c r="F583" t="s">
+        <v>3</v>
+      </c>
+      <c r="G583">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="584" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A584" t="s">
+        <v>220</v>
+      </c>
+      <c r="B584" t="s">
+        <v>16</v>
+      </c>
+      <c r="C584" t="s">
+        <v>85</v>
+      </c>
+      <c r="D584">
+        <v>5.9</v>
+      </c>
+      <c r="E584">
+        <v>-2</v>
+      </c>
+      <c r="F584" t="s">
+        <v>3</v>
+      </c>
+      <c r="G584">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="585" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A585" t="s">
+        <v>220</v>
+      </c>
+      <c r="B585" t="s">
+        <v>18</v>
+      </c>
+      <c r="C585" t="s">
+        <v>54</v>
+      </c>
+      <c r="D585">
+        <v>8.4</v>
+      </c>
+      <c r="E585">
+        <v>13</v>
+      </c>
+      <c r="F585" t="s">
+        <v>3</v>
+      </c>
+      <c r="G585">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="586" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A586" t="s">
+        <v>220</v>
+      </c>
+      <c r="B586" t="s">
+        <v>7</v>
+      </c>
+      <c r="C586" t="s">
+        <v>55</v>
+      </c>
+      <c r="D586">
+        <v>12.2</v>
+      </c>
+      <c r="E586">
+        <v>15.4</v>
+      </c>
+      <c r="F586" t="s">
+        <v>45</v>
+      </c>
+      <c r="G586">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="587" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A587" t="s">
+        <v>220</v>
+      </c>
+      <c r="B587" t="s">
+        <v>6</v>
+      </c>
+      <c r="C587" t="s">
+        <v>56</v>
+      </c>
+      <c r="D587">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E587">
+        <v>6.1</v>
+      </c>
+      <c r="F587" t="s">
+        <v>45</v>
+      </c>
+      <c r="G587">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="588" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A588" t="s">
+        <v>220</v>
+      </c>
+      <c r="B588" t="s">
+        <v>6</v>
+      </c>
+      <c r="C588" t="s">
+        <v>196</v>
+      </c>
+      <c r="D588">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E588">
+        <v>13.9</v>
+      </c>
+      <c r="F588" t="s">
+        <v>45</v>
+      </c>
+      <c r="G588">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="589" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A589" t="s">
+        <v>220</v>
+      </c>
+      <c r="B589" t="s">
+        <v>7</v>
+      </c>
+      <c r="C589" t="s">
+        <v>104</v>
+      </c>
+      <c r="D589">
+        <v>0</v>
+      </c>
+      <c r="E589">
+        <v>0</v>
+      </c>
+      <c r="F589" t="s">
+        <v>45</v>
+      </c>
+      <c r="G589">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="590" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A590" t="s">
+        <v>220</v>
+      </c>
+      <c r="B590" t="s">
+        <v>6</v>
+      </c>
+      <c r="C590" t="s">
+        <v>37</v>
+      </c>
+      <c r="D590">
+        <v>0</v>
+      </c>
+      <c r="E590">
+        <v>0</v>
+      </c>
+      <c r="F590" t="s">
+        <v>45</v>
+      </c>
+      <c r="G590">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="591" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A591" t="s">
+        <v>220</v>
+      </c>
+      <c r="B591" t="s">
+        <v>7</v>
+      </c>
+      <c r="C591" t="s">
+        <v>249</v>
+      </c>
+      <c r="D591">
+        <v>0</v>
+      </c>
+      <c r="E591">
+        <v>0</v>
+      </c>
+      <c r="F591" t="s">
+        <v>45</v>
+      </c>
+      <c r="G591">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="592" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A592" t="s">
+        <v>220</v>
+      </c>
+      <c r="B592" t="s">
+        <v>6</v>
+      </c>
+      <c r="C592" t="s">
+        <v>217</v>
+      </c>
+      <c r="D592" t="s">
+        <v>213</v>
+      </c>
+      <c r="E592">
+        <v>0</v>
+      </c>
+      <c r="F592" t="s">
+        <v>45</v>
+      </c>
+      <c r="G592">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="593" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A593" t="s">
+        <v>227</v>
+      </c>
+      <c r="B593" t="s">
+        <v>4</v>
+      </c>
+      <c r="C593" t="s">
+        <v>167</v>
+      </c>
+      <c r="D593">
+        <v>23.4</v>
+      </c>
+      <c r="E593">
+        <v>28.74</v>
+      </c>
+      <c r="F593" t="s">
+        <v>3</v>
+      </c>
+      <c r="G593">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="594" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A594" t="s">
+        <v>227</v>
+      </c>
+      <c r="B594" t="s">
+        <v>6</v>
+      </c>
+      <c r="C594" t="s">
+        <v>159</v>
+      </c>
+      <c r="D594">
+        <v>22.9</v>
+      </c>
+      <c r="E594">
+        <v>17.2</v>
+      </c>
+      <c r="F594" t="s">
+        <v>3</v>
+      </c>
+      <c r="G594">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="595" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A595" t="s">
+        <v>227</v>
+      </c>
+      <c r="B595" t="s">
+        <v>6</v>
+      </c>
+      <c r="C595" t="s">
+        <v>199</v>
+      </c>
+      <c r="D595">
+        <v>13.2</v>
+      </c>
+      <c r="E595">
+        <v>6.8</v>
+      </c>
+      <c r="F595" t="s">
+        <v>3</v>
+      </c>
+      <c r="G595">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="596" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A596" t="s">
+        <v>227</v>
+      </c>
+      <c r="B596" t="s">
+        <v>7</v>
+      </c>
+      <c r="C596" t="s">
+        <v>161</v>
+      </c>
+      <c r="D596">
+        <v>15</v>
+      </c>
+      <c r="E596">
+        <v>5.7</v>
+      </c>
+      <c r="F596" t="s">
+        <v>3</v>
+      </c>
+      <c r="G596">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="597" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A597" t="s">
+        <v>227</v>
+      </c>
+      <c r="B597" t="s">
+        <v>7</v>
+      </c>
+      <c r="C597" t="s">
+        <v>168</v>
+      </c>
+      <c r="D597">
+        <v>14.8</v>
+      </c>
+      <c r="E597">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="F597" t="s">
+        <v>3</v>
+      </c>
+      <c r="G597">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="598" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A598" t="s">
+        <v>227</v>
+      </c>
+      <c r="B598" t="s">
+        <v>13</v>
+      </c>
+      <c r="C598" t="s">
+        <v>197</v>
+      </c>
+      <c r="D598">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E598">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F598" t="s">
+        <v>3</v>
+      </c>
+      <c r="G598">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="599" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A599" t="s">
+        <v>227</v>
+      </c>
+      <c r="B599" t="s">
+        <v>6</v>
+      </c>
+      <c r="C599" t="s">
+        <v>246</v>
+      </c>
+      <c r="D599">
+        <v>16.3</v>
+      </c>
+      <c r="E599">
+        <v>22.8</v>
+      </c>
+      <c r="F599" t="s">
+        <v>3</v>
+      </c>
+      <c r="G599">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="600" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A600" t="s">
+        <v>227</v>
+      </c>
+      <c r="B600" t="s">
+        <v>16</v>
+      </c>
+      <c r="C600" t="s">
+        <v>69</v>
+      </c>
+      <c r="D600">
+        <v>7.7</v>
+      </c>
+      <c r="E600">
+        <v>21</v>
+      </c>
+      <c r="F600" t="s">
+        <v>3</v>
+      </c>
+      <c r="G600">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="601" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A601" t="s">
+        <v>227</v>
+      </c>
+      <c r="B601" t="s">
+        <v>18</v>
+      </c>
+      <c r="C601" t="s">
+        <v>216</v>
+      </c>
+      <c r="D601">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E601">
+        <v>7</v>
+      </c>
+      <c r="F601" t="s">
+        <v>3</v>
+      </c>
+      <c r="G601">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="602" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A602" t="s">
+        <v>227</v>
+      </c>
+      <c r="B602" t="s">
+        <v>6</v>
+      </c>
+      <c r="C602" t="s">
+        <v>160</v>
+      </c>
+      <c r="D602">
+        <v>0</v>
+      </c>
+      <c r="E602">
+        <v>0</v>
+      </c>
+      <c r="F602" t="s">
+        <v>45</v>
+      </c>
+      <c r="G602">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="603" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A603" t="s">
+        <v>227</v>
+      </c>
+      <c r="B603" t="s">
+        <v>6</v>
+      </c>
+      <c r="C603" t="s">
+        <v>164</v>
+      </c>
+      <c r="D603" t="s">
+        <v>213</v>
+      </c>
+      <c r="E603">
+        <v>0</v>
+      </c>
+      <c r="F603" t="s">
+        <v>45</v>
+      </c>
+      <c r="G603">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="604" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A604" t="s">
+        <v>227</v>
+      </c>
+      <c r="B604" t="s">
+        <v>7</v>
+      </c>
+      <c r="C604" t="s">
+        <v>162</v>
+      </c>
+      <c r="D604" t="s">
+        <v>213</v>
+      </c>
+      <c r="E604">
+        <v>0</v>
+      </c>
+      <c r="F604" t="s">
+        <v>45</v>
+      </c>
+      <c r="G604">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="605" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A605" t="s">
+        <v>227</v>
+      </c>
+      <c r="B605" t="s">
+        <v>16</v>
+      </c>
+      <c r="C605" t="s">
+        <v>165</v>
+      </c>
+      <c r="D605">
+        <v>5.6</v>
+      </c>
+      <c r="E605">
+        <v>13</v>
+      </c>
+      <c r="F605" t="s">
+        <v>45</v>
+      </c>
+      <c r="G605">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="606" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A606" t="s">
+        <v>227</v>
+      </c>
+      <c r="B606" t="s">
+        <v>6</v>
+      </c>
+      <c r="C606" t="s">
+        <v>107</v>
+      </c>
+      <c r="D606" t="s">
+        <v>213</v>
+      </c>
+      <c r="E606">
+        <v>0</v>
+      </c>
+      <c r="F606" t="s">
+        <v>45</v>
+      </c>
+      <c r="G606">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="607" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A607" t="s">
+        <v>227</v>
+      </c>
+      <c r="B607" t="s">
+        <v>7</v>
+      </c>
+      <c r="C607" t="s">
+        <v>171</v>
+      </c>
+      <c r="D607">
+        <v>11.6</v>
+      </c>
+      <c r="E607">
+        <v>10.6</v>
+      </c>
+      <c r="F607" t="s">
+        <v>45</v>
+      </c>
+      <c r="G607">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="608" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A608" t="s">
+        <v>227</v>
+      </c>
+      <c r="B608" t="s">
+        <v>4</v>
+      </c>
+      <c r="C608" t="s">
+        <v>124</v>
+      </c>
+      <c r="D608">
+        <v>20.2</v>
+      </c>
+      <c r="E608">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="F608" t="s">
+        <v>45</v>
+      </c>
+      <c r="G608">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="609" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A609" t="s">
+        <v>224</v>
+      </c>
+      <c r="B609" t="s">
+        <v>4</v>
+      </c>
+      <c r="C609" t="s">
+        <v>110</v>
+      </c>
+      <c r="D609">
+        <v>17.8</v>
+      </c>
+      <c r="E609">
+        <v>17.940000000000001</v>
+      </c>
+      <c r="F609" t="s">
+        <v>3</v>
+      </c>
+      <c r="G609">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="610" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A610" t="s">
+        <v>224</v>
+      </c>
+      <c r="B610" t="s">
+        <v>6</v>
+      </c>
+      <c r="C610" t="s">
+        <v>112</v>
+      </c>
+      <c r="D610">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="E610">
+        <v>10.6</v>
+      </c>
+      <c r="F610" t="s">
+        <v>3</v>
+      </c>
+      <c r="G610">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="611" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A611" t="s">
+        <v>224</v>
+      </c>
+      <c r="B611" t="s">
+        <v>6</v>
+      </c>
+      <c r="C611" t="s">
+        <v>120</v>
+      </c>
+      <c r="D611">
+        <v>20.3</v>
+      </c>
+      <c r="E611">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F611" t="s">
+        <v>3</v>
+      </c>
+      <c r="G611">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="612" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A612" t="s">
+        <v>224</v>
+      </c>
+      <c r="B612" t="s">
+        <v>7</v>
+      </c>
+      <c r="C612" t="s">
+        <v>114</v>
+      </c>
+      <c r="D612">
+        <v>19.3</v>
+      </c>
+      <c r="E612">
+        <v>7.3</v>
+      </c>
+      <c r="F612" t="s">
+        <v>3</v>
+      </c>
+      <c r="G612">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="613" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A613" t="s">
+        <v>224</v>
+      </c>
+      <c r="B613" t="s">
+        <v>7</v>
+      </c>
+      <c r="C613" t="s">
+        <v>116</v>
+      </c>
+      <c r="D613">
+        <v>13.7</v>
+      </c>
+      <c r="E613">
+        <v>7.3</v>
+      </c>
+      <c r="F613" t="s">
+        <v>3</v>
+      </c>
+      <c r="G613">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="614" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A614" t="s">
+        <v>224</v>
+      </c>
+      <c r="B614" t="s">
+        <v>13</v>
+      </c>
+      <c r="C614" t="s">
+        <v>115</v>
+      </c>
+      <c r="D614">
+        <v>14.1</v>
+      </c>
+      <c r="E614">
+        <v>7.7</v>
+      </c>
+      <c r="F614" t="s">
+        <v>3</v>
+      </c>
+      <c r="G614">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="615" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A615" t="s">
+        <v>224</v>
+      </c>
+      <c r="B615" t="s">
+        <v>7</v>
+      </c>
+      <c r="C615" t="s">
+        <v>119</v>
+      </c>
+      <c r="D615">
+        <v>13.5</v>
+      </c>
+      <c r="E615">
+        <v>16.5</v>
+      </c>
+      <c r="F615" t="s">
+        <v>3</v>
+      </c>
+      <c r="G615">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="616" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A616" t="s">
+        <v>224</v>
+      </c>
+      <c r="B616" t="s">
+        <v>16</v>
+      </c>
+      <c r="C616" t="s">
+        <v>53</v>
+      </c>
+      <c r="D616">
+        <v>6.9</v>
+      </c>
+      <c r="E616">
+        <v>4</v>
+      </c>
+      <c r="F616" t="s">
+        <v>3</v>
+      </c>
+      <c r="G616">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="617" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A617" t="s">
+        <v>224</v>
+      </c>
+      <c r="B617" t="s">
+        <v>18</v>
+      </c>
+      <c r="C617" t="s">
+        <v>118</v>
+      </c>
+      <c r="D617">
+        <v>7</v>
+      </c>
+      <c r="E617">
+        <v>12</v>
+      </c>
+      <c r="F617" t="s">
+        <v>3</v>
+      </c>
+      <c r="G617">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="618" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A618" t="s">
+        <v>224</v>
+      </c>
+      <c r="B618" t="s">
+        <v>7</v>
+      </c>
+      <c r="C618" t="s">
+        <v>113</v>
+      </c>
+      <c r="D618">
+        <v>0</v>
+      </c>
+      <c r="E618">
+        <v>0</v>
+      </c>
+      <c r="F618" t="s">
+        <v>45</v>
+      </c>
+      <c r="G618">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="619" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A619" t="s">
+        <v>224</v>
+      </c>
+      <c r="B619" t="s">
+        <v>6</v>
+      </c>
+      <c r="C619" t="s">
+        <v>111</v>
+      </c>
+      <c r="D619">
+        <v>0</v>
+      </c>
+      <c r="E619">
+        <v>0</v>
+      </c>
+      <c r="F619" t="s">
+        <v>45</v>
+      </c>
+      <c r="G619">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="620" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A620" t="s">
+        <v>224</v>
+      </c>
+      <c r="B620" t="s">
+        <v>6</v>
+      </c>
+      <c r="C620" t="s">
+        <v>121</v>
+      </c>
+      <c r="D620">
+        <v>7.1</v>
+      </c>
+      <c r="E620">
+        <v>15.6</v>
+      </c>
+      <c r="F620" t="s">
+        <v>45</v>
+      </c>
+      <c r="G620">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="621" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A621" t="s">
+        <v>224</v>
+      </c>
+      <c r="B621" t="s">
+        <v>7</v>
+      </c>
+      <c r="C621" t="s">
+        <v>122</v>
+      </c>
+      <c r="D621" t="s">
+        <v>213</v>
+      </c>
+      <c r="E621">
+        <v>0</v>
+      </c>
+      <c r="F621" t="s">
+        <v>45</v>
+      </c>
+      <c r="G621">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="622" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A622" t="s">
+        <v>224</v>
+      </c>
+      <c r="B622" t="s">
+        <v>16</v>
+      </c>
+      <c r="C622" t="s">
+        <v>117</v>
+      </c>
+      <c r="D622">
+        <v>4.7</v>
+      </c>
+      <c r="E622">
+        <v>-2</v>
+      </c>
+      <c r="F622" t="s">
+        <v>45</v>
+      </c>
+      <c r="G622">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="623" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A623" t="s">
+        <v>224</v>
+      </c>
+      <c r="B623" t="s">
+        <v>6</v>
+      </c>
+      <c r="C623" t="s">
+        <v>20</v>
+      </c>
+      <c r="D623">
+        <v>10.3</v>
+      </c>
+      <c r="E623">
+        <v>6.8</v>
+      </c>
+      <c r="F623" t="s">
+        <v>45</v>
+      </c>
+      <c r="G623">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="624" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A624" t="s">
+        <v>224</v>
+      </c>
+      <c r="B624" t="s">
+        <v>4</v>
+      </c>
+      <c r="C624" t="s">
+        <v>255</v>
+      </c>
+      <c r="D624">
+        <v>15.1</v>
+      </c>
+      <c r="E624">
+        <v>7.78</v>
+      </c>
+      <c r="F624" t="s">
+        <v>45</v>
+      </c>
+      <c r="G624">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="625" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A625" t="s">
+        <v>223</v>
+      </c>
+      <c r="B625" t="s">
+        <v>4</v>
+      </c>
+      <c r="C625" t="s">
+        <v>94</v>
+      </c>
+      <c r="D625">
+        <v>19.3</v>
+      </c>
+      <c r="E625">
+        <v>19.059999999999999</v>
+      </c>
+      <c r="F625" t="s">
+        <v>3</v>
+      </c>
+      <c r="G625">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="626" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A626" t="s">
+        <v>223</v>
+      </c>
+      <c r="B626" t="s">
+        <v>6</v>
+      </c>
+      <c r="C626" t="s">
+        <v>96</v>
+      </c>
+      <c r="D626">
+        <v>16.5</v>
+      </c>
+      <c r="E626">
+        <v>15</v>
+      </c>
+      <c r="F626" t="s">
+        <v>3</v>
+      </c>
+      <c r="G626">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="627" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A627" t="s">
+        <v>223</v>
+      </c>
+      <c r="B627" t="s">
+        <v>6</v>
+      </c>
+      <c r="C627" t="s">
+        <v>48</v>
+      </c>
+      <c r="D627">
+        <v>12.8</v>
+      </c>
+      <c r="E627">
+        <v>10.7</v>
+      </c>
+      <c r="F627" t="s">
+        <v>3</v>
+      </c>
+      <c r="G627">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="628" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A628" t="s">
+        <v>223</v>
+      </c>
+      <c r="B628" t="s">
+        <v>7</v>
+      </c>
+      <c r="C628" t="s">
+        <v>97</v>
+      </c>
+      <c r="D628">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="E628">
+        <v>20.7</v>
+      </c>
+      <c r="F628" t="s">
+        <v>3</v>
+      </c>
+      <c r="G628">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="629" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A629" t="s">
+        <v>223</v>
+      </c>
+      <c r="B629" t="s">
+        <v>7</v>
+      </c>
+      <c r="C629" t="s">
+        <v>108</v>
+      </c>
+      <c r="D629">
+        <v>12.7</v>
+      </c>
+      <c r="E629">
+        <v>5.6</v>
+      </c>
+      <c r="F629" t="s">
+        <v>3</v>
+      </c>
+      <c r="G629">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="630" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A630" t="s">
+        <v>223</v>
+      </c>
+      <c r="B630" t="s">
+        <v>13</v>
+      </c>
+      <c r="C630" t="s">
+        <v>99</v>
+      </c>
+      <c r="D630">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="E630">
+        <v>5.9</v>
+      </c>
+      <c r="F630" t="s">
+        <v>3</v>
+      </c>
+      <c r="G630">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="631" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A631" t="s">
+        <v>223</v>
+      </c>
+      <c r="B631" t="s">
+        <v>7</v>
+      </c>
+      <c r="C631" t="s">
+        <v>98</v>
+      </c>
+      <c r="D631">
+        <v>14.3</v>
+      </c>
+      <c r="E631">
+        <v>12.4</v>
+      </c>
+      <c r="F631" t="s">
+        <v>3</v>
+      </c>
+      <c r="G631">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="632" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A632" t="s">
+        <v>223</v>
+      </c>
+      <c r="B632" t="s">
+        <v>16</v>
+      </c>
+      <c r="C632" t="s">
+        <v>186</v>
+      </c>
+      <c r="D632">
+        <v>5.5</v>
+      </c>
+      <c r="E632">
+        <v>3</v>
+      </c>
+      <c r="F632" t="s">
+        <v>3</v>
+      </c>
+      <c r="G632">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="633" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A633" t="s">
+        <v>223</v>
+      </c>
+      <c r="B633" t="s">
+        <v>18</v>
+      </c>
+      <c r="C633" t="s">
+        <v>256</v>
+      </c>
+      <c r="D633">
+        <v>7.6</v>
+      </c>
+      <c r="E633">
+        <v>1</v>
+      </c>
+      <c r="F633" t="s">
+        <v>3</v>
+      </c>
+      <c r="G633">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="634" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A634" t="s">
+        <v>223</v>
+      </c>
+      <c r="B634" t="s">
+        <v>6</v>
+      </c>
+      <c r="C634" t="s">
+        <v>103</v>
+      </c>
+      <c r="D634">
+        <v>0</v>
+      </c>
+      <c r="E634">
+        <v>0</v>
+      </c>
+      <c r="F634" t="s">
+        <v>45</v>
+      </c>
+      <c r="G634">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="635" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A635" t="s">
+        <v>223</v>
+      </c>
+      <c r="B635" t="s">
+        <v>13</v>
+      </c>
+      <c r="C635" t="s">
+        <v>105</v>
+      </c>
+      <c r="D635">
+        <v>9.6</v>
+      </c>
+      <c r="E635">
+        <v>10.4</v>
+      </c>
+      <c r="F635" t="s">
+        <v>45</v>
+      </c>
+      <c r="G635">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="636" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A636" t="s">
+        <v>223</v>
+      </c>
+      <c r="B636" t="s">
+        <v>6</v>
+      </c>
+      <c r="C636" t="s">
+        <v>187</v>
+      </c>
+      <c r="D636">
+        <v>9.4</v>
+      </c>
+      <c r="E636">
+        <v>21.2</v>
+      </c>
+      <c r="F636" t="s">
+        <v>45</v>
+      </c>
+      <c r="G636">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="637" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A637" t="s">
+        <v>223</v>
+      </c>
+      <c r="B637" t="s">
+        <v>4</v>
+      </c>
+      <c r="C637" t="s">
+        <v>58</v>
+      </c>
+      <c r="D637">
+        <v>19</v>
+      </c>
+      <c r="E637">
+        <v>18.86</v>
+      </c>
+      <c r="F637" t="s">
+        <v>45</v>
+      </c>
+      <c r="G637">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="638" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A638" t="s">
+        <v>223</v>
+      </c>
+      <c r="B638" t="s">
+        <v>7</v>
+      </c>
+      <c r="C638" t="s">
+        <v>50</v>
+      </c>
+      <c r="D638">
+        <v>0</v>
+      </c>
+      <c r="E638">
+        <v>0</v>
+      </c>
+      <c r="F638" t="s">
+        <v>45</v>
+      </c>
+      <c r="G638">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="639" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A639" t="s">
+        <v>223</v>
+      </c>
+      <c r="B639" t="s">
+        <v>7</v>
+      </c>
+      <c r="C639" t="s">
+        <v>57</v>
+      </c>
+      <c r="D639">
+        <v>10.3</v>
+      </c>
+      <c r="E639">
+        <v>8.6</v>
+      </c>
+      <c r="F639" t="s">
+        <v>45</v>
+      </c>
+      <c r="G639">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="640" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A640" t="s">
+        <v>223</v>
+      </c>
+      <c r="B640" t="s">
+        <v>7</v>
+      </c>
+      <c r="C640" t="s">
+        <v>240</v>
+      </c>
+      <c r="D640">
+        <v>10.6</v>
+      </c>
+      <c r="E640">
+        <v>13.2</v>
+      </c>
+      <c r="F640" t="s">
+        <v>45</v>
+      </c>
+      <c r="G640">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/FantasyFootballData2020.xlsx
+++ b/FantasyFootballData2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b88e9b99c0e7d8c4/Documents/GitHub/fantasy_football_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1592" documentId="13_ncr:1_{C78650B9-42D7-43C9-A95D-11F9998F55D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{ED5C60A6-83A6-402A-8694-6B3BE78C9D9F}"/>
+  <xr:revisionPtr revIDLastSave="1929" documentId="13_ncr:1_{C78650B9-42D7-43C9-A95D-11F9998F55D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EB38BD3D-0971-40DC-B59E-9184A5D0AEEC}"/>
   <bookViews>
     <workbookView xWindow="1520" yWindow="1520" windowWidth="16920" windowHeight="10540" activeTab="1" xr2:uid="{5502643F-E293-4B89-852D-6B7EFC2AEEB4}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5193" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5853" uniqueCount="263">
   <si>
     <t>Name</t>
   </si>
@@ -810,6 +810,24 @@
   <si>
     <t>Stephen GostkowskiStephen Gostkowski</t>
   </si>
+  <si>
+    <t>JaMycal HastyJaMycal Hasty</t>
+  </si>
+  <si>
+    <t>Michael BadgleyMichael Badgley</t>
+  </si>
+  <si>
+    <t>Texans D/STTexans D/ST</t>
+  </si>
+  <si>
+    <t>Daniel CarlsonDaniel Carlson</t>
+  </si>
+  <si>
+    <t>Tyler ErvinTyler Ervin</t>
+  </si>
+  <si>
+    <t>Damien HarrisDamien Harris</t>
+  </si>
 </sst>
 </file>
 
@@ -15930,10 +15948,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED8B136-D96F-431C-BD0D-F7EA8CFD860F}">
-  <dimension ref="A1:G640"/>
+  <dimension ref="A1:G800"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F324" sqref="F324"/>
+    <sheetView tabSelected="1" topLeftCell="A785" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B804" sqref="B804"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -30663,6 +30681,3686 @@
         <v>8</v>
       </c>
     </row>
+    <row r="641" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A641" t="s">
+        <v>218</v>
+      </c>
+      <c r="B641" t="s">
+        <v>4</v>
+      </c>
+      <c r="C641" t="s">
+        <v>24</v>
+      </c>
+      <c r="D641">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E641">
+        <v>28.9</v>
+      </c>
+      <c r="F641" t="s">
+        <v>3</v>
+      </c>
+      <c r="G641">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="642" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A642" t="s">
+        <v>218</v>
+      </c>
+      <c r="B642" t="s">
+        <v>6</v>
+      </c>
+      <c r="C642" t="s">
+        <v>9</v>
+      </c>
+      <c r="D642">
+        <v>21.9</v>
+      </c>
+      <c r="E642">
+        <v>15.9</v>
+      </c>
+      <c r="F642" t="s">
+        <v>3</v>
+      </c>
+      <c r="G642">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="643" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A643" t="s">
+        <v>218</v>
+      </c>
+      <c r="B643" t="s">
+        <v>6</v>
+      </c>
+      <c r="C643" t="s">
+        <v>257</v>
+      </c>
+      <c r="D643">
+        <v>14</v>
+      </c>
+      <c r="E643">
+        <v>3.3</v>
+      </c>
+      <c r="F643" t="s">
+        <v>3</v>
+      </c>
+      <c r="G643">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="644" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A644" t="s">
+        <v>218</v>
+      </c>
+      <c r="B644" t="s">
+        <v>7</v>
+      </c>
+      <c r="C644" t="s">
+        <v>11</v>
+      </c>
+      <c r="D644">
+        <v>13.1</v>
+      </c>
+      <c r="E644">
+        <v>3.8</v>
+      </c>
+      <c r="F644" t="s">
+        <v>3</v>
+      </c>
+      <c r="G644">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="645" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A645" t="s">
+        <v>218</v>
+      </c>
+      <c r="B645" t="s">
+        <v>7</v>
+      </c>
+      <c r="C645" t="s">
+        <v>12</v>
+      </c>
+      <c r="D645">
+        <v>12.9</v>
+      </c>
+      <c r="E645">
+        <v>12.5</v>
+      </c>
+      <c r="F645" t="s">
+        <v>3</v>
+      </c>
+      <c r="G645">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="646" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A646" t="s">
+        <v>218</v>
+      </c>
+      <c r="B646" t="s">
+        <v>13</v>
+      </c>
+      <c r="C646" t="s">
+        <v>206</v>
+      </c>
+      <c r="D646">
+        <v>9.9</v>
+      </c>
+      <c r="E646">
+        <v>17.5</v>
+      </c>
+      <c r="F646" t="s">
+        <v>3</v>
+      </c>
+      <c r="G646">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="647" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A647" t="s">
+        <v>218</v>
+      </c>
+      <c r="B647" t="s">
+        <v>7</v>
+      </c>
+      <c r="C647" t="s">
+        <v>207</v>
+      </c>
+      <c r="D647">
+        <v>11.7</v>
+      </c>
+      <c r="E647">
+        <v>0</v>
+      </c>
+      <c r="F647" t="s">
+        <v>3</v>
+      </c>
+      <c r="G647">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="648" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A648" t="s">
+        <v>218</v>
+      </c>
+      <c r="B648" t="s">
+        <v>16</v>
+      </c>
+      <c r="C648" t="s">
+        <v>191</v>
+      </c>
+      <c r="D648">
+        <v>4.3</v>
+      </c>
+      <c r="E648">
+        <v>-1</v>
+      </c>
+      <c r="F648" t="s">
+        <v>3</v>
+      </c>
+      <c r="G648">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="649" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A649" t="s">
+        <v>218</v>
+      </c>
+      <c r="B649" t="s">
+        <v>18</v>
+      </c>
+      <c r="C649" t="s">
+        <v>19</v>
+      </c>
+      <c r="D649">
+        <v>8.9</v>
+      </c>
+      <c r="E649">
+        <v>7</v>
+      </c>
+      <c r="F649" t="s">
+        <v>3</v>
+      </c>
+      <c r="G649">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="650" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A650" t="s">
+        <v>218</v>
+      </c>
+      <c r="B650" t="s">
+        <v>6</v>
+      </c>
+      <c r="C650" t="s">
+        <v>10</v>
+      </c>
+      <c r="D650">
+        <v>0</v>
+      </c>
+      <c r="E650">
+        <v>0</v>
+      </c>
+      <c r="F650" t="s">
+        <v>45</v>
+      </c>
+      <c r="G650">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="651" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A651" t="s">
+        <v>218</v>
+      </c>
+      <c r="B651" t="s">
+        <v>4</v>
+      </c>
+      <c r="C651" t="s">
+        <v>8</v>
+      </c>
+      <c r="D651">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="E651">
+        <v>24.56</v>
+      </c>
+      <c r="F651" t="s">
+        <v>45</v>
+      </c>
+      <c r="G651">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="652" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A652" t="s">
+        <v>218</v>
+      </c>
+      <c r="B652" t="s">
+        <v>6</v>
+      </c>
+      <c r="C652" t="s">
+        <v>190</v>
+      </c>
+      <c r="D652">
+        <v>5.7</v>
+      </c>
+      <c r="E652">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F652" t="s">
+        <v>45</v>
+      </c>
+      <c r="G652">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="653" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A653" t="s">
+        <v>218</v>
+      </c>
+      <c r="B653" t="s">
+        <v>6</v>
+      </c>
+      <c r="C653" t="s">
+        <v>192</v>
+      </c>
+      <c r="D653">
+        <v>0</v>
+      </c>
+      <c r="E653">
+        <v>0</v>
+      </c>
+      <c r="F653" t="s">
+        <v>45</v>
+      </c>
+      <c r="G653">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="654" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A654" t="s">
+        <v>218</v>
+      </c>
+      <c r="B654" t="s">
+        <v>7</v>
+      </c>
+      <c r="C654" t="s">
+        <v>214</v>
+      </c>
+      <c r="D654" t="s">
+        <v>213</v>
+      </c>
+      <c r="E654">
+        <v>0</v>
+      </c>
+      <c r="F654" t="s">
+        <v>45</v>
+      </c>
+      <c r="G654">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="655" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A655" t="s">
+        <v>218</v>
+      </c>
+      <c r="B655" t="s">
+        <v>7</v>
+      </c>
+      <c r="C655" t="s">
+        <v>233</v>
+      </c>
+      <c r="D655" t="s">
+        <v>213</v>
+      </c>
+      <c r="E655">
+        <v>0</v>
+      </c>
+      <c r="F655" t="s">
+        <v>45</v>
+      </c>
+      <c r="G655">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="656" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A656" t="s">
+        <v>218</v>
+      </c>
+      <c r="B656" t="s">
+        <v>7</v>
+      </c>
+      <c r="C656" t="s">
+        <v>251</v>
+      </c>
+      <c r="D656">
+        <v>0</v>
+      </c>
+      <c r="E656">
+        <v>0</v>
+      </c>
+      <c r="F656" t="s">
+        <v>45</v>
+      </c>
+      <c r="G656">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="657" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A657" t="s">
+        <v>221</v>
+      </c>
+      <c r="B657" t="s">
+        <v>4</v>
+      </c>
+      <c r="C657" t="s">
+        <v>62</v>
+      </c>
+      <c r="D657">
+        <v>23</v>
+      </c>
+      <c r="E657">
+        <v>31.48</v>
+      </c>
+      <c r="F657" t="s">
+        <v>3</v>
+      </c>
+      <c r="G657">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="658" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A658" t="s">
+        <v>221</v>
+      </c>
+      <c r="B658" t="s">
+        <v>6</v>
+      </c>
+      <c r="C658" t="s">
+        <v>77</v>
+      </c>
+      <c r="D658">
+        <v>15.3</v>
+      </c>
+      <c r="E658">
+        <v>0</v>
+      </c>
+      <c r="F658" t="s">
+        <v>3</v>
+      </c>
+      <c r="G658">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="659" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A659" t="s">
+        <v>221</v>
+      </c>
+      <c r="B659" t="s">
+        <v>6</v>
+      </c>
+      <c r="C659" t="s">
+        <v>170</v>
+      </c>
+      <c r="D659" t="s">
+        <v>213</v>
+      </c>
+      <c r="E659">
+        <v>7.9</v>
+      </c>
+      <c r="F659" t="s">
+        <v>3</v>
+      </c>
+      <c r="G659">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="660" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A660" t="s">
+        <v>221</v>
+      </c>
+      <c r="B660" t="s">
+        <v>7</v>
+      </c>
+      <c r="C660" t="s">
+        <v>65</v>
+      </c>
+      <c r="D660">
+        <v>16.3</v>
+      </c>
+      <c r="E660">
+        <v>33.1</v>
+      </c>
+      <c r="F660" t="s">
+        <v>3</v>
+      </c>
+      <c r="G660">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="661" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A661" t="s">
+        <v>221</v>
+      </c>
+      <c r="B661" t="s">
+        <v>7</v>
+      </c>
+      <c r="C661" t="s">
+        <v>73</v>
+      </c>
+      <c r="D661">
+        <v>12.3</v>
+      </c>
+      <c r="E661">
+        <v>14.1</v>
+      </c>
+      <c r="F661" t="s">
+        <v>3</v>
+      </c>
+      <c r="G661">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="662" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A662" t="s">
+        <v>221</v>
+      </c>
+      <c r="B662" t="s">
+        <v>13</v>
+      </c>
+      <c r="C662" t="s">
+        <v>163</v>
+      </c>
+      <c r="D662">
+        <v>11.4</v>
+      </c>
+      <c r="E662">
+        <v>7.5</v>
+      </c>
+      <c r="F662" t="s">
+        <v>3</v>
+      </c>
+      <c r="G662">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="663" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A663" t="s">
+        <v>221</v>
+      </c>
+      <c r="B663" t="s">
+        <v>6</v>
+      </c>
+      <c r="C663" t="s">
+        <v>71</v>
+      </c>
+      <c r="D663">
+        <v>14.7</v>
+      </c>
+      <c r="E663">
+        <v>10.1</v>
+      </c>
+      <c r="F663" t="s">
+        <v>3</v>
+      </c>
+      <c r="G663">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="664" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A664" t="s">
+        <v>221</v>
+      </c>
+      <c r="B664" t="s">
+        <v>16</v>
+      </c>
+      <c r="C664" t="s">
+        <v>184</v>
+      </c>
+      <c r="D664">
+        <v>7.2</v>
+      </c>
+      <c r="E664">
+        <v>2</v>
+      </c>
+      <c r="F664" t="s">
+        <v>3</v>
+      </c>
+      <c r="G664">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="665" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A665" t="s">
+        <v>221</v>
+      </c>
+      <c r="B665" t="s">
+        <v>18</v>
+      </c>
+      <c r="C665" t="s">
+        <v>252</v>
+      </c>
+      <c r="D665">
+        <v>8.5</v>
+      </c>
+      <c r="E665">
+        <v>6</v>
+      </c>
+      <c r="F665" t="s">
+        <v>3</v>
+      </c>
+      <c r="G665">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="666" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A666" t="s">
+        <v>221</v>
+      </c>
+      <c r="B666" t="s">
+        <v>7</v>
+      </c>
+      <c r="C666" t="s">
+        <v>66</v>
+      </c>
+      <c r="D666" t="s">
+        <v>213</v>
+      </c>
+      <c r="E666">
+        <v>0</v>
+      </c>
+      <c r="F666" t="s">
+        <v>45</v>
+      </c>
+      <c r="G666">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="667" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A667" t="s">
+        <v>221</v>
+      </c>
+      <c r="B667" t="s">
+        <v>13</v>
+      </c>
+      <c r="C667" t="s">
+        <v>67</v>
+      </c>
+      <c r="D667" t="s">
+        <v>213</v>
+      </c>
+      <c r="E667">
+        <v>0</v>
+      </c>
+      <c r="F667" t="s">
+        <v>45</v>
+      </c>
+      <c r="G667">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="668" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A668" t="s">
+        <v>221</v>
+      </c>
+      <c r="B668" t="s">
+        <v>7</v>
+      </c>
+      <c r="C668" t="s">
+        <v>68</v>
+      </c>
+      <c r="D668">
+        <v>11.6</v>
+      </c>
+      <c r="E668">
+        <v>27.6</v>
+      </c>
+      <c r="F668" t="s">
+        <v>45</v>
+      </c>
+      <c r="G668">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="669" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A669" t="s">
+        <v>221</v>
+      </c>
+      <c r="B669" t="s">
+        <v>6</v>
+      </c>
+      <c r="C669" t="s">
+        <v>72</v>
+      </c>
+      <c r="D669">
+        <v>11.9</v>
+      </c>
+      <c r="E669">
+        <v>4.8</v>
+      </c>
+      <c r="F669" t="s">
+        <v>45</v>
+      </c>
+      <c r="G669">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="670" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A670" t="s">
+        <v>221</v>
+      </c>
+      <c r="B670" t="s">
+        <v>7</v>
+      </c>
+      <c r="C670" t="s">
+        <v>74</v>
+      </c>
+      <c r="D670">
+        <v>11.3</v>
+      </c>
+      <c r="E670">
+        <v>25.5</v>
+      </c>
+      <c r="F670" t="s">
+        <v>45</v>
+      </c>
+      <c r="G670">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="671" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A671" t="s">
+        <v>221</v>
+      </c>
+      <c r="B671" t="s">
+        <v>7</v>
+      </c>
+      <c r="C671" t="s">
+        <v>75</v>
+      </c>
+      <c r="D671">
+        <v>11.2</v>
+      </c>
+      <c r="E671">
+        <v>13.8</v>
+      </c>
+      <c r="F671" t="s">
+        <v>45</v>
+      </c>
+      <c r="G671">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="672" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A672" t="s">
+        <v>221</v>
+      </c>
+      <c r="B672" t="s">
+        <v>6</v>
+      </c>
+      <c r="C672" t="s">
+        <v>202</v>
+      </c>
+      <c r="D672">
+        <v>0</v>
+      </c>
+      <c r="E672">
+        <v>0</v>
+      </c>
+      <c r="F672" t="s">
+        <v>45</v>
+      </c>
+      <c r="G672">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="673" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A673" t="s">
+        <v>225</v>
+      </c>
+      <c r="B673" t="s">
+        <v>4</v>
+      </c>
+      <c r="C673" t="s">
+        <v>229</v>
+      </c>
+      <c r="D673">
+        <v>15.5</v>
+      </c>
+      <c r="E673">
+        <v>28.3</v>
+      </c>
+      <c r="F673" t="s">
+        <v>3</v>
+      </c>
+      <c r="G673">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="674" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A674" t="s">
+        <v>225</v>
+      </c>
+      <c r="B674" t="s">
+        <v>6</v>
+      </c>
+      <c r="C674" t="s">
+        <v>127</v>
+      </c>
+      <c r="D674">
+        <v>14.3</v>
+      </c>
+      <c r="E674">
+        <v>12.4</v>
+      </c>
+      <c r="F674" t="s">
+        <v>3</v>
+      </c>
+      <c r="G674">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="675" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A675" t="s">
+        <v>225</v>
+      </c>
+      <c r="B675" t="s">
+        <v>6</v>
+      </c>
+      <c r="C675" t="s">
+        <v>128</v>
+      </c>
+      <c r="D675">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="E675">
+        <v>13.8</v>
+      </c>
+      <c r="F675" t="s">
+        <v>3</v>
+      </c>
+      <c r="G675">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="676" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A676" t="s">
+        <v>225</v>
+      </c>
+      <c r="B676" t="s">
+        <v>7</v>
+      </c>
+      <c r="C676" t="s">
+        <v>129</v>
+      </c>
+      <c r="D676">
+        <v>13</v>
+      </c>
+      <c r="E676">
+        <v>21.3</v>
+      </c>
+      <c r="F676" t="s">
+        <v>3</v>
+      </c>
+      <c r="G676">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="677" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A677" t="s">
+        <v>225</v>
+      </c>
+      <c r="B677" t="s">
+        <v>7</v>
+      </c>
+      <c r="C677" t="s">
+        <v>138</v>
+      </c>
+      <c r="D677">
+        <v>13.9</v>
+      </c>
+      <c r="E677">
+        <v>21</v>
+      </c>
+      <c r="F677" t="s">
+        <v>3</v>
+      </c>
+      <c r="G677">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="678" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A678" t="s">
+        <v>225</v>
+      </c>
+      <c r="B678" t="s">
+        <v>13</v>
+      </c>
+      <c r="C678" t="s">
+        <v>14</v>
+      </c>
+      <c r="D678">
+        <v>10.8</v>
+      </c>
+      <c r="E678">
+        <v>1.2</v>
+      </c>
+      <c r="F678" t="s">
+        <v>3</v>
+      </c>
+      <c r="G678">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="679" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A679" t="s">
+        <v>225</v>
+      </c>
+      <c r="B679" t="s">
+        <v>6</v>
+      </c>
+      <c r="C679" t="s">
+        <v>137</v>
+      </c>
+      <c r="D679">
+        <v>13.8</v>
+      </c>
+      <c r="E679">
+        <v>12.7</v>
+      </c>
+      <c r="F679" t="s">
+        <v>3</v>
+      </c>
+      <c r="G679">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="680" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A680" t="s">
+        <v>225</v>
+      </c>
+      <c r="B680" t="s">
+        <v>16</v>
+      </c>
+      <c r="C680" t="s">
+        <v>149</v>
+      </c>
+      <c r="D680">
+        <v>6.3</v>
+      </c>
+      <c r="E680">
+        <v>3</v>
+      </c>
+      <c r="F680" t="s">
+        <v>3</v>
+      </c>
+      <c r="G680">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="681" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A681" t="s">
+        <v>225</v>
+      </c>
+      <c r="B681" t="s">
+        <v>18</v>
+      </c>
+      <c r="C681" t="s">
+        <v>134</v>
+      </c>
+      <c r="D681">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E681">
+        <v>4</v>
+      </c>
+      <c r="F681" t="s">
+        <v>3</v>
+      </c>
+      <c r="G681">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="682" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A682" t="s">
+        <v>225</v>
+      </c>
+      <c r="B682" t="s">
+        <v>7</v>
+      </c>
+      <c r="C682" t="s">
+        <v>135</v>
+      </c>
+      <c r="D682">
+        <v>0</v>
+      </c>
+      <c r="E682">
+        <v>0</v>
+      </c>
+      <c r="F682" t="s">
+        <v>45</v>
+      </c>
+      <c r="G682">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="683" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A683" t="s">
+        <v>225</v>
+      </c>
+      <c r="B683" t="s">
+        <v>6</v>
+      </c>
+      <c r="C683" t="s">
+        <v>136</v>
+      </c>
+      <c r="D683">
+        <v>12.8</v>
+      </c>
+      <c r="E683">
+        <v>9.4</v>
+      </c>
+      <c r="F683" t="s">
+        <v>45</v>
+      </c>
+      <c r="G683">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="684" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A684" t="s">
+        <v>225</v>
+      </c>
+      <c r="B684" t="s">
+        <v>13</v>
+      </c>
+      <c r="C684" t="s">
+        <v>131</v>
+      </c>
+      <c r="D684">
+        <v>10.9</v>
+      </c>
+      <c r="E684">
+        <v>15.8</v>
+      </c>
+      <c r="F684" t="s">
+        <v>45</v>
+      </c>
+      <c r="G684">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="685" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A685" t="s">
+        <v>225</v>
+      </c>
+      <c r="B685" t="s">
+        <v>6</v>
+      </c>
+      <c r="C685" t="s">
+        <v>139</v>
+      </c>
+      <c r="D685">
+        <v>10.1</v>
+      </c>
+      <c r="E685">
+        <v>5.5</v>
+      </c>
+      <c r="F685" t="s">
+        <v>45</v>
+      </c>
+      <c r="G685">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="686" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A686" t="s">
+        <v>225</v>
+      </c>
+      <c r="B686" t="s">
+        <v>7</v>
+      </c>
+      <c r="C686" t="s">
+        <v>140</v>
+      </c>
+      <c r="D686">
+        <v>10.7</v>
+      </c>
+      <c r="E686">
+        <v>7.8</v>
+      </c>
+      <c r="F686" t="s">
+        <v>45</v>
+      </c>
+      <c r="G686">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="687" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A687" t="s">
+        <v>225</v>
+      </c>
+      <c r="B687" t="s">
+        <v>7</v>
+      </c>
+      <c r="C687" t="s">
+        <v>130</v>
+      </c>
+      <c r="D687">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E687">
+        <v>23.3</v>
+      </c>
+      <c r="F687" t="s">
+        <v>45</v>
+      </c>
+      <c r="G687">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="688" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A688" t="s">
+        <v>225</v>
+      </c>
+      <c r="B688" t="s">
+        <v>4</v>
+      </c>
+      <c r="C688" t="s">
+        <v>126</v>
+      </c>
+      <c r="D688">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="E688">
+        <v>8.44</v>
+      </c>
+      <c r="F688" t="s">
+        <v>45</v>
+      </c>
+      <c r="G688">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="689" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A689" t="s">
+        <v>219</v>
+      </c>
+      <c r="B689" t="s">
+        <v>4</v>
+      </c>
+      <c r="C689" t="s">
+        <v>40</v>
+      </c>
+      <c r="D689">
+        <v>24.9</v>
+      </c>
+      <c r="E689">
+        <v>36</v>
+      </c>
+      <c r="F689" t="s">
+        <v>3</v>
+      </c>
+      <c r="G689">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="690" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A690" t="s">
+        <v>219</v>
+      </c>
+      <c r="B690" t="s">
+        <v>6</v>
+      </c>
+      <c r="C690" t="s">
+        <v>28</v>
+      </c>
+      <c r="D690">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="E690">
+        <v>37.1</v>
+      </c>
+      <c r="F690" t="s">
+        <v>3</v>
+      </c>
+      <c r="G690">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="691" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A691" t="s">
+        <v>219</v>
+      </c>
+      <c r="B691" t="s">
+        <v>6</v>
+      </c>
+      <c r="C691" t="s">
+        <v>36</v>
+      </c>
+      <c r="D691">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E691">
+        <v>5.2</v>
+      </c>
+      <c r="F691" t="s">
+        <v>3</v>
+      </c>
+      <c r="G691">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="692" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A692" t="s">
+        <v>219</v>
+      </c>
+      <c r="B692" t="s">
+        <v>7</v>
+      </c>
+      <c r="C692" t="s">
+        <v>31</v>
+      </c>
+      <c r="D692">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E692">
+        <v>25.3</v>
+      </c>
+      <c r="F692" t="s">
+        <v>3</v>
+      </c>
+      <c r="G692">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="693" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A693" t="s">
+        <v>219</v>
+      </c>
+      <c r="B693" t="s">
+        <v>7</v>
+      </c>
+      <c r="C693" t="s">
+        <v>38</v>
+      </c>
+      <c r="D693">
+        <v>14</v>
+      </c>
+      <c r="E693">
+        <v>13.3</v>
+      </c>
+      <c r="F693" t="s">
+        <v>3</v>
+      </c>
+      <c r="G693">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="694" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A694" t="s">
+        <v>219</v>
+      </c>
+      <c r="B694" t="s">
+        <v>13</v>
+      </c>
+      <c r="C694" t="s">
+        <v>32</v>
+      </c>
+      <c r="D694">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="E694">
+        <v>25.9</v>
+      </c>
+      <c r="F694" t="s">
+        <v>3</v>
+      </c>
+      <c r="G694">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="695" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A695" t="s">
+        <v>219</v>
+      </c>
+      <c r="B695" t="s">
+        <v>7</v>
+      </c>
+      <c r="C695" t="s">
+        <v>42</v>
+      </c>
+      <c r="D695">
+        <v>12.3</v>
+      </c>
+      <c r="E695">
+        <v>13.1</v>
+      </c>
+      <c r="F695" t="s">
+        <v>3</v>
+      </c>
+      <c r="G695">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="696" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A696" t="s">
+        <v>219</v>
+      </c>
+      <c r="B696" t="s">
+        <v>16</v>
+      </c>
+      <c r="C696" t="s">
+        <v>34</v>
+      </c>
+      <c r="D696">
+        <v>6.4</v>
+      </c>
+      <c r="E696">
+        <v>13</v>
+      </c>
+      <c r="F696" t="s">
+        <v>3</v>
+      </c>
+      <c r="G696">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="697" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A697" t="s">
+        <v>219</v>
+      </c>
+      <c r="B697" t="s">
+        <v>18</v>
+      </c>
+      <c r="C697" t="s">
+        <v>35</v>
+      </c>
+      <c r="D697">
+        <v>8.9</v>
+      </c>
+      <c r="E697">
+        <v>10</v>
+      </c>
+      <c r="F697" t="s">
+        <v>3</v>
+      </c>
+      <c r="G697">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="698" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A698" t="s">
+        <v>219</v>
+      </c>
+      <c r="B698" t="s">
+        <v>4</v>
+      </c>
+      <c r="C698" t="s">
+        <v>27</v>
+      </c>
+      <c r="D698">
+        <v>19.2</v>
+      </c>
+      <c r="E698">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="F698" t="s">
+        <v>45</v>
+      </c>
+      <c r="G698">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="699" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A699" t="s">
+        <v>219</v>
+      </c>
+      <c r="B699" t="s">
+        <v>7</v>
+      </c>
+      <c r="C699" t="s">
+        <v>30</v>
+      </c>
+      <c r="D699" t="s">
+        <v>213</v>
+      </c>
+      <c r="E699">
+        <v>0</v>
+      </c>
+      <c r="F699" t="s">
+        <v>45</v>
+      </c>
+      <c r="G699">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="700" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A700" t="s">
+        <v>219</v>
+      </c>
+      <c r="B700" t="s">
+        <v>7</v>
+      </c>
+      <c r="C700" t="s">
+        <v>41</v>
+      </c>
+      <c r="D700">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E700">
+        <v>27.1</v>
+      </c>
+      <c r="F700" t="s">
+        <v>45</v>
+      </c>
+      <c r="G700">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="701" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A701" t="s">
+        <v>219</v>
+      </c>
+      <c r="B701" t="s">
+        <v>6</v>
+      </c>
+      <c r="C701" t="s">
+        <v>33</v>
+      </c>
+      <c r="D701" t="s">
+        <v>213</v>
+      </c>
+      <c r="E701">
+        <v>0</v>
+      </c>
+      <c r="F701" t="s">
+        <v>45</v>
+      </c>
+      <c r="G701">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="702" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A702" t="s">
+        <v>219</v>
+      </c>
+      <c r="B702" t="s">
+        <v>6</v>
+      </c>
+      <c r="C702" t="s">
+        <v>239</v>
+      </c>
+      <c r="D702">
+        <v>10.5</v>
+      </c>
+      <c r="E702">
+        <v>17.2</v>
+      </c>
+      <c r="F702" t="s">
+        <v>45</v>
+      </c>
+      <c r="G702">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="703" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A703" t="s">
+        <v>219</v>
+      </c>
+      <c r="B703" t="s">
+        <v>16</v>
+      </c>
+      <c r="C703" t="s">
+        <v>247</v>
+      </c>
+      <c r="D703">
+        <v>5.5</v>
+      </c>
+      <c r="E703">
+        <v>6</v>
+      </c>
+      <c r="F703" t="s">
+        <v>45</v>
+      </c>
+      <c r="G703">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="704" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A704" t="s">
+        <v>219</v>
+      </c>
+      <c r="B704" t="s">
+        <v>7</v>
+      </c>
+      <c r="C704" t="s">
+        <v>157</v>
+      </c>
+      <c r="D704">
+        <v>9.5</v>
+      </c>
+      <c r="E704">
+        <v>26.8</v>
+      </c>
+      <c r="F704" t="s">
+        <v>45</v>
+      </c>
+      <c r="G704">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="705" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A705" t="s">
+        <v>223</v>
+      </c>
+      <c r="B705" t="s">
+        <v>4</v>
+      </c>
+      <c r="C705" t="s">
+        <v>94</v>
+      </c>
+      <c r="D705">
+        <v>21.9</v>
+      </c>
+      <c r="E705">
+        <v>2.36</v>
+      </c>
+      <c r="F705" t="s">
+        <v>3</v>
+      </c>
+      <c r="G705">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="706" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A706" t="s">
+        <v>223</v>
+      </c>
+      <c r="B706" t="s">
+        <v>6</v>
+      </c>
+      <c r="C706" t="s">
+        <v>96</v>
+      </c>
+      <c r="D706">
+        <v>19.8</v>
+      </c>
+      <c r="E706">
+        <v>4</v>
+      </c>
+      <c r="F706" t="s">
+        <v>3</v>
+      </c>
+      <c r="G706">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="707" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A707" t="s">
+        <v>223</v>
+      </c>
+      <c r="B707" t="s">
+        <v>6</v>
+      </c>
+      <c r="C707" t="s">
+        <v>48</v>
+      </c>
+      <c r="D707">
+        <v>13.4</v>
+      </c>
+      <c r="E707">
+        <v>3.7</v>
+      </c>
+      <c r="F707" t="s">
+        <v>3</v>
+      </c>
+      <c r="G707">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="708" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A708" t="s">
+        <v>223</v>
+      </c>
+      <c r="B708" t="s">
+        <v>7</v>
+      </c>
+      <c r="C708" t="s">
+        <v>97</v>
+      </c>
+      <c r="D708">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E708">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="F708" t="s">
+        <v>3</v>
+      </c>
+      <c r="G708">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="709" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A709" t="s">
+        <v>223</v>
+      </c>
+      <c r="B709" t="s">
+        <v>7</v>
+      </c>
+      <c r="C709" t="s">
+        <v>108</v>
+      </c>
+      <c r="D709">
+        <v>13.5</v>
+      </c>
+      <c r="E709">
+        <v>9.4</v>
+      </c>
+      <c r="F709" t="s">
+        <v>3</v>
+      </c>
+      <c r="G709">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="710" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A710" t="s">
+        <v>223</v>
+      </c>
+      <c r="B710" t="s">
+        <v>13</v>
+      </c>
+      <c r="C710" t="s">
+        <v>105</v>
+      </c>
+      <c r="D710">
+        <v>10</v>
+      </c>
+      <c r="E710">
+        <v>13.2</v>
+      </c>
+      <c r="F710" t="s">
+        <v>3</v>
+      </c>
+      <c r="G710">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="711" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A711" t="s">
+        <v>223</v>
+      </c>
+      <c r="B711" t="s">
+        <v>7</v>
+      </c>
+      <c r="C711" t="s">
+        <v>98</v>
+      </c>
+      <c r="D711">
+        <v>13.4</v>
+      </c>
+      <c r="E711">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="F711" t="s">
+        <v>3</v>
+      </c>
+      <c r="G711">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="712" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A712" t="s">
+        <v>223</v>
+      </c>
+      <c r="B712" t="s">
+        <v>16</v>
+      </c>
+      <c r="C712" t="s">
+        <v>195</v>
+      </c>
+      <c r="D712">
+        <v>6.8</v>
+      </c>
+      <c r="E712">
+        <v>9</v>
+      </c>
+      <c r="F712" t="s">
+        <v>3</v>
+      </c>
+      <c r="G712">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="713" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A713" t="s">
+        <v>223</v>
+      </c>
+      <c r="B713" t="s">
+        <v>18</v>
+      </c>
+      <c r="C713" t="s">
+        <v>256</v>
+      </c>
+      <c r="D713">
+        <v>8.5</v>
+      </c>
+      <c r="E713">
+        <v>7</v>
+      </c>
+      <c r="F713" t="s">
+        <v>3</v>
+      </c>
+      <c r="G713">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="714" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A714" t="s">
+        <v>223</v>
+      </c>
+      <c r="B714" t="s">
+        <v>6</v>
+      </c>
+      <c r="C714" t="s">
+        <v>103</v>
+      </c>
+      <c r="D714">
+        <v>0</v>
+      </c>
+      <c r="E714">
+        <v>0</v>
+      </c>
+      <c r="F714" t="s">
+        <v>45</v>
+      </c>
+      <c r="G714">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="715" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A715" t="s">
+        <v>223</v>
+      </c>
+      <c r="B715" t="s">
+        <v>6</v>
+      </c>
+      <c r="C715" t="s">
+        <v>187</v>
+      </c>
+      <c r="D715">
+        <v>10</v>
+      </c>
+      <c r="E715">
+        <v>5.8</v>
+      </c>
+      <c r="F715" t="s">
+        <v>45</v>
+      </c>
+      <c r="G715">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="716" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A716" t="s">
+        <v>223</v>
+      </c>
+      <c r="B716" t="s">
+        <v>4</v>
+      </c>
+      <c r="C716" t="s">
+        <v>58</v>
+      </c>
+      <c r="D716" t="s">
+        <v>213</v>
+      </c>
+      <c r="E716">
+        <v>0</v>
+      </c>
+      <c r="F716" t="s">
+        <v>45</v>
+      </c>
+      <c r="G716">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="717" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A717" t="s">
+        <v>223</v>
+      </c>
+      <c r="B717" t="s">
+        <v>7</v>
+      </c>
+      <c r="C717" t="s">
+        <v>50</v>
+      </c>
+      <c r="D717">
+        <v>14.7</v>
+      </c>
+      <c r="E717">
+        <v>7.1</v>
+      </c>
+      <c r="F717" t="s">
+        <v>45</v>
+      </c>
+      <c r="G717">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="718" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A718" t="s">
+        <v>223</v>
+      </c>
+      <c r="B718" t="s">
+        <v>7</v>
+      </c>
+      <c r="C718" t="s">
+        <v>57</v>
+      </c>
+      <c r="D718">
+        <v>9.9</v>
+      </c>
+      <c r="E718">
+        <v>15.1</v>
+      </c>
+      <c r="F718" t="s">
+        <v>45</v>
+      </c>
+      <c r="G718">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="719" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A719" t="s">
+        <v>223</v>
+      </c>
+      <c r="B719" t="s">
+        <v>7</v>
+      </c>
+      <c r="C719" t="s">
+        <v>240</v>
+      </c>
+      <c r="D719">
+        <v>13.5</v>
+      </c>
+      <c r="E719">
+        <v>15.3</v>
+      </c>
+      <c r="F719" t="s">
+        <v>45</v>
+      </c>
+      <c r="G719">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="720" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A720" t="s">
+        <v>223</v>
+      </c>
+      <c r="B720" t="s">
+        <v>13</v>
+      </c>
+      <c r="C720" t="s">
+        <v>210</v>
+      </c>
+      <c r="D720">
+        <v>10</v>
+      </c>
+      <c r="E720">
+        <v>11.2</v>
+      </c>
+      <c r="F720" t="s">
+        <v>45</v>
+      </c>
+      <c r="G720">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="721" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A721" t="s">
+        <v>222</v>
+      </c>
+      <c r="B721" t="s">
+        <v>4</v>
+      </c>
+      <c r="C721" t="s">
+        <v>78</v>
+      </c>
+      <c r="D721">
+        <v>21.9</v>
+      </c>
+      <c r="E721">
+        <v>24.24</v>
+      </c>
+      <c r="F721" t="s">
+        <v>3</v>
+      </c>
+      <c r="G721">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="722" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A722" t="s">
+        <v>222</v>
+      </c>
+      <c r="B722" t="s">
+        <v>6</v>
+      </c>
+      <c r="C722" t="s">
+        <v>93</v>
+      </c>
+      <c r="D722">
+        <v>17.8</v>
+      </c>
+      <c r="E722">
+        <v>15.9</v>
+      </c>
+      <c r="F722" t="s">
+        <v>3</v>
+      </c>
+      <c r="G722">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="723" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A723" t="s">
+        <v>222</v>
+      </c>
+      <c r="B723" t="s">
+        <v>6</v>
+      </c>
+      <c r="C723" t="s">
+        <v>253</v>
+      </c>
+      <c r="D723">
+        <v>14.5</v>
+      </c>
+      <c r="E723">
+        <v>11.9</v>
+      </c>
+      <c r="F723" t="s">
+        <v>3</v>
+      </c>
+      <c r="G723">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="724" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A724" t="s">
+        <v>222</v>
+      </c>
+      <c r="B724" t="s">
+        <v>7</v>
+      </c>
+      <c r="C724" t="s">
+        <v>81</v>
+      </c>
+      <c r="D724">
+        <v>18</v>
+      </c>
+      <c r="E724">
+        <v>6</v>
+      </c>
+      <c r="F724" t="s">
+        <v>3</v>
+      </c>
+      <c r="G724">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="725" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A725" t="s">
+        <v>222</v>
+      </c>
+      <c r="B725" t="s">
+        <v>7</v>
+      </c>
+      <c r="C725" t="s">
+        <v>84</v>
+      </c>
+      <c r="D725">
+        <v>20.2</v>
+      </c>
+      <c r="E725">
+        <v>20.8</v>
+      </c>
+      <c r="F725" t="s">
+        <v>3</v>
+      </c>
+      <c r="G725">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="726" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A726" t="s">
+        <v>222</v>
+      </c>
+      <c r="B726" t="s">
+        <v>13</v>
+      </c>
+      <c r="C726" t="s">
+        <v>83</v>
+      </c>
+      <c r="D726">
+        <v>10.9</v>
+      </c>
+      <c r="E726">
+        <v>7.3</v>
+      </c>
+      <c r="F726" t="s">
+        <v>3</v>
+      </c>
+      <c r="G726">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="727" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A727" t="s">
+        <v>222</v>
+      </c>
+      <c r="B727" t="s">
+        <v>7</v>
+      </c>
+      <c r="C727" t="s">
+        <v>88</v>
+      </c>
+      <c r="D727">
+        <v>11.8</v>
+      </c>
+      <c r="E727">
+        <v>12.4</v>
+      </c>
+      <c r="F727" t="s">
+        <v>3</v>
+      </c>
+      <c r="G727">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="728" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A728" t="s">
+        <v>222</v>
+      </c>
+      <c r="B728" t="s">
+        <v>16</v>
+      </c>
+      <c r="C728" t="s">
+        <v>101</v>
+      </c>
+      <c r="D728">
+        <v>6.8</v>
+      </c>
+      <c r="E728">
+        <v>6</v>
+      </c>
+      <c r="F728" t="s">
+        <v>3</v>
+      </c>
+      <c r="G728">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="729" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A729" t="s">
+        <v>222</v>
+      </c>
+      <c r="B729" t="s">
+        <v>18</v>
+      </c>
+      <c r="C729" t="s">
+        <v>258</v>
+      </c>
+      <c r="D729">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E729">
+        <v>8</v>
+      </c>
+      <c r="F729" t="s">
+        <v>3</v>
+      </c>
+      <c r="G729">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="730" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A730" t="s">
+        <v>222</v>
+      </c>
+      <c r="B730" t="s">
+        <v>6</v>
+      </c>
+      <c r="C730" t="s">
+        <v>79</v>
+      </c>
+      <c r="D730" t="s">
+        <v>213</v>
+      </c>
+      <c r="E730">
+        <v>0</v>
+      </c>
+      <c r="F730" t="s">
+        <v>45</v>
+      </c>
+      <c r="G730">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="731" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A731" t="s">
+        <v>222</v>
+      </c>
+      <c r="B731" t="s">
+        <v>7</v>
+      </c>
+      <c r="C731" t="s">
+        <v>82</v>
+      </c>
+      <c r="D731">
+        <v>0</v>
+      </c>
+      <c r="E731">
+        <v>0</v>
+      </c>
+      <c r="F731" t="s">
+        <v>45</v>
+      </c>
+      <c r="G731">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="732" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A732" t="s">
+        <v>222</v>
+      </c>
+      <c r="B732" t="s">
+        <v>6</v>
+      </c>
+      <c r="C732" t="s">
+        <v>80</v>
+      </c>
+      <c r="D732">
+        <v>0</v>
+      </c>
+      <c r="E732">
+        <v>0</v>
+      </c>
+      <c r="F732" t="s">
+        <v>45</v>
+      </c>
+      <c r="G732">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="733" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A733" t="s">
+        <v>222</v>
+      </c>
+      <c r="B733" t="s">
+        <v>6</v>
+      </c>
+      <c r="C733" t="s">
+        <v>87</v>
+      </c>
+      <c r="D733">
+        <v>10.9</v>
+      </c>
+      <c r="E733">
+        <v>6.4</v>
+      </c>
+      <c r="F733" t="s">
+        <v>45</v>
+      </c>
+      <c r="G733">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="734" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A734" t="s">
+        <v>222</v>
+      </c>
+      <c r="B734" t="s">
+        <v>16</v>
+      </c>
+      <c r="C734" t="s">
+        <v>241</v>
+      </c>
+      <c r="D734">
+        <v>6</v>
+      </c>
+      <c r="E734">
+        <v>-2</v>
+      </c>
+      <c r="F734" t="s">
+        <v>45</v>
+      </c>
+      <c r="G734">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="735" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A735" t="s">
+        <v>222</v>
+      </c>
+      <c r="B735" t="s">
+        <v>4</v>
+      </c>
+      <c r="C735" t="s">
+        <v>235</v>
+      </c>
+      <c r="D735">
+        <v>17.5</v>
+      </c>
+      <c r="E735">
+        <v>14</v>
+      </c>
+      <c r="F735" t="s">
+        <v>45</v>
+      </c>
+      <c r="G735">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="736" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A736" t="s">
+        <v>222</v>
+      </c>
+      <c r="B736" t="s">
+        <v>7</v>
+      </c>
+      <c r="C736" t="s">
+        <v>21</v>
+      </c>
+      <c r="D736" t="s">
+        <v>213</v>
+      </c>
+      <c r="E736">
+        <v>0</v>
+      </c>
+      <c r="F736" t="s">
+        <v>45</v>
+      </c>
+      <c r="G736">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="737" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A737" t="s">
+        <v>224</v>
+      </c>
+      <c r="B737" t="s">
+        <v>4</v>
+      </c>
+      <c r="C737" t="s">
+        <v>110</v>
+      </c>
+      <c r="D737">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="E737">
+        <v>22.36</v>
+      </c>
+      <c r="F737" t="s">
+        <v>3</v>
+      </c>
+      <c r="G737">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="738" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A738" t="s">
+        <v>224</v>
+      </c>
+      <c r="B738" t="s">
+        <v>6</v>
+      </c>
+      <c r="C738" t="s">
+        <v>112</v>
+      </c>
+      <c r="D738">
+        <v>15.7</v>
+      </c>
+      <c r="E738">
+        <v>13.5</v>
+      </c>
+      <c r="F738" t="s">
+        <v>3</v>
+      </c>
+      <c r="G738">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="739" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A739" t="s">
+        <v>224</v>
+      </c>
+      <c r="B739" t="s">
+        <v>6</v>
+      </c>
+      <c r="C739" t="s">
+        <v>20</v>
+      </c>
+      <c r="D739">
+        <v>10</v>
+      </c>
+      <c r="E739">
+        <v>1.3</v>
+      </c>
+      <c r="F739" t="s">
+        <v>3</v>
+      </c>
+      <c r="G739">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="740" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A740" t="s">
+        <v>224</v>
+      </c>
+      <c r="B740" t="s">
+        <v>7</v>
+      </c>
+      <c r="C740" t="s">
+        <v>114</v>
+      </c>
+      <c r="D740">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="E740">
+        <v>8</v>
+      </c>
+      <c r="F740" t="s">
+        <v>3</v>
+      </c>
+      <c r="G740">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="741" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A741" t="s">
+        <v>224</v>
+      </c>
+      <c r="B741" t="s">
+        <v>7</v>
+      </c>
+      <c r="C741" t="s">
+        <v>116</v>
+      </c>
+      <c r="D741">
+        <v>12.2</v>
+      </c>
+      <c r="E741">
+        <v>6.8</v>
+      </c>
+      <c r="F741" t="s">
+        <v>3</v>
+      </c>
+      <c r="G741">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="742" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A742" t="s">
+        <v>224</v>
+      </c>
+      <c r="B742" t="s">
+        <v>13</v>
+      </c>
+      <c r="C742" t="s">
+        <v>115</v>
+      </c>
+      <c r="D742">
+        <v>16.5</v>
+      </c>
+      <c r="E742">
+        <v>13.2</v>
+      </c>
+      <c r="F742" t="s">
+        <v>3</v>
+      </c>
+      <c r="G742">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="743" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A743" t="s">
+        <v>224</v>
+      </c>
+      <c r="B743" t="s">
+        <v>7</v>
+      </c>
+      <c r="C743" t="s">
+        <v>113</v>
+      </c>
+      <c r="D743">
+        <v>18</v>
+      </c>
+      <c r="E743">
+        <v>10.1</v>
+      </c>
+      <c r="F743" t="s">
+        <v>3</v>
+      </c>
+      <c r="G743">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="744" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A744" t="s">
+        <v>224</v>
+      </c>
+      <c r="B744" t="s">
+        <v>16</v>
+      </c>
+      <c r="C744" t="s">
+        <v>259</v>
+      </c>
+      <c r="D744">
+        <v>6.9</v>
+      </c>
+      <c r="E744">
+        <v>1</v>
+      </c>
+      <c r="F744" t="s">
+        <v>3</v>
+      </c>
+      <c r="G744">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="745" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A745" t="s">
+        <v>224</v>
+      </c>
+      <c r="B745" t="s">
+        <v>18</v>
+      </c>
+      <c r="C745" t="s">
+        <v>118</v>
+      </c>
+      <c r="D745">
+        <v>7.1</v>
+      </c>
+      <c r="E745">
+        <v>15</v>
+      </c>
+      <c r="F745" t="s">
+        <v>3</v>
+      </c>
+      <c r="G745">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="746" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A746" t="s">
+        <v>224</v>
+      </c>
+      <c r="B746" t="s">
+        <v>6</v>
+      </c>
+      <c r="C746" t="s">
+        <v>111</v>
+      </c>
+      <c r="D746" t="s">
+        <v>213</v>
+      </c>
+      <c r="E746">
+        <v>0</v>
+      </c>
+      <c r="F746" t="s">
+        <v>45</v>
+      </c>
+      <c r="G746">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="747" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A747" t="s">
+        <v>224</v>
+      </c>
+      <c r="B747" t="s">
+        <v>7</v>
+      </c>
+      <c r="C747" t="s">
+        <v>119</v>
+      </c>
+      <c r="D747">
+        <v>12.2</v>
+      </c>
+      <c r="E747">
+        <v>10.4</v>
+      </c>
+      <c r="F747" t="s">
+        <v>45</v>
+      </c>
+      <c r="G747">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="748" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A748" t="s">
+        <v>224</v>
+      </c>
+      <c r="B748" t="s">
+        <v>6</v>
+      </c>
+      <c r="C748" t="s">
+        <v>120</v>
+      </c>
+      <c r="D748" t="s">
+        <v>213</v>
+      </c>
+      <c r="E748">
+        <v>0</v>
+      </c>
+      <c r="F748" t="s">
+        <v>45</v>
+      </c>
+      <c r="G748">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="749" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A749" t="s">
+        <v>224</v>
+      </c>
+      <c r="B749" t="s">
+        <v>6</v>
+      </c>
+      <c r="C749" t="s">
+        <v>121</v>
+      </c>
+      <c r="D749">
+        <v>7.6</v>
+      </c>
+      <c r="E749">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F749" t="s">
+        <v>45</v>
+      </c>
+      <c r="G749">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="750" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A750" t="s">
+        <v>224</v>
+      </c>
+      <c r="B750" t="s">
+        <v>7</v>
+      </c>
+      <c r="C750" t="s">
+        <v>122</v>
+      </c>
+      <c r="D750">
+        <v>12.8</v>
+      </c>
+      <c r="E750">
+        <v>17.3</v>
+      </c>
+      <c r="F750" t="s">
+        <v>45</v>
+      </c>
+      <c r="G750">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="751" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A751" t="s">
+        <v>224</v>
+      </c>
+      <c r="B751" t="s">
+        <v>16</v>
+      </c>
+      <c r="C751" t="s">
+        <v>53</v>
+      </c>
+      <c r="D751">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E751">
+        <v>9</v>
+      </c>
+      <c r="F751" t="s">
+        <v>45</v>
+      </c>
+      <c r="G751">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="752" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A752" t="s">
+        <v>224</v>
+      </c>
+      <c r="B752" t="s">
+        <v>4</v>
+      </c>
+      <c r="C752" t="s">
+        <v>255</v>
+      </c>
+      <c r="D752" t="s">
+        <v>213</v>
+      </c>
+      <c r="E752">
+        <v>0</v>
+      </c>
+      <c r="F752" t="s">
+        <v>45</v>
+      </c>
+      <c r="G752">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="753" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A753" t="s">
+        <v>220</v>
+      </c>
+      <c r="B753" t="s">
+        <v>4</v>
+      </c>
+      <c r="C753" t="s">
+        <v>201</v>
+      </c>
+      <c r="D753">
+        <v>16.5</v>
+      </c>
+      <c r="E753">
+        <v>14.62</v>
+      </c>
+      <c r="F753" t="s">
+        <v>3</v>
+      </c>
+      <c r="G753">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="754" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A754" t="s">
+        <v>220</v>
+      </c>
+      <c r="B754" t="s">
+        <v>6</v>
+      </c>
+      <c r="C754" t="s">
+        <v>95</v>
+      </c>
+      <c r="D754">
+        <v>23.2</v>
+      </c>
+      <c r="E754">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="F754" t="s">
+        <v>3</v>
+      </c>
+      <c r="G754">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="755" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A755" t="s">
+        <v>220</v>
+      </c>
+      <c r="B755" t="s">
+        <v>6</v>
+      </c>
+      <c r="C755" t="s">
+        <v>217</v>
+      </c>
+      <c r="D755">
+        <v>17.8</v>
+      </c>
+      <c r="E755">
+        <v>11.8</v>
+      </c>
+      <c r="F755" t="s">
+        <v>3</v>
+      </c>
+      <c r="G755">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="756" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A756" t="s">
+        <v>220</v>
+      </c>
+      <c r="B756" t="s">
+        <v>7</v>
+      </c>
+      <c r="C756" t="s">
+        <v>49</v>
+      </c>
+      <c r="D756">
+        <v>23.2</v>
+      </c>
+      <c r="E756">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="F756" t="s">
+        <v>3</v>
+      </c>
+      <c r="G756">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="757" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A757" t="s">
+        <v>220</v>
+      </c>
+      <c r="B757" t="s">
+        <v>7</v>
+      </c>
+      <c r="C757" t="s">
+        <v>100</v>
+      </c>
+      <c r="D757">
+        <v>15.8</v>
+      </c>
+      <c r="E757">
+        <v>23.8</v>
+      </c>
+      <c r="F757" t="s">
+        <v>3</v>
+      </c>
+      <c r="G757">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="758" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A758" t="s">
+        <v>220</v>
+      </c>
+      <c r="B758" t="s">
+        <v>13</v>
+      </c>
+      <c r="C758" t="s">
+        <v>51</v>
+      </c>
+      <c r="D758">
+        <v>11.7</v>
+      </c>
+      <c r="E758">
+        <v>5.2</v>
+      </c>
+      <c r="F758" t="s">
+        <v>3</v>
+      </c>
+      <c r="G758">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="759" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A759" t="s">
+        <v>220</v>
+      </c>
+      <c r="B759" t="s">
+        <v>7</v>
+      </c>
+      <c r="C759" t="s">
+        <v>104</v>
+      </c>
+      <c r="D759">
+        <v>14.3</v>
+      </c>
+      <c r="E759">
+        <v>10.6</v>
+      </c>
+      <c r="F759" t="s">
+        <v>3</v>
+      </c>
+      <c r="G759">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="760" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A760" t="s">
+        <v>220</v>
+      </c>
+      <c r="B760" t="s">
+        <v>16</v>
+      </c>
+      <c r="C760" t="s">
+        <v>85</v>
+      </c>
+      <c r="D760">
+        <v>6</v>
+      </c>
+      <c r="E760">
+        <v>13</v>
+      </c>
+      <c r="F760" t="s">
+        <v>3</v>
+      </c>
+      <c r="G760">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="761" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A761" t="s">
+        <v>220</v>
+      </c>
+      <c r="B761" t="s">
+        <v>18</v>
+      </c>
+      <c r="C761" t="s">
+        <v>54</v>
+      </c>
+      <c r="D761">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E761">
+        <v>8</v>
+      </c>
+      <c r="F761" t="s">
+        <v>3</v>
+      </c>
+      <c r="G761">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="762" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A762" t="s">
+        <v>220</v>
+      </c>
+      <c r="B762" t="s">
+        <v>6</v>
+      </c>
+      <c r="C762" t="s">
+        <v>47</v>
+      </c>
+      <c r="D762">
+        <v>13.7</v>
+      </c>
+      <c r="E762">
+        <v>8.9</v>
+      </c>
+      <c r="F762" t="s">
+        <v>45</v>
+      </c>
+      <c r="G762">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="763" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A763" t="s">
+        <v>220</v>
+      </c>
+      <c r="B763" t="s">
+        <v>7</v>
+      </c>
+      <c r="C763" t="s">
+        <v>52</v>
+      </c>
+      <c r="D763" t="s">
+        <v>213</v>
+      </c>
+      <c r="E763">
+        <v>0</v>
+      </c>
+      <c r="F763" t="s">
+        <v>45</v>
+      </c>
+      <c r="G763">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="764" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A764" t="s">
+        <v>220</v>
+      </c>
+      <c r="B764" t="s">
+        <v>7</v>
+      </c>
+      <c r="C764" t="s">
+        <v>55</v>
+      </c>
+      <c r="D764">
+        <v>12.4</v>
+      </c>
+      <c r="E764">
+        <v>11.7</v>
+      </c>
+      <c r="F764" t="s">
+        <v>45</v>
+      </c>
+      <c r="G764">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="765" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A765" t="s">
+        <v>220</v>
+      </c>
+      <c r="B765" t="s">
+        <v>6</v>
+      </c>
+      <c r="C765" t="s">
+        <v>56</v>
+      </c>
+      <c r="D765">
+        <v>7.7</v>
+      </c>
+      <c r="E765">
+        <v>6.2</v>
+      </c>
+      <c r="F765" t="s">
+        <v>45</v>
+      </c>
+      <c r="G765">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="766" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A766" t="s">
+        <v>220</v>
+      </c>
+      <c r="B766" t="s">
+        <v>6</v>
+      </c>
+      <c r="C766" t="s">
+        <v>196</v>
+      </c>
+      <c r="D766">
+        <v>12.7</v>
+      </c>
+      <c r="E766">
+        <v>15.8</v>
+      </c>
+      <c r="F766" t="s">
+        <v>45</v>
+      </c>
+      <c r="G766">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="767" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A767" t="s">
+        <v>220</v>
+      </c>
+      <c r="B767" t="s">
+        <v>7</v>
+      </c>
+      <c r="C767" t="s">
+        <v>249</v>
+      </c>
+      <c r="D767">
+        <v>11</v>
+      </c>
+      <c r="E767">
+        <v>6.1</v>
+      </c>
+      <c r="F767" t="s">
+        <v>45</v>
+      </c>
+      <c r="G767">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="768" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A768" t="s">
+        <v>220</v>
+      </c>
+      <c r="B768" t="s">
+        <v>16</v>
+      </c>
+      <c r="C768" t="s">
+        <v>231</v>
+      </c>
+      <c r="D768">
+        <v>4.8</v>
+      </c>
+      <c r="E768">
+        <v>5</v>
+      </c>
+      <c r="F768" t="s">
+        <v>45</v>
+      </c>
+      <c r="G768">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="769" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A769" t="s">
+        <v>227</v>
+      </c>
+      <c r="B769" t="s">
+        <v>4</v>
+      </c>
+      <c r="C769" t="s">
+        <v>167</v>
+      </c>
+      <c r="D769">
+        <v>25.6</v>
+      </c>
+      <c r="E769">
+        <v>22.1</v>
+      </c>
+      <c r="F769" t="s">
+        <v>3</v>
+      </c>
+      <c r="G769">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="770" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A770" t="s">
+        <v>227</v>
+      </c>
+      <c r="B770" t="s">
+        <v>6</v>
+      </c>
+      <c r="C770" t="s">
+        <v>159</v>
+      </c>
+      <c r="D770">
+        <v>19.2</v>
+      </c>
+      <c r="E770">
+        <v>6.8</v>
+      </c>
+      <c r="F770" t="s">
+        <v>3</v>
+      </c>
+      <c r="G770">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="771" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A771" t="s">
+        <v>227</v>
+      </c>
+      <c r="B771" t="s">
+        <v>6</v>
+      </c>
+      <c r="C771" t="s">
+        <v>164</v>
+      </c>
+      <c r="D771">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="E771">
+        <v>1.6</v>
+      </c>
+      <c r="F771" t="s">
+        <v>3</v>
+      </c>
+      <c r="G771">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="772" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A772" t="s">
+        <v>227</v>
+      </c>
+      <c r="B772" t="s">
+        <v>7</v>
+      </c>
+      <c r="C772" t="s">
+        <v>161</v>
+      </c>
+      <c r="D772">
+        <v>15.6</v>
+      </c>
+      <c r="E772">
+        <v>5.8</v>
+      </c>
+      <c r="F772" t="s">
+        <v>3</v>
+      </c>
+      <c r="G772">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="773" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A773" t="s">
+        <v>227</v>
+      </c>
+      <c r="B773" t="s">
+        <v>7</v>
+      </c>
+      <c r="C773" t="s">
+        <v>162</v>
+      </c>
+      <c r="D773">
+        <v>15.6</v>
+      </c>
+      <c r="E773">
+        <v>24.5</v>
+      </c>
+      <c r="F773" t="s">
+        <v>3</v>
+      </c>
+      <c r="G773">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="774" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A774" t="s">
+        <v>227</v>
+      </c>
+      <c r="B774" t="s">
+        <v>13</v>
+      </c>
+      <c r="C774" t="s">
+        <v>25</v>
+      </c>
+      <c r="D774">
+        <v>9.4</v>
+      </c>
+      <c r="E774">
+        <v>3</v>
+      </c>
+      <c r="F774" t="s">
+        <v>3</v>
+      </c>
+      <c r="G774">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="775" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A775" t="s">
+        <v>227</v>
+      </c>
+      <c r="B775" t="s">
+        <v>6</v>
+      </c>
+      <c r="C775" t="s">
+        <v>107</v>
+      </c>
+      <c r="D775">
+        <v>13.8</v>
+      </c>
+      <c r="E775">
+        <v>12.5</v>
+      </c>
+      <c r="F775" t="s">
+        <v>3</v>
+      </c>
+      <c r="G775">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="776" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A776" t="s">
+        <v>227</v>
+      </c>
+      <c r="B776" t="s">
+        <v>16</v>
+      </c>
+      <c r="C776" t="s">
+        <v>165</v>
+      </c>
+      <c r="D776">
+        <v>7.2</v>
+      </c>
+      <c r="E776">
+        <v>5</v>
+      </c>
+      <c r="F776" t="s">
+        <v>3</v>
+      </c>
+      <c r="G776">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="777" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A777" t="s">
+        <v>227</v>
+      </c>
+      <c r="B777" t="s">
+        <v>18</v>
+      </c>
+      <c r="C777" t="s">
+        <v>260</v>
+      </c>
+      <c r="D777">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E777">
+        <v>7</v>
+      </c>
+      <c r="F777" t="s">
+        <v>45</v>
+      </c>
+      <c r="G777">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="778" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A778" t="s">
+        <v>227</v>
+      </c>
+      <c r="B778" t="s">
+        <v>6</v>
+      </c>
+      <c r="C778" t="s">
+        <v>160</v>
+      </c>
+      <c r="D778">
+        <v>0</v>
+      </c>
+      <c r="E778">
+        <v>0</v>
+      </c>
+      <c r="F778" t="s">
+        <v>45</v>
+      </c>
+      <c r="G778">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="779" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A779" t="s">
+        <v>227</v>
+      </c>
+      <c r="B779" t="s">
+        <v>7</v>
+      </c>
+      <c r="C779" t="s">
+        <v>168</v>
+      </c>
+      <c r="D779" t="s">
+        <v>213</v>
+      </c>
+      <c r="E779">
+        <v>0</v>
+      </c>
+      <c r="F779" t="s">
+        <v>45</v>
+      </c>
+      <c r="G779">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="780" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A780" t="s">
+        <v>227</v>
+      </c>
+      <c r="B780" t="s">
+        <v>6</v>
+      </c>
+      <c r="C780" t="s">
+        <v>199</v>
+      </c>
+      <c r="D780" t="s">
+        <v>213</v>
+      </c>
+      <c r="E780">
+        <v>0</v>
+      </c>
+      <c r="F780" t="s">
+        <v>45</v>
+      </c>
+      <c r="G780">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="781" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A781" t="s">
+        <v>227</v>
+      </c>
+      <c r="B781" t="s">
+        <v>16</v>
+      </c>
+      <c r="C781" t="s">
+        <v>69</v>
+      </c>
+      <c r="D781" t="s">
+        <v>213</v>
+      </c>
+      <c r="E781">
+        <v>0</v>
+      </c>
+      <c r="F781" t="s">
+        <v>45</v>
+      </c>
+      <c r="G781">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="782" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A782" t="s">
+        <v>227</v>
+      </c>
+      <c r="B782" t="s">
+        <v>6</v>
+      </c>
+      <c r="C782" t="s">
+        <v>246</v>
+      </c>
+      <c r="D782" t="s">
+        <v>213</v>
+      </c>
+      <c r="E782">
+        <v>0</v>
+      </c>
+      <c r="F782" t="s">
+        <v>45</v>
+      </c>
+      <c r="G782">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="783" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A783" t="s">
+        <v>227</v>
+      </c>
+      <c r="B783" t="s">
+        <v>7</v>
+      </c>
+      <c r="C783" t="s">
+        <v>39</v>
+      </c>
+      <c r="D783">
+        <v>10.5</v>
+      </c>
+      <c r="E783">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="F783" t="s">
+        <v>45</v>
+      </c>
+      <c r="G783">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="784" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A784" t="s">
+        <v>227</v>
+      </c>
+      <c r="B784" t="s">
+        <v>13</v>
+      </c>
+      <c r="C784" t="s">
+        <v>230</v>
+      </c>
+      <c r="D784">
+        <v>8.5</v>
+      </c>
+      <c r="E784">
+        <v>1.5</v>
+      </c>
+      <c r="F784" t="s">
+        <v>45</v>
+      </c>
+      <c r="G784">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="785" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A785" t="s">
+        <v>226</v>
+      </c>
+      <c r="B785" t="s">
+        <v>4</v>
+      </c>
+      <c r="C785" t="s">
+        <v>142</v>
+      </c>
+      <c r="D785">
+        <v>23.1</v>
+      </c>
+      <c r="E785">
+        <v>37.92</v>
+      </c>
+      <c r="F785" t="s">
+        <v>3</v>
+      </c>
+      <c r="G785">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="786" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A786" t="s">
+        <v>226</v>
+      </c>
+      <c r="B786" t="s">
+        <v>6</v>
+      </c>
+      <c r="C786" t="s">
+        <v>153</v>
+      </c>
+      <c r="D786">
+        <v>7.9</v>
+      </c>
+      <c r="E786">
+        <v>12.8</v>
+      </c>
+      <c r="F786" t="s">
+        <v>3</v>
+      </c>
+      <c r="G786">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="787" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A787" t="s">
+        <v>226</v>
+      </c>
+      <c r="B787" t="s">
+        <v>6</v>
+      </c>
+      <c r="C787" t="s">
+        <v>261</v>
+      </c>
+      <c r="D787">
+        <v>10</v>
+      </c>
+      <c r="E787">
+        <v>11.2</v>
+      </c>
+      <c r="F787" t="s">
+        <v>3</v>
+      </c>
+      <c r="G787">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="788" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A788" t="s">
+        <v>226</v>
+      </c>
+      <c r="B788" t="s">
+        <v>7</v>
+      </c>
+      <c r="C788" t="s">
+        <v>145</v>
+      </c>
+      <c r="D788">
+        <v>16.5</v>
+      </c>
+      <c r="E788">
+        <v>15.1</v>
+      </c>
+      <c r="F788" t="s">
+        <v>3</v>
+      </c>
+      <c r="G788">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="789" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A789" t="s">
+        <v>226</v>
+      </c>
+      <c r="B789" t="s">
+        <v>7</v>
+      </c>
+      <c r="C789" t="s">
+        <v>148</v>
+      </c>
+      <c r="D789">
+        <v>14.3</v>
+      </c>
+      <c r="E789">
+        <v>15.3</v>
+      </c>
+      <c r="F789" t="s">
+        <v>3</v>
+      </c>
+      <c r="G789">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="790" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A790" t="s">
+        <v>226</v>
+      </c>
+      <c r="B790" t="s">
+        <v>13</v>
+      </c>
+      <c r="C790" t="s">
+        <v>155</v>
+      </c>
+      <c r="D790">
+        <v>11.9</v>
+      </c>
+      <c r="E790">
+        <v>14.9</v>
+      </c>
+      <c r="F790" t="s">
+        <v>3</v>
+      </c>
+      <c r="G790">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="791" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A791" t="s">
+        <v>226</v>
+      </c>
+      <c r="B791" t="s">
+        <v>7</v>
+      </c>
+      <c r="C791" t="s">
+        <v>236</v>
+      </c>
+      <c r="D791">
+        <v>11.5</v>
+      </c>
+      <c r="E791">
+        <v>6.9</v>
+      </c>
+      <c r="F791" t="s">
+        <v>3</v>
+      </c>
+      <c r="G791">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="792" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A792" t="s">
+        <v>226</v>
+      </c>
+      <c r="B792" t="s">
+        <v>16</v>
+      </c>
+      <c r="C792" t="s">
+        <v>180</v>
+      </c>
+      <c r="D792">
+        <v>7.4</v>
+      </c>
+      <c r="E792">
+        <v>4</v>
+      </c>
+      <c r="F792" t="s">
+        <v>3</v>
+      </c>
+      <c r="G792">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="793" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A793" t="s">
+        <v>226</v>
+      </c>
+      <c r="B793" t="s">
+        <v>18</v>
+      </c>
+      <c r="C793" t="s">
+        <v>203</v>
+      </c>
+      <c r="D793">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E793">
+        <v>12</v>
+      </c>
+      <c r="F793" t="s">
+        <v>3</v>
+      </c>
+      <c r="G793">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="794" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A794" t="s">
+        <v>226</v>
+      </c>
+      <c r="B794" t="s">
+        <v>6</v>
+      </c>
+      <c r="C794" t="s">
+        <v>151</v>
+      </c>
+      <c r="D794" t="s">
+        <v>213</v>
+      </c>
+      <c r="E794">
+        <v>0</v>
+      </c>
+      <c r="F794" t="s">
+        <v>45</v>
+      </c>
+      <c r="G794">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="795" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A795" t="s">
+        <v>226</v>
+      </c>
+      <c r="B795" t="s">
+        <v>6</v>
+      </c>
+      <c r="C795" t="s">
+        <v>143</v>
+      </c>
+      <c r="D795">
+        <v>14.7</v>
+      </c>
+      <c r="E795">
+        <v>12.9</v>
+      </c>
+      <c r="F795" t="s">
+        <v>45</v>
+      </c>
+      <c r="G795">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="796" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A796" t="s">
+        <v>226</v>
+      </c>
+      <c r="B796" t="s">
+        <v>16</v>
+      </c>
+      <c r="C796" t="s">
+        <v>183</v>
+      </c>
+      <c r="D796" t="s">
+        <v>213</v>
+      </c>
+      <c r="E796">
+        <v>0</v>
+      </c>
+      <c r="F796" t="s">
+        <v>45</v>
+      </c>
+      <c r="G796">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="797" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A797" t="s">
+        <v>226</v>
+      </c>
+      <c r="B797" t="s">
+        <v>4</v>
+      </c>
+      <c r="C797" t="s">
+        <v>212</v>
+      </c>
+      <c r="D797">
+        <v>21.9</v>
+      </c>
+      <c r="E797">
+        <v>23.44</v>
+      </c>
+      <c r="F797" t="s">
+        <v>45</v>
+      </c>
+      <c r="G797">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="798" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A798" t="s">
+        <v>226</v>
+      </c>
+      <c r="B798" t="s">
+        <v>7</v>
+      </c>
+      <c r="C798" t="s">
+        <v>243</v>
+      </c>
+      <c r="D798">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E798">
+        <v>12.9</v>
+      </c>
+      <c r="F798" t="s">
+        <v>45</v>
+      </c>
+      <c r="G798">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="799" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A799" t="s">
+        <v>226</v>
+      </c>
+      <c r="B799" t="s">
+        <v>7</v>
+      </c>
+      <c r="C799" t="s">
+        <v>254</v>
+      </c>
+      <c r="D799">
+        <v>7</v>
+      </c>
+      <c r="E799">
+        <v>13.5</v>
+      </c>
+      <c r="F799" t="s">
+        <v>45</v>
+      </c>
+      <c r="G799">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="800" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A800" t="s">
+        <v>226</v>
+      </c>
+      <c r="B800" t="s">
+        <v>6</v>
+      </c>
+      <c r="C800" t="s">
+        <v>262</v>
+      </c>
+      <c r="D800">
+        <v>11.1</v>
+      </c>
+      <c r="E800">
+        <v>7.1</v>
+      </c>
+      <c r="F800" t="s">
+        <v>45</v>
+      </c>
+      <c r="G800">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FantasyFootballData2020.xlsx
+++ b/FantasyFootballData2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b88e9b99c0e7d8c4/Documents/GitHub/fantasy_football_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1929" documentId="13_ncr:1_{C78650B9-42D7-43C9-A95D-11F9998F55D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EB38BD3D-0971-40DC-B59E-9184A5D0AEEC}"/>
+  <xr:revisionPtr revIDLastSave="2262" documentId="13_ncr:1_{C78650B9-42D7-43C9-A95D-11F9998F55D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E0A0D49A-8D63-4144-A205-B1FBACE65758}"/>
   <bookViews>
     <workbookView xWindow="1520" yWindow="1520" windowWidth="16920" windowHeight="10540" activeTab="1" xr2:uid="{5502643F-E293-4B89-852D-6B7EFC2AEEB4}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5853" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6510" uniqueCount="266">
   <si>
     <t>Name</t>
   </si>
@@ -828,6 +828,15 @@
   <si>
     <t>Damien HarrisDamien Harris</t>
   </si>
+  <si>
+    <t>Brandon McManusBrandon McManus</t>
+  </si>
+  <si>
+    <t>Wayne GallmanWayne Gallman</t>
+  </si>
+  <si>
+    <t>Jared GoffJared Goff</t>
+  </si>
 </sst>
 </file>
 
@@ -15948,10 +15957,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED8B136-D96F-431C-BD0D-F7EA8CFD860F}">
-  <dimension ref="A1:G800"/>
+  <dimension ref="A1:G960"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A785" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B804" sqref="B804"/>
+    <sheetView tabSelected="1" topLeftCell="A941" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A961" sqref="A961"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -34361,6 +34370,3686 @@
         <v>9</v>
       </c>
     </row>
+    <row r="801" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A801" t="s">
+        <v>226</v>
+      </c>
+      <c r="B801" t="s">
+        <v>4</v>
+      </c>
+      <c r="C801" t="s">
+        <v>142</v>
+      </c>
+      <c r="D801">
+        <v>24.9</v>
+      </c>
+      <c r="E801">
+        <v>29.9</v>
+      </c>
+      <c r="F801" t="s">
+        <v>3</v>
+      </c>
+      <c r="G801">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="802" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A802" t="s">
+        <v>226</v>
+      </c>
+      <c r="B802" t="s">
+        <v>6</v>
+      </c>
+      <c r="C802" t="s">
+        <v>151</v>
+      </c>
+      <c r="D802">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="E802">
+        <v>13.5</v>
+      </c>
+      <c r="F802" t="s">
+        <v>3</v>
+      </c>
+      <c r="G802">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="803" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A803" t="s">
+        <v>226</v>
+      </c>
+      <c r="B803" t="s">
+        <v>6</v>
+      </c>
+      <c r="C803" t="s">
+        <v>143</v>
+      </c>
+      <c r="D803">
+        <v>21.3</v>
+      </c>
+      <c r="E803">
+        <v>14.5</v>
+      </c>
+      <c r="F803" t="s">
+        <v>3</v>
+      </c>
+      <c r="G803">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="804" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A804" t="s">
+        <v>226</v>
+      </c>
+      <c r="B804" t="s">
+        <v>7</v>
+      </c>
+      <c r="C804" t="s">
+        <v>145</v>
+      </c>
+      <c r="D804">
+        <v>15.9</v>
+      </c>
+      <c r="E804">
+        <v>10.3</v>
+      </c>
+      <c r="F804" t="s">
+        <v>3</v>
+      </c>
+      <c r="G804">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="805" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A805" t="s">
+        <v>226</v>
+      </c>
+      <c r="B805" t="s">
+        <v>7</v>
+      </c>
+      <c r="C805" t="s">
+        <v>148</v>
+      </c>
+      <c r="D805">
+        <v>15.1</v>
+      </c>
+      <c r="E805">
+        <v>6.1</v>
+      </c>
+      <c r="F805" t="s">
+        <v>3</v>
+      </c>
+      <c r="G805">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="806" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A806" t="s">
+        <v>226</v>
+      </c>
+      <c r="B806" t="s">
+        <v>13</v>
+      </c>
+      <c r="C806" t="s">
+        <v>234</v>
+      </c>
+      <c r="D806">
+        <v>9.6</v>
+      </c>
+      <c r="E806">
+        <v>2.1</v>
+      </c>
+      <c r="F806" t="s">
+        <v>3</v>
+      </c>
+      <c r="G806">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="807" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A807" t="s">
+        <v>226</v>
+      </c>
+      <c r="B807" t="s">
+        <v>13</v>
+      </c>
+      <c r="C807" t="s">
+        <v>155</v>
+      </c>
+      <c r="D807">
+        <v>10</v>
+      </c>
+      <c r="E807">
+        <v>3.3</v>
+      </c>
+      <c r="F807" t="s">
+        <v>3</v>
+      </c>
+      <c r="G807">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="808" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A808" t="s">
+        <v>226</v>
+      </c>
+      <c r="B808" t="s">
+        <v>16</v>
+      </c>
+      <c r="C808" t="s">
+        <v>173</v>
+      </c>
+      <c r="D808">
+        <v>6.4</v>
+      </c>
+      <c r="E808">
+        <v>15</v>
+      </c>
+      <c r="F808" t="s">
+        <v>3</v>
+      </c>
+      <c r="G808">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="809" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A809" t="s">
+        <v>226</v>
+      </c>
+      <c r="B809" t="s">
+        <v>18</v>
+      </c>
+      <c r="C809" t="s">
+        <v>263</v>
+      </c>
+      <c r="D809">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E809">
+        <v>8</v>
+      </c>
+      <c r="F809" t="s">
+        <v>3</v>
+      </c>
+      <c r="G809">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="810" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A810" t="s">
+        <v>226</v>
+      </c>
+      <c r="B810" t="s">
+        <v>16</v>
+      </c>
+      <c r="C810" t="s">
+        <v>183</v>
+      </c>
+      <c r="D810">
+        <v>4.8</v>
+      </c>
+      <c r="E810">
+        <v>13</v>
+      </c>
+      <c r="F810" t="s">
+        <v>45</v>
+      </c>
+      <c r="G810">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="811" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A811" t="s">
+        <v>226</v>
+      </c>
+      <c r="B811" t="s">
+        <v>18</v>
+      </c>
+      <c r="C811" t="s">
+        <v>203</v>
+      </c>
+      <c r="D811" t="s">
+        <v>213</v>
+      </c>
+      <c r="E811">
+        <v>0</v>
+      </c>
+      <c r="F811" t="s">
+        <v>45</v>
+      </c>
+      <c r="G811">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="812" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A812" t="s">
+        <v>226</v>
+      </c>
+      <c r="B812" t="s">
+        <v>4</v>
+      </c>
+      <c r="C812" t="s">
+        <v>212</v>
+      </c>
+      <c r="D812">
+        <v>21</v>
+      </c>
+      <c r="E812">
+        <v>20.48</v>
+      </c>
+      <c r="F812" t="s">
+        <v>45</v>
+      </c>
+      <c r="G812">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="813" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A813" t="s">
+        <v>226</v>
+      </c>
+      <c r="B813" t="s">
+        <v>7</v>
+      </c>
+      <c r="C813" t="s">
+        <v>243</v>
+      </c>
+      <c r="D813">
+        <v>10.1</v>
+      </c>
+      <c r="E813">
+        <v>10.1</v>
+      </c>
+      <c r="F813" t="s">
+        <v>45</v>
+      </c>
+      <c r="G813">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="814" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A814" t="s">
+        <v>226</v>
+      </c>
+      <c r="B814" t="s">
+        <v>6</v>
+      </c>
+      <c r="C814" t="s">
+        <v>153</v>
+      </c>
+      <c r="D814">
+        <v>8.6</v>
+      </c>
+      <c r="E814">
+        <v>2.7</v>
+      </c>
+      <c r="F814" t="s">
+        <v>45</v>
+      </c>
+      <c r="G814">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="815" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A815" t="s">
+        <v>226</v>
+      </c>
+      <c r="B815" t="s">
+        <v>7</v>
+      </c>
+      <c r="C815" t="s">
+        <v>254</v>
+      </c>
+      <c r="D815">
+        <v>7.9</v>
+      </c>
+      <c r="E815">
+        <v>1.8</v>
+      </c>
+      <c r="F815" t="s">
+        <v>45</v>
+      </c>
+      <c r="G815">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="816" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A816" t="s">
+        <v>226</v>
+      </c>
+      <c r="B816" t="s">
+        <v>7</v>
+      </c>
+      <c r="C816" t="s">
+        <v>182</v>
+      </c>
+      <c r="D816">
+        <v>0</v>
+      </c>
+      <c r="E816">
+        <v>0</v>
+      </c>
+      <c r="F816" t="s">
+        <v>45</v>
+      </c>
+      <c r="G816">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="817" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A817" t="s">
+        <v>218</v>
+      </c>
+      <c r="B817" t="s">
+        <v>4</v>
+      </c>
+      <c r="C817" t="s">
+        <v>24</v>
+      </c>
+      <c r="D817">
+        <v>20</v>
+      </c>
+      <c r="E817">
+        <v>25.4</v>
+      </c>
+      <c r="F817" t="s">
+        <v>3</v>
+      </c>
+      <c r="G817">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="818" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A818" t="s">
+        <v>218</v>
+      </c>
+      <c r="B818" t="s">
+        <v>6</v>
+      </c>
+      <c r="C818" t="s">
+        <v>9</v>
+      </c>
+      <c r="D818">
+        <v>22.7</v>
+      </c>
+      <c r="E818">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="F818" t="s">
+        <v>3</v>
+      </c>
+      <c r="G818">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="819" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A819" t="s">
+        <v>218</v>
+      </c>
+      <c r="B819" t="s">
+        <v>6</v>
+      </c>
+      <c r="C819" t="s">
+        <v>190</v>
+      </c>
+      <c r="D819">
+        <v>15.5</v>
+      </c>
+      <c r="E819">
+        <v>8.4</v>
+      </c>
+      <c r="F819" t="s">
+        <v>3</v>
+      </c>
+      <c r="G819">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="820" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A820" t="s">
+        <v>218</v>
+      </c>
+      <c r="B820" t="s">
+        <v>7</v>
+      </c>
+      <c r="C820" t="s">
+        <v>233</v>
+      </c>
+      <c r="D820">
+        <v>14.5</v>
+      </c>
+      <c r="E820">
+        <v>1.8</v>
+      </c>
+      <c r="F820" t="s">
+        <v>3</v>
+      </c>
+      <c r="G820">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="821" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A821" t="s">
+        <v>218</v>
+      </c>
+      <c r="B821" t="s">
+        <v>7</v>
+      </c>
+      <c r="C821" t="s">
+        <v>251</v>
+      </c>
+      <c r="D821">
+        <v>13.3</v>
+      </c>
+      <c r="E821">
+        <v>19.7</v>
+      </c>
+      <c r="F821" t="s">
+        <v>3</v>
+      </c>
+      <c r="G821">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="822" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A822" t="s">
+        <v>218</v>
+      </c>
+      <c r="B822" t="s">
+        <v>13</v>
+      </c>
+      <c r="C822" t="s">
+        <v>206</v>
+      </c>
+      <c r="D822">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E822">
+        <v>0</v>
+      </c>
+      <c r="F822" t="s">
+        <v>3</v>
+      </c>
+      <c r="G822">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="823" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A823" t="s">
+        <v>218</v>
+      </c>
+      <c r="B823" t="s">
+        <v>7</v>
+      </c>
+      <c r="C823" t="s">
+        <v>214</v>
+      </c>
+      <c r="D823">
+        <v>12.9</v>
+      </c>
+      <c r="E823">
+        <v>22.5</v>
+      </c>
+      <c r="F823" t="s">
+        <v>3</v>
+      </c>
+      <c r="G823">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="824" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A824" t="s">
+        <v>218</v>
+      </c>
+      <c r="B824" t="s">
+        <v>16</v>
+      </c>
+      <c r="C824" t="s">
+        <v>191</v>
+      </c>
+      <c r="D824">
+        <v>6.5</v>
+      </c>
+      <c r="E824">
+        <v>8</v>
+      </c>
+      <c r="F824" t="s">
+        <v>3</v>
+      </c>
+      <c r="G824">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="825" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A825" t="s">
+        <v>218</v>
+      </c>
+      <c r="B825" t="s">
+        <v>18</v>
+      </c>
+      <c r="C825" t="s">
+        <v>19</v>
+      </c>
+      <c r="D825">
+        <v>8.4</v>
+      </c>
+      <c r="E825">
+        <v>5</v>
+      </c>
+      <c r="F825" t="s">
+        <v>3</v>
+      </c>
+      <c r="G825">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="826" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A826" t="s">
+        <v>218</v>
+      </c>
+      <c r="B826" t="s">
+        <v>6</v>
+      </c>
+      <c r="C826" t="s">
+        <v>10</v>
+      </c>
+      <c r="D826">
+        <v>11.8</v>
+      </c>
+      <c r="E826">
+        <v>9.9</v>
+      </c>
+      <c r="F826" t="s">
+        <v>45</v>
+      </c>
+      <c r="G826">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="827" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A827" t="s">
+        <v>218</v>
+      </c>
+      <c r="B827" t="s">
+        <v>7</v>
+      </c>
+      <c r="C827" t="s">
+        <v>11</v>
+      </c>
+      <c r="D827">
+        <v>13.3</v>
+      </c>
+      <c r="E827">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="F827" t="s">
+        <v>45</v>
+      </c>
+      <c r="G827">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="828" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A828" t="s">
+        <v>218</v>
+      </c>
+      <c r="B828" t="s">
+        <v>7</v>
+      </c>
+      <c r="C828" t="s">
+        <v>12</v>
+      </c>
+      <c r="D828" t="s">
+        <v>213</v>
+      </c>
+      <c r="E828">
+        <v>0</v>
+      </c>
+      <c r="F828" t="s">
+        <v>45</v>
+      </c>
+      <c r="G828">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="829" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A829" t="s">
+        <v>218</v>
+      </c>
+      <c r="B829" t="s">
+        <v>4</v>
+      </c>
+      <c r="C829" t="s">
+        <v>8</v>
+      </c>
+      <c r="D829">
+        <v>15.3</v>
+      </c>
+      <c r="E829">
+        <v>16.82</v>
+      </c>
+      <c r="F829" t="s">
+        <v>45</v>
+      </c>
+      <c r="G829">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="830" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A830" t="s">
+        <v>218</v>
+      </c>
+      <c r="B830" t="s">
+        <v>6</v>
+      </c>
+      <c r="C830" t="s">
+        <v>192</v>
+      </c>
+      <c r="D830">
+        <v>0</v>
+      </c>
+      <c r="E830">
+        <v>0</v>
+      </c>
+      <c r="F830" t="s">
+        <v>45</v>
+      </c>
+      <c r="G830">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="831" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A831" t="s">
+        <v>218</v>
+      </c>
+      <c r="B831" t="s">
+        <v>7</v>
+      </c>
+      <c r="C831" t="s">
+        <v>207</v>
+      </c>
+      <c r="D831">
+        <v>10.1</v>
+      </c>
+      <c r="E831">
+        <v>11.7</v>
+      </c>
+      <c r="F831" t="s">
+        <v>45</v>
+      </c>
+      <c r="G831">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="832" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A832" t="s">
+        <v>218</v>
+      </c>
+      <c r="B832" t="s">
+        <v>13</v>
+      </c>
+      <c r="C832" t="s">
+        <v>193</v>
+      </c>
+      <c r="D832">
+        <v>7</v>
+      </c>
+      <c r="E832">
+        <v>11.2</v>
+      </c>
+      <c r="F832" t="s">
+        <v>45</v>
+      </c>
+      <c r="G832">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="833" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A833" t="s">
+        <v>222</v>
+      </c>
+      <c r="B833" t="s">
+        <v>4</v>
+      </c>
+      <c r="C833" t="s">
+        <v>78</v>
+      </c>
+      <c r="D833">
+        <v>20.2</v>
+      </c>
+      <c r="E833">
+        <v>14.12</v>
+      </c>
+      <c r="F833" t="s">
+        <v>3</v>
+      </c>
+      <c r="G833">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="834" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A834" t="s">
+        <v>222</v>
+      </c>
+      <c r="B834" t="s">
+        <v>6</v>
+      </c>
+      <c r="C834" t="s">
+        <v>79</v>
+      </c>
+      <c r="D834">
+        <v>14.7</v>
+      </c>
+      <c r="E834">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="F834" t="s">
+        <v>3</v>
+      </c>
+      <c r="G834">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="835" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A835" t="s">
+        <v>222</v>
+      </c>
+      <c r="B835" t="s">
+        <v>6</v>
+      </c>
+      <c r="C835" t="s">
+        <v>93</v>
+      </c>
+      <c r="D835">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="E835">
+        <v>13.2</v>
+      </c>
+      <c r="F835" t="s">
+        <v>3</v>
+      </c>
+      <c r="G835">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="836" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A836" t="s">
+        <v>222</v>
+      </c>
+      <c r="B836" t="s">
+        <v>7</v>
+      </c>
+      <c r="C836" t="s">
+        <v>81</v>
+      </c>
+      <c r="D836">
+        <v>15.9</v>
+      </c>
+      <c r="E836">
+        <v>25.7</v>
+      </c>
+      <c r="F836" t="s">
+        <v>3</v>
+      </c>
+      <c r="G836">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="837" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A837" t="s">
+        <v>222</v>
+      </c>
+      <c r="B837" t="s">
+        <v>7</v>
+      </c>
+      <c r="C837" t="s">
+        <v>84</v>
+      </c>
+      <c r="D837">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E837">
+        <v>25.3</v>
+      </c>
+      <c r="F837" t="s">
+        <v>3</v>
+      </c>
+      <c r="G837">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="838" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A838" t="s">
+        <v>222</v>
+      </c>
+      <c r="B838" t="s">
+        <v>13</v>
+      </c>
+      <c r="C838" t="s">
+        <v>83</v>
+      </c>
+      <c r="D838">
+        <v>11</v>
+      </c>
+      <c r="E838">
+        <v>13</v>
+      </c>
+      <c r="F838" t="s">
+        <v>3</v>
+      </c>
+      <c r="G838">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="839" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A839" t="s">
+        <v>222</v>
+      </c>
+      <c r="B839" t="s">
+        <v>7</v>
+      </c>
+      <c r="C839" t="s">
+        <v>88</v>
+      </c>
+      <c r="D839">
+        <v>12.5</v>
+      </c>
+      <c r="E839">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F839" t="s">
+        <v>3</v>
+      </c>
+      <c r="G839">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="840" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A840" t="s">
+        <v>222</v>
+      </c>
+      <c r="B840" t="s">
+        <v>16</v>
+      </c>
+      <c r="C840" t="s">
+        <v>101</v>
+      </c>
+      <c r="D840">
+        <v>6.3</v>
+      </c>
+      <c r="E840">
+        <v>12</v>
+      </c>
+      <c r="F840" t="s">
+        <v>3</v>
+      </c>
+      <c r="G840">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="841" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A841" t="s">
+        <v>222</v>
+      </c>
+      <c r="B841" t="s">
+        <v>18</v>
+      </c>
+      <c r="C841" t="s">
+        <v>258</v>
+      </c>
+      <c r="D841">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E841">
+        <v>3</v>
+      </c>
+      <c r="F841" t="s">
+        <v>3</v>
+      </c>
+      <c r="G841">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="842" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A842" t="s">
+        <v>222</v>
+      </c>
+      <c r="B842" t="s">
+        <v>7</v>
+      </c>
+      <c r="C842" t="s">
+        <v>82</v>
+      </c>
+      <c r="D842" t="s">
+        <v>213</v>
+      </c>
+      <c r="E842">
+        <v>0</v>
+      </c>
+      <c r="F842" t="s">
+        <v>45</v>
+      </c>
+      <c r="G842">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="843" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A843" t="s">
+        <v>222</v>
+      </c>
+      <c r="B843" t="s">
+        <v>6</v>
+      </c>
+      <c r="C843" t="s">
+        <v>80</v>
+      </c>
+      <c r="D843">
+        <v>0</v>
+      </c>
+      <c r="E843">
+        <v>0</v>
+      </c>
+      <c r="F843" t="s">
+        <v>45</v>
+      </c>
+      <c r="G843">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="844" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A844" t="s">
+        <v>222</v>
+      </c>
+      <c r="B844" t="s">
+        <v>16</v>
+      </c>
+      <c r="C844" t="s">
+        <v>241</v>
+      </c>
+      <c r="D844" t="s">
+        <v>213</v>
+      </c>
+      <c r="E844">
+        <v>0</v>
+      </c>
+      <c r="F844" t="s">
+        <v>45</v>
+      </c>
+      <c r="G844">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="845" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A845" t="s">
+        <v>222</v>
+      </c>
+      <c r="B845" t="s">
+        <v>4</v>
+      </c>
+      <c r="C845" t="s">
+        <v>235</v>
+      </c>
+      <c r="D845">
+        <v>17.2</v>
+      </c>
+      <c r="E845">
+        <v>7.16</v>
+      </c>
+      <c r="F845" t="s">
+        <v>45</v>
+      </c>
+      <c r="G845">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="846" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A846" t="s">
+        <v>222</v>
+      </c>
+      <c r="B846" t="s">
+        <v>7</v>
+      </c>
+      <c r="C846" t="s">
+        <v>21</v>
+      </c>
+      <c r="D846">
+        <v>10.6</v>
+      </c>
+      <c r="E846">
+        <v>5.9</v>
+      </c>
+      <c r="F846" t="s">
+        <v>45</v>
+      </c>
+      <c r="G846">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="847" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A847" t="s">
+        <v>222</v>
+      </c>
+      <c r="B847" t="s">
+        <v>6</v>
+      </c>
+      <c r="C847" t="s">
+        <v>253</v>
+      </c>
+      <c r="D847">
+        <v>8.6</v>
+      </c>
+      <c r="E847">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F847" t="s">
+        <v>45</v>
+      </c>
+      <c r="G847">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="848" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A848" t="s">
+        <v>222</v>
+      </c>
+      <c r="B848" t="s">
+        <v>6</v>
+      </c>
+      <c r="C848" t="s">
+        <v>264</v>
+      </c>
+      <c r="D848">
+        <v>9.5</v>
+      </c>
+      <c r="E848">
+        <v>19</v>
+      </c>
+      <c r="F848" t="s">
+        <v>45</v>
+      </c>
+      <c r="G848">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="849" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A849" t="s">
+        <v>219</v>
+      </c>
+      <c r="B849" t="s">
+        <v>4</v>
+      </c>
+      <c r="C849" t="s">
+        <v>40</v>
+      </c>
+      <c r="D849">
+        <v>24.1</v>
+      </c>
+      <c r="E849">
+        <v>27.36</v>
+      </c>
+      <c r="F849" t="s">
+        <v>3</v>
+      </c>
+      <c r="G849">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="850" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A850" t="s">
+        <v>219</v>
+      </c>
+      <c r="B850" t="s">
+        <v>6</v>
+      </c>
+      <c r="C850" t="s">
+        <v>239</v>
+      </c>
+      <c r="D850">
+        <v>12.6</v>
+      </c>
+      <c r="E850">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="F850" t="s">
+        <v>3</v>
+      </c>
+      <c r="G850">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="851" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A851" t="s">
+        <v>219</v>
+      </c>
+      <c r="B851" t="s">
+        <v>6</v>
+      </c>
+      <c r="C851" t="s">
+        <v>242</v>
+      </c>
+      <c r="D851">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E851">
+        <v>8.5</v>
+      </c>
+      <c r="F851" t="s">
+        <v>3</v>
+      </c>
+      <c r="G851">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="852" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A852" t="s">
+        <v>219</v>
+      </c>
+      <c r="B852" t="s">
+        <v>7</v>
+      </c>
+      <c r="C852" t="s">
+        <v>31</v>
+      </c>
+      <c r="D852">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E852">
+        <v>12.9</v>
+      </c>
+      <c r="F852" t="s">
+        <v>3</v>
+      </c>
+      <c r="G852">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="853" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A853" t="s">
+        <v>219</v>
+      </c>
+      <c r="B853" t="s">
+        <v>7</v>
+      </c>
+      <c r="C853" t="s">
+        <v>157</v>
+      </c>
+      <c r="D853">
+        <v>13</v>
+      </c>
+      <c r="E853">
+        <v>4.2</v>
+      </c>
+      <c r="F853" t="s">
+        <v>3</v>
+      </c>
+      <c r="G853">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="854" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A854" t="s">
+        <v>219</v>
+      </c>
+      <c r="B854" t="s">
+        <v>13</v>
+      </c>
+      <c r="C854" t="s">
+        <v>172</v>
+      </c>
+      <c r="D854">
+        <v>8.6</v>
+      </c>
+      <c r="E854">
+        <v>6</v>
+      </c>
+      <c r="F854" t="s">
+        <v>3</v>
+      </c>
+      <c r="G854">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="855" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A855" t="s">
+        <v>219</v>
+      </c>
+      <c r="B855" t="s">
+        <v>7</v>
+      </c>
+      <c r="C855" t="s">
+        <v>30</v>
+      </c>
+      <c r="D855">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="E855">
+        <v>10</v>
+      </c>
+      <c r="F855" t="s">
+        <v>3</v>
+      </c>
+      <c r="G855">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="856" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A856" t="s">
+        <v>219</v>
+      </c>
+      <c r="B856" t="s">
+        <v>16</v>
+      </c>
+      <c r="C856" t="s">
+        <v>34</v>
+      </c>
+      <c r="D856">
+        <v>7.2</v>
+      </c>
+      <c r="E856">
+        <v>1</v>
+      </c>
+      <c r="F856" t="s">
+        <v>3</v>
+      </c>
+      <c r="G856">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="857" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A857" t="s">
+        <v>219</v>
+      </c>
+      <c r="B857" t="s">
+        <v>18</v>
+      </c>
+      <c r="C857" t="s">
+        <v>232</v>
+      </c>
+      <c r="D857">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E857">
+        <v>13</v>
+      </c>
+      <c r="F857" t="s">
+        <v>3</v>
+      </c>
+      <c r="G857">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="858" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A858" t="s">
+        <v>219</v>
+      </c>
+      <c r="B858" t="s">
+        <v>6</v>
+      </c>
+      <c r="C858" t="s">
+        <v>28</v>
+      </c>
+      <c r="D858">
+        <v>0</v>
+      </c>
+      <c r="E858">
+        <v>0</v>
+      </c>
+      <c r="F858" t="s">
+        <v>45</v>
+      </c>
+      <c r="G858">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="859" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A859" t="s">
+        <v>219</v>
+      </c>
+      <c r="B859" t="s">
+        <v>4</v>
+      </c>
+      <c r="C859" t="s">
+        <v>27</v>
+      </c>
+      <c r="D859">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="E859">
+        <v>21.46</v>
+      </c>
+      <c r="F859" t="s">
+        <v>45</v>
+      </c>
+      <c r="G859">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="860" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A860" t="s">
+        <v>219</v>
+      </c>
+      <c r="B860" t="s">
+        <v>13</v>
+      </c>
+      <c r="C860" t="s">
+        <v>32</v>
+      </c>
+      <c r="D860" t="s">
+        <v>213</v>
+      </c>
+      <c r="E860">
+        <v>0</v>
+      </c>
+      <c r="F860" t="s">
+        <v>45</v>
+      </c>
+      <c r="G860">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="861" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A861" t="s">
+        <v>219</v>
+      </c>
+      <c r="B861" t="s">
+        <v>6</v>
+      </c>
+      <c r="C861" t="s">
+        <v>36</v>
+      </c>
+      <c r="D861">
+        <v>0</v>
+      </c>
+      <c r="E861">
+        <v>0</v>
+      </c>
+      <c r="F861" t="s">
+        <v>45</v>
+      </c>
+      <c r="G861">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="862" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A862" t="s">
+        <v>219</v>
+      </c>
+      <c r="B862" t="s">
+        <v>7</v>
+      </c>
+      <c r="C862" t="s">
+        <v>38</v>
+      </c>
+      <c r="D862">
+        <v>12</v>
+      </c>
+      <c r="E862">
+        <v>23.6</v>
+      </c>
+      <c r="F862" t="s">
+        <v>45</v>
+      </c>
+      <c r="G862">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="863" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A863" t="s">
+        <v>219</v>
+      </c>
+      <c r="B863" t="s">
+        <v>18</v>
+      </c>
+      <c r="C863" t="s">
+        <v>35</v>
+      </c>
+      <c r="D863" t="s">
+        <v>213</v>
+      </c>
+      <c r="E863">
+        <v>0</v>
+      </c>
+      <c r="F863" t="s">
+        <v>45</v>
+      </c>
+      <c r="G863">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="864" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A864" t="s">
+        <v>219</v>
+      </c>
+      <c r="B864" t="s">
+        <v>7</v>
+      </c>
+      <c r="C864" t="s">
+        <v>42</v>
+      </c>
+      <c r="D864">
+        <v>12.4</v>
+      </c>
+      <c r="E864">
+        <v>5.8</v>
+      </c>
+      <c r="F864" t="s">
+        <v>45</v>
+      </c>
+      <c r="G864">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="865" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A865" t="s">
+        <v>221</v>
+      </c>
+      <c r="B865" t="s">
+        <v>4</v>
+      </c>
+      <c r="C865" t="s">
+        <v>265</v>
+      </c>
+      <c r="D865">
+        <v>18.5</v>
+      </c>
+      <c r="E865">
+        <v>10.48</v>
+      </c>
+      <c r="F865" t="s">
+        <v>3</v>
+      </c>
+      <c r="G865">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="866" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A866" t="s">
+        <v>221</v>
+      </c>
+      <c r="B866" t="s">
+        <v>6</v>
+      </c>
+      <c r="C866" t="s">
+        <v>71</v>
+      </c>
+      <c r="D866">
+        <v>13.9</v>
+      </c>
+      <c r="E866">
+        <v>5</v>
+      </c>
+      <c r="F866" t="s">
+        <v>3</v>
+      </c>
+      <c r="G866">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="867" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A867" t="s">
+        <v>221</v>
+      </c>
+      <c r="B867" t="s">
+        <v>6</v>
+      </c>
+      <c r="C867" t="s">
+        <v>72</v>
+      </c>
+      <c r="D867">
+        <v>10.8</v>
+      </c>
+      <c r="E867">
+        <v>24.8</v>
+      </c>
+      <c r="F867" t="s">
+        <v>3</v>
+      </c>
+      <c r="G867">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="868" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A868" t="s">
+        <v>221</v>
+      </c>
+      <c r="B868" t="s">
+        <v>7</v>
+      </c>
+      <c r="C868" t="s">
+        <v>66</v>
+      </c>
+      <c r="D868">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E868">
+        <v>8.6</v>
+      </c>
+      <c r="F868" t="s">
+        <v>3</v>
+      </c>
+      <c r="G868">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="869" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A869" t="s">
+        <v>221</v>
+      </c>
+      <c r="B869" t="s">
+        <v>7</v>
+      </c>
+      <c r="C869" t="s">
+        <v>73</v>
+      </c>
+      <c r="D869">
+        <v>11.9</v>
+      </c>
+      <c r="E869">
+        <v>23.6</v>
+      </c>
+      <c r="F869" t="s">
+        <v>3</v>
+      </c>
+      <c r="G869">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="870" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A870" t="s">
+        <v>221</v>
+      </c>
+      <c r="B870" t="s">
+        <v>13</v>
+      </c>
+      <c r="C870" t="s">
+        <v>163</v>
+      </c>
+      <c r="D870">
+        <v>11.1</v>
+      </c>
+      <c r="E870">
+        <v>4.8</v>
+      </c>
+      <c r="F870" t="s">
+        <v>3</v>
+      </c>
+      <c r="G870">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="871" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A871" t="s">
+        <v>221</v>
+      </c>
+      <c r="B871" t="s">
+        <v>7</v>
+      </c>
+      <c r="C871" t="s">
+        <v>74</v>
+      </c>
+      <c r="D871">
+        <v>12.6</v>
+      </c>
+      <c r="E871">
+        <v>10.8</v>
+      </c>
+      <c r="F871" t="s">
+        <v>3</v>
+      </c>
+      <c r="G871">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="872" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A872" t="s">
+        <v>221</v>
+      </c>
+      <c r="B872" t="s">
+        <v>16</v>
+      </c>
+      <c r="C872" t="s">
+        <v>185</v>
+      </c>
+      <c r="D872">
+        <v>6.7</v>
+      </c>
+      <c r="E872">
+        <v>10</v>
+      </c>
+      <c r="F872" t="s">
+        <v>3</v>
+      </c>
+      <c r="G872">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="873" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A873" t="s">
+        <v>221</v>
+      </c>
+      <c r="B873" t="s">
+        <v>18</v>
+      </c>
+      <c r="C873" t="s">
+        <v>252</v>
+      </c>
+      <c r="D873">
+        <v>9</v>
+      </c>
+      <c r="E873">
+        <v>6</v>
+      </c>
+      <c r="F873" t="s">
+        <v>3</v>
+      </c>
+      <c r="G873">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="874" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A874" t="s">
+        <v>221</v>
+      </c>
+      <c r="B874" t="s">
+        <v>7</v>
+      </c>
+      <c r="C874" t="s">
+        <v>65</v>
+      </c>
+      <c r="D874" t="s">
+        <v>213</v>
+      </c>
+      <c r="E874">
+        <v>0</v>
+      </c>
+      <c r="F874" t="s">
+        <v>45</v>
+      </c>
+      <c r="G874">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="875" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A875" t="s">
+        <v>221</v>
+      </c>
+      <c r="B875" t="s">
+        <v>4</v>
+      </c>
+      <c r="C875" t="s">
+        <v>62</v>
+      </c>
+      <c r="D875" t="s">
+        <v>213</v>
+      </c>
+      <c r="E875">
+        <v>0</v>
+      </c>
+      <c r="F875" t="s">
+        <v>45</v>
+      </c>
+      <c r="G875">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="876" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A876" t="s">
+        <v>221</v>
+      </c>
+      <c r="B876" t="s">
+        <v>7</v>
+      </c>
+      <c r="C876" t="s">
+        <v>68</v>
+      </c>
+      <c r="D876">
+        <v>12.5</v>
+      </c>
+      <c r="E876">
+        <v>9.6</v>
+      </c>
+      <c r="F876" t="s">
+        <v>45</v>
+      </c>
+      <c r="G876">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="877" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A877" t="s">
+        <v>221</v>
+      </c>
+      <c r="B877" t="s">
+        <v>7</v>
+      </c>
+      <c r="C877" t="s">
+        <v>75</v>
+      </c>
+      <c r="D877">
+        <v>9.5</v>
+      </c>
+      <c r="E877">
+        <v>1.5</v>
+      </c>
+      <c r="F877" t="s">
+        <v>45</v>
+      </c>
+      <c r="G877">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="878" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A878" t="s">
+        <v>221</v>
+      </c>
+      <c r="B878" t="s">
+        <v>6</v>
+      </c>
+      <c r="C878" t="s">
+        <v>202</v>
+      </c>
+      <c r="D878">
+        <v>0</v>
+      </c>
+      <c r="E878">
+        <v>0</v>
+      </c>
+      <c r="F878" t="s">
+        <v>45</v>
+      </c>
+      <c r="G878">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="879" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A879" t="s">
+        <v>221</v>
+      </c>
+      <c r="B879" t="s">
+        <v>6</v>
+      </c>
+      <c r="C879" t="s">
+        <v>170</v>
+      </c>
+      <c r="D879">
+        <v>0</v>
+      </c>
+      <c r="E879">
+        <v>0</v>
+      </c>
+      <c r="F879" t="s">
+        <v>45</v>
+      </c>
+      <c r="G879">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="880" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A880" t="s">
+        <v>221</v>
+      </c>
+      <c r="B880" t="s">
+        <v>6</v>
+      </c>
+      <c r="C880" t="s">
+        <v>23</v>
+      </c>
+      <c r="D880">
+        <v>0</v>
+      </c>
+      <c r="E880">
+        <v>0</v>
+      </c>
+      <c r="F880" t="s">
+        <v>45</v>
+      </c>
+      <c r="G880">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="881" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A881" t="s">
+        <v>220</v>
+      </c>
+      <c r="B881" t="s">
+        <v>4</v>
+      </c>
+      <c r="C881" t="s">
+        <v>60</v>
+      </c>
+      <c r="D881">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="E881">
+        <v>6.94</v>
+      </c>
+      <c r="F881" t="s">
+        <v>3</v>
+      </c>
+      <c r="G881">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="882" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A882" t="s">
+        <v>220</v>
+      </c>
+      <c r="B882" t="s">
+        <v>6</v>
+      </c>
+      <c r="C882" t="s">
+        <v>196</v>
+      </c>
+      <c r="D882">
+        <v>15.8</v>
+      </c>
+      <c r="E882">
+        <v>5.6</v>
+      </c>
+      <c r="F882" t="s">
+        <v>3</v>
+      </c>
+      <c r="G882">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="883" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A883" t="s">
+        <v>220</v>
+      </c>
+      <c r="B883" t="s">
+        <v>6</v>
+      </c>
+      <c r="C883" t="s">
+        <v>95</v>
+      </c>
+      <c r="D883">
+        <v>20.3</v>
+      </c>
+      <c r="E883">
+        <v>15.2</v>
+      </c>
+      <c r="F883" t="s">
+        <v>3</v>
+      </c>
+      <c r="G883">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="884" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A884" t="s">
+        <v>220</v>
+      </c>
+      <c r="B884" t="s">
+        <v>7</v>
+      </c>
+      <c r="C884" t="s">
+        <v>49</v>
+      </c>
+      <c r="D884">
+        <v>21.3</v>
+      </c>
+      <c r="E884">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="F884" t="s">
+        <v>3</v>
+      </c>
+      <c r="G884">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="885" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A885" t="s">
+        <v>220</v>
+      </c>
+      <c r="B885" t="s">
+        <v>7</v>
+      </c>
+      <c r="C885" t="s">
+        <v>100</v>
+      </c>
+      <c r="D885">
+        <v>18.2</v>
+      </c>
+      <c r="E885">
+        <v>4.8</v>
+      </c>
+      <c r="F885" t="s">
+        <v>3</v>
+      </c>
+      <c r="G885">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="886" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A886" t="s">
+        <v>220</v>
+      </c>
+      <c r="B886" t="s">
+        <v>13</v>
+      </c>
+      <c r="C886" t="s">
+        <v>51</v>
+      </c>
+      <c r="D886">
+        <v>11.1</v>
+      </c>
+      <c r="E886">
+        <v>13.1</v>
+      </c>
+      <c r="F886" t="s">
+        <v>3</v>
+      </c>
+      <c r="G886">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="887" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A887" t="s">
+        <v>220</v>
+      </c>
+      <c r="B887" t="s">
+        <v>7</v>
+      </c>
+      <c r="C887" t="s">
+        <v>55</v>
+      </c>
+      <c r="D887">
+        <v>13.5</v>
+      </c>
+      <c r="E887">
+        <v>10.7</v>
+      </c>
+      <c r="F887" t="s">
+        <v>3</v>
+      </c>
+      <c r="G887">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="888" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A888" t="s">
+        <v>220</v>
+      </c>
+      <c r="B888" t="s">
+        <v>16</v>
+      </c>
+      <c r="C888" t="s">
+        <v>247</v>
+      </c>
+      <c r="D888">
+        <v>7.3</v>
+      </c>
+      <c r="E888">
+        <v>7</v>
+      </c>
+      <c r="F888" t="s">
+        <v>3</v>
+      </c>
+      <c r="G888">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="889" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A889" t="s">
+        <v>220</v>
+      </c>
+      <c r="B889" t="s">
+        <v>18</v>
+      </c>
+      <c r="C889" t="s">
+        <v>54</v>
+      </c>
+      <c r="D889">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E889">
+        <v>10</v>
+      </c>
+      <c r="F889" t="s">
+        <v>3</v>
+      </c>
+      <c r="G889">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="890" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A890" t="s">
+        <v>220</v>
+      </c>
+      <c r="B890" t="s">
+        <v>6</v>
+      </c>
+      <c r="C890" t="s">
+        <v>47</v>
+      </c>
+      <c r="D890" t="s">
+        <v>213</v>
+      </c>
+      <c r="E890">
+        <v>0</v>
+      </c>
+      <c r="F890" t="s">
+        <v>45</v>
+      </c>
+      <c r="G890">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="891" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A891" t="s">
+        <v>220</v>
+      </c>
+      <c r="B891" t="s">
+        <v>6</v>
+      </c>
+      <c r="C891" t="s">
+        <v>56</v>
+      </c>
+      <c r="D891">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E891">
+        <v>5.7</v>
+      </c>
+      <c r="F891" t="s">
+        <v>45</v>
+      </c>
+      <c r="G891">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="892" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A892" t="s">
+        <v>220</v>
+      </c>
+      <c r="B892" t="s">
+        <v>7</v>
+      </c>
+      <c r="C892" t="s">
+        <v>104</v>
+      </c>
+      <c r="D892" t="s">
+        <v>213</v>
+      </c>
+      <c r="E892">
+        <v>0</v>
+      </c>
+      <c r="F892" t="s">
+        <v>45</v>
+      </c>
+      <c r="G892">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="893" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A893" t="s">
+        <v>220</v>
+      </c>
+      <c r="B893" t="s">
+        <v>4</v>
+      </c>
+      <c r="C893" t="s">
+        <v>201</v>
+      </c>
+      <c r="D893">
+        <v>15.9</v>
+      </c>
+      <c r="E893">
+        <v>10.78</v>
+      </c>
+      <c r="F893" t="s">
+        <v>45</v>
+      </c>
+      <c r="G893">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="894" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A894" t="s">
+        <v>220</v>
+      </c>
+      <c r="B894" t="s">
+        <v>7</v>
+      </c>
+      <c r="C894" t="s">
+        <v>249</v>
+      </c>
+      <c r="D894">
+        <v>12.2</v>
+      </c>
+      <c r="E894">
+        <v>13.6</v>
+      </c>
+      <c r="F894" t="s">
+        <v>45</v>
+      </c>
+      <c r="G894">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="895" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A895" t="s">
+        <v>220</v>
+      </c>
+      <c r="B895" t="s">
+        <v>6</v>
+      </c>
+      <c r="C895" t="s">
+        <v>217</v>
+      </c>
+      <c r="D895">
+        <v>12.3</v>
+      </c>
+      <c r="E895">
+        <v>10.7</v>
+      </c>
+      <c r="F895" t="s">
+        <v>45</v>
+      </c>
+      <c r="G895">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="896" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A896" t="s">
+        <v>220</v>
+      </c>
+      <c r="B896" t="s">
+        <v>16</v>
+      </c>
+      <c r="C896" t="s">
+        <v>231</v>
+      </c>
+      <c r="D896">
+        <v>5.3</v>
+      </c>
+      <c r="E896">
+        <v>8</v>
+      </c>
+      <c r="F896" t="s">
+        <v>45</v>
+      </c>
+      <c r="G896">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="897" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A897" t="s">
+        <v>225</v>
+      </c>
+      <c r="B897" t="s">
+        <v>4</v>
+      </c>
+      <c r="C897" t="s">
+        <v>126</v>
+      </c>
+      <c r="D897">
+        <v>17.2</v>
+      </c>
+      <c r="E897">
+        <v>23.04</v>
+      </c>
+      <c r="F897" t="s">
+        <v>3</v>
+      </c>
+      <c r="G897">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="898" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A898" t="s">
+        <v>225</v>
+      </c>
+      <c r="B898" t="s">
+        <v>6</v>
+      </c>
+      <c r="C898" t="s">
+        <v>128</v>
+      </c>
+      <c r="D898">
+        <v>16.2</v>
+      </c>
+      <c r="E898">
+        <v>29.6</v>
+      </c>
+      <c r="F898" t="s">
+        <v>3</v>
+      </c>
+      <c r="G898">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="899" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A899" t="s">
+        <v>225</v>
+      </c>
+      <c r="B899" t="s">
+        <v>6</v>
+      </c>
+      <c r="C899" t="s">
+        <v>137</v>
+      </c>
+      <c r="D899">
+        <v>14.9</v>
+      </c>
+      <c r="E899">
+        <v>25.9</v>
+      </c>
+      <c r="F899" t="s">
+        <v>3</v>
+      </c>
+      <c r="G899">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="900" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A900" t="s">
+        <v>225</v>
+      </c>
+      <c r="B900" t="s">
+        <v>7</v>
+      </c>
+      <c r="C900" t="s">
+        <v>129</v>
+      </c>
+      <c r="D900">
+        <v>12.6</v>
+      </c>
+      <c r="E900">
+        <v>22.7</v>
+      </c>
+      <c r="F900" t="s">
+        <v>3</v>
+      </c>
+      <c r="G900">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="901" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A901" t="s">
+        <v>225</v>
+      </c>
+      <c r="B901" t="s">
+        <v>7</v>
+      </c>
+      <c r="C901" t="s">
+        <v>138</v>
+      </c>
+      <c r="D901">
+        <v>13.6</v>
+      </c>
+      <c r="E901">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F901" t="s">
+        <v>3</v>
+      </c>
+      <c r="G901">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="902" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A902" t="s">
+        <v>225</v>
+      </c>
+      <c r="B902" t="s">
+        <v>13</v>
+      </c>
+      <c r="C902" t="s">
+        <v>131</v>
+      </c>
+      <c r="D902">
+        <v>10.7</v>
+      </c>
+      <c r="E902">
+        <v>3.5</v>
+      </c>
+      <c r="F902" t="s">
+        <v>3</v>
+      </c>
+      <c r="G902">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="903" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A903" t="s">
+        <v>225</v>
+      </c>
+      <c r="B903" t="s">
+        <v>6</v>
+      </c>
+      <c r="C903" t="s">
+        <v>200</v>
+      </c>
+      <c r="D903">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E903">
+        <v>2.1</v>
+      </c>
+      <c r="F903" t="s">
+        <v>3</v>
+      </c>
+      <c r="G903">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="904" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A904" t="s">
+        <v>225</v>
+      </c>
+      <c r="B904" t="s">
+        <v>16</v>
+      </c>
+      <c r="C904" t="s">
+        <v>17</v>
+      </c>
+      <c r="D904">
+        <v>5.7</v>
+      </c>
+      <c r="E904">
+        <v>12</v>
+      </c>
+      <c r="F904" t="s">
+        <v>3</v>
+      </c>
+      <c r="G904">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="905" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A905" t="s">
+        <v>225</v>
+      </c>
+      <c r="B905" t="s">
+        <v>18</v>
+      </c>
+      <c r="C905" t="s">
+        <v>134</v>
+      </c>
+      <c r="D905">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E905">
+        <v>17</v>
+      </c>
+      <c r="F905" t="s">
+        <v>3</v>
+      </c>
+      <c r="G905">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="906" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A906" t="s">
+        <v>225</v>
+      </c>
+      <c r="B906" t="s">
+        <v>6</v>
+      </c>
+      <c r="C906" t="s">
+        <v>127</v>
+      </c>
+      <c r="D906" t="s">
+        <v>213</v>
+      </c>
+      <c r="E906">
+        <v>0</v>
+      </c>
+      <c r="F906" t="s">
+        <v>45</v>
+      </c>
+      <c r="G906">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="907" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A907" t="s">
+        <v>225</v>
+      </c>
+      <c r="B907" t="s">
+        <v>7</v>
+      </c>
+      <c r="C907" t="s">
+        <v>135</v>
+      </c>
+      <c r="D907">
+        <v>0</v>
+      </c>
+      <c r="E907">
+        <v>0</v>
+      </c>
+      <c r="F907" t="s">
+        <v>45</v>
+      </c>
+      <c r="G907">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="908" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A908" t="s">
+        <v>225</v>
+      </c>
+      <c r="B908" t="s">
+        <v>6</v>
+      </c>
+      <c r="C908" t="s">
+        <v>136</v>
+      </c>
+      <c r="D908">
+        <v>11.8</v>
+      </c>
+      <c r="E908">
+        <v>5.7</v>
+      </c>
+      <c r="F908" t="s">
+        <v>45</v>
+      </c>
+      <c r="G908">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="909" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A909" t="s">
+        <v>225</v>
+      </c>
+      <c r="B909" t="s">
+        <v>6</v>
+      </c>
+      <c r="C909" t="s">
+        <v>139</v>
+      </c>
+      <c r="D909">
+        <v>9.5</v>
+      </c>
+      <c r="E909">
+        <v>2.4</v>
+      </c>
+      <c r="F909" t="s">
+        <v>45</v>
+      </c>
+      <c r="G909">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="910" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A910" t="s">
+        <v>225</v>
+      </c>
+      <c r="B910" t="s">
+        <v>7</v>
+      </c>
+      <c r="C910" t="s">
+        <v>130</v>
+      </c>
+      <c r="D910">
+        <v>11.8</v>
+      </c>
+      <c r="E910">
+        <v>6.7</v>
+      </c>
+      <c r="F910" t="s">
+        <v>45</v>
+      </c>
+      <c r="G910">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="911" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A911" t="s">
+        <v>225</v>
+      </c>
+      <c r="B911" t="s">
+        <v>4</v>
+      </c>
+      <c r="C911" t="s">
+        <v>229</v>
+      </c>
+      <c r="D911">
+        <v>15.8</v>
+      </c>
+      <c r="E911">
+        <v>19.04</v>
+      </c>
+      <c r="F911" t="s">
+        <v>45</v>
+      </c>
+      <c r="G911">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="912" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A912" t="s">
+        <v>225</v>
+      </c>
+      <c r="B912" t="s">
+        <v>13</v>
+      </c>
+      <c r="C912" t="s">
+        <v>14</v>
+      </c>
+      <c r="D912">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E912">
+        <v>13.1</v>
+      </c>
+      <c r="F912" t="s">
+        <v>45</v>
+      </c>
+      <c r="G912">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="913" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A913" t="s">
+        <v>224</v>
+      </c>
+      <c r="B913" t="s">
+        <v>4</v>
+      </c>
+      <c r="C913" t="s">
+        <v>255</v>
+      </c>
+      <c r="D913">
+        <v>15.6</v>
+      </c>
+      <c r="E913">
+        <v>5.38</v>
+      </c>
+      <c r="F913" t="s">
+        <v>3</v>
+      </c>
+      <c r="G913">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="914" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A914" t="s">
+        <v>224</v>
+      </c>
+      <c r="B914" t="s">
+        <v>6</v>
+      </c>
+      <c r="C914" t="s">
+        <v>120</v>
+      </c>
+      <c r="D914">
+        <v>14.1</v>
+      </c>
+      <c r="E914">
+        <v>16.2</v>
+      </c>
+      <c r="F914" t="s">
+        <v>3</v>
+      </c>
+      <c r="G914">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="915" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A915" t="s">
+        <v>224</v>
+      </c>
+      <c r="B915" t="s">
+        <v>6</v>
+      </c>
+      <c r="C915" t="s">
+        <v>121</v>
+      </c>
+      <c r="D915">
+        <v>9.4</v>
+      </c>
+      <c r="E915">
+        <v>0.2</v>
+      </c>
+      <c r="F915" t="s">
+        <v>3</v>
+      </c>
+      <c r="G915">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="916" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A916" t="s">
+        <v>224</v>
+      </c>
+      <c r="B916" t="s">
+        <v>7</v>
+      </c>
+      <c r="C916" t="s">
+        <v>114</v>
+      </c>
+      <c r="D916">
+        <v>16</v>
+      </c>
+      <c r="E916">
+        <v>11.6</v>
+      </c>
+      <c r="F916" t="s">
+        <v>3</v>
+      </c>
+      <c r="G916">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="917" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A917" t="s">
+        <v>224</v>
+      </c>
+      <c r="B917" t="s">
+        <v>7</v>
+      </c>
+      <c r="C917" t="s">
+        <v>122</v>
+      </c>
+      <c r="D917">
+        <v>13.3</v>
+      </c>
+      <c r="E917">
+        <v>9.9</v>
+      </c>
+      <c r="F917" t="s">
+        <v>3</v>
+      </c>
+      <c r="G917">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="918" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A918" t="s">
+        <v>224</v>
+      </c>
+      <c r="B918" t="s">
+        <v>13</v>
+      </c>
+      <c r="C918" t="s">
+        <v>115</v>
+      </c>
+      <c r="D918">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E918">
+        <v>6.7</v>
+      </c>
+      <c r="F918" t="s">
+        <v>3</v>
+      </c>
+      <c r="G918">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="919" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A919" t="s">
+        <v>224</v>
+      </c>
+      <c r="B919" t="s">
+        <v>7</v>
+      </c>
+      <c r="C919" t="s">
+        <v>113</v>
+      </c>
+      <c r="D919">
+        <v>15.7</v>
+      </c>
+      <c r="E919">
+        <v>4.7</v>
+      </c>
+      <c r="F919" t="s">
+        <v>3</v>
+      </c>
+      <c r="G919">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="920" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A920" t="s">
+        <v>224</v>
+      </c>
+      <c r="B920" t="s">
+        <v>16</v>
+      </c>
+      <c r="C920" t="s">
+        <v>133</v>
+      </c>
+      <c r="D920">
+        <v>5.7</v>
+      </c>
+      <c r="E920">
+        <v>3</v>
+      </c>
+      <c r="F920" t="s">
+        <v>3</v>
+      </c>
+      <c r="G920">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="921" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A921" t="s">
+        <v>224</v>
+      </c>
+      <c r="B921" t="s">
+        <v>18</v>
+      </c>
+      <c r="C921" t="s">
+        <v>166</v>
+      </c>
+      <c r="D921">
+        <v>9.4</v>
+      </c>
+      <c r="E921">
+        <v>16</v>
+      </c>
+      <c r="F921" t="s">
+        <v>3</v>
+      </c>
+      <c r="G921">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="922" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A922" t="s">
+        <v>224</v>
+      </c>
+      <c r="B922" t="s">
+        <v>6</v>
+      </c>
+      <c r="C922" t="s">
+        <v>111</v>
+      </c>
+      <c r="D922">
+        <v>0</v>
+      </c>
+      <c r="E922">
+        <v>0</v>
+      </c>
+      <c r="F922" t="s">
+        <v>45</v>
+      </c>
+      <c r="G922">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="923" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A923" t="s">
+        <v>224</v>
+      </c>
+      <c r="B923" t="s">
+        <v>7</v>
+      </c>
+      <c r="C923" t="s">
+        <v>119</v>
+      </c>
+      <c r="D923">
+        <v>12</v>
+      </c>
+      <c r="E923">
+        <v>19.7</v>
+      </c>
+      <c r="F923" t="s">
+        <v>45</v>
+      </c>
+      <c r="G923">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="924" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A924" t="s">
+        <v>224</v>
+      </c>
+      <c r="B924" t="s">
+        <v>6</v>
+      </c>
+      <c r="C924" t="s">
+        <v>112</v>
+      </c>
+      <c r="D924" t="s">
+        <v>213</v>
+      </c>
+      <c r="E924">
+        <v>0</v>
+      </c>
+      <c r="F924" t="s">
+        <v>45</v>
+      </c>
+      <c r="G924">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="925" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A925" t="s">
+        <v>224</v>
+      </c>
+      <c r="B925" t="s">
+        <v>7</v>
+      </c>
+      <c r="C925" t="s">
+        <v>116</v>
+      </c>
+      <c r="D925">
+        <v>11.2</v>
+      </c>
+      <c r="E925">
+        <v>3.4</v>
+      </c>
+      <c r="F925" t="s">
+        <v>45</v>
+      </c>
+      <c r="G925">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="926" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A926" t="s">
+        <v>224</v>
+      </c>
+      <c r="B926" t="s">
+        <v>4</v>
+      </c>
+      <c r="C926" t="s">
+        <v>110</v>
+      </c>
+      <c r="D926" t="s">
+        <v>213</v>
+      </c>
+      <c r="E926">
+        <v>0</v>
+      </c>
+      <c r="F926" t="s">
+        <v>45</v>
+      </c>
+      <c r="G926">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="927" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A927" t="s">
+        <v>224</v>
+      </c>
+      <c r="B927" t="s">
+        <v>6</v>
+      </c>
+      <c r="C927" t="s">
+        <v>20</v>
+      </c>
+      <c r="D927" t="s">
+        <v>213</v>
+      </c>
+      <c r="E927">
+        <v>0</v>
+      </c>
+      <c r="F927" t="s">
+        <v>45</v>
+      </c>
+      <c r="G927">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="928" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A928" t="s">
+        <v>224</v>
+      </c>
+      <c r="B928" t="s">
+        <v>16</v>
+      </c>
+      <c r="C928" t="s">
+        <v>53</v>
+      </c>
+      <c r="D928">
+        <v>3.8</v>
+      </c>
+      <c r="E928">
+        <v>1</v>
+      </c>
+      <c r="F928" t="s">
+        <v>45</v>
+      </c>
+      <c r="G928">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="929" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A929" t="s">
+        <v>227</v>
+      </c>
+      <c r="B929" t="s">
+        <v>4</v>
+      </c>
+      <c r="C929" t="s">
+        <v>167</v>
+      </c>
+      <c r="D929">
+        <v>23.5</v>
+      </c>
+      <c r="E929">
+        <v>9.92</v>
+      </c>
+      <c r="F929" t="s">
+        <v>3</v>
+      </c>
+      <c r="G929">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="930" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A930" t="s">
+        <v>227</v>
+      </c>
+      <c r="B930" t="s">
+        <v>6</v>
+      </c>
+      <c r="C930" t="s">
+        <v>159</v>
+      </c>
+      <c r="D930">
+        <v>16</v>
+      </c>
+      <c r="E930">
+        <v>11.9</v>
+      </c>
+      <c r="F930" t="s">
+        <v>3</v>
+      </c>
+      <c r="G930">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="931" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A931" t="s">
+        <v>227</v>
+      </c>
+      <c r="B931" t="s">
+        <v>6</v>
+      </c>
+      <c r="C931" t="s">
+        <v>107</v>
+      </c>
+      <c r="D931">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E931">
+        <v>22.5</v>
+      </c>
+      <c r="F931" t="s">
+        <v>3</v>
+      </c>
+      <c r="G931">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="932" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A932" t="s">
+        <v>227</v>
+      </c>
+      <c r="B932" t="s">
+        <v>7</v>
+      </c>
+      <c r="C932" t="s">
+        <v>162</v>
+      </c>
+      <c r="D932">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="E932">
+        <v>17.2</v>
+      </c>
+      <c r="F932" t="s">
+        <v>3</v>
+      </c>
+      <c r="G932">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="933" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A933" t="s">
+        <v>227</v>
+      </c>
+      <c r="B933" t="s">
+        <v>7</v>
+      </c>
+      <c r="C933" t="s">
+        <v>168</v>
+      </c>
+      <c r="D933">
+        <v>14.4</v>
+      </c>
+      <c r="E933">
+        <v>10.1</v>
+      </c>
+      <c r="F933" t="s">
+        <v>3</v>
+      </c>
+      <c r="G933">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="934" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A934" t="s">
+        <v>227</v>
+      </c>
+      <c r="B934" t="s">
+        <v>13</v>
+      </c>
+      <c r="C934" t="s">
+        <v>25</v>
+      </c>
+      <c r="D934">
+        <v>8.4</v>
+      </c>
+      <c r="E934">
+        <v>0</v>
+      </c>
+      <c r="F934" t="s">
+        <v>3</v>
+      </c>
+      <c r="G934">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="935" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A935" t="s">
+        <v>227</v>
+      </c>
+      <c r="B935" t="s">
+        <v>6</v>
+      </c>
+      <c r="C935" t="s">
+        <v>59</v>
+      </c>
+      <c r="D935">
+        <v>15.7</v>
+      </c>
+      <c r="E935">
+        <v>5.4</v>
+      </c>
+      <c r="F935" t="s">
+        <v>3</v>
+      </c>
+      <c r="G935">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="936" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A936" t="s">
+        <v>227</v>
+      </c>
+      <c r="B936" t="s">
+        <v>16</v>
+      </c>
+      <c r="C936" t="s">
+        <v>69</v>
+      </c>
+      <c r="D936">
+        <v>7.5</v>
+      </c>
+      <c r="E936">
+        <v>2</v>
+      </c>
+      <c r="F936" t="s">
+        <v>3</v>
+      </c>
+      <c r="G936">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="937" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A937" t="s">
+        <v>227</v>
+      </c>
+      <c r="B937" t="s">
+        <v>18</v>
+      </c>
+      <c r="C937" t="s">
+        <v>260</v>
+      </c>
+      <c r="D937">
+        <v>9.1</v>
+      </c>
+      <c r="E937">
+        <v>15</v>
+      </c>
+      <c r="F937" t="s">
+        <v>3</v>
+      </c>
+      <c r="G937">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="938" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A938" t="s">
+        <v>227</v>
+      </c>
+      <c r="B938" t="s">
+        <v>6</v>
+      </c>
+      <c r="C938" t="s">
+        <v>160</v>
+      </c>
+      <c r="D938">
+        <v>0</v>
+      </c>
+      <c r="E938">
+        <v>0</v>
+      </c>
+      <c r="F938" t="s">
+        <v>45</v>
+      </c>
+      <c r="G938">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="939" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A939" t="s">
+        <v>227</v>
+      </c>
+      <c r="B939" t="s">
+        <v>7</v>
+      </c>
+      <c r="C939" t="s">
+        <v>161</v>
+      </c>
+      <c r="D939">
+        <v>14</v>
+      </c>
+      <c r="E939">
+        <v>20.3</v>
+      </c>
+      <c r="F939" t="s">
+        <v>45</v>
+      </c>
+      <c r="G939">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="940" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A940" t="s">
+        <v>227</v>
+      </c>
+      <c r="B940" t="s">
+        <v>6</v>
+      </c>
+      <c r="C940" t="s">
+        <v>164</v>
+      </c>
+      <c r="D940">
+        <v>0</v>
+      </c>
+      <c r="E940">
+        <v>0</v>
+      </c>
+      <c r="F940" t="s">
+        <v>45</v>
+      </c>
+      <c r="G940">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="941" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A941" t="s">
+        <v>227</v>
+      </c>
+      <c r="B941" t="s">
+        <v>16</v>
+      </c>
+      <c r="C941" t="s">
+        <v>165</v>
+      </c>
+      <c r="D941">
+        <v>6.5</v>
+      </c>
+      <c r="E941">
+        <v>11</v>
+      </c>
+      <c r="F941" t="s">
+        <v>45</v>
+      </c>
+      <c r="G941">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="942" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A942" t="s">
+        <v>227</v>
+      </c>
+      <c r="B942" t="s">
+        <v>6</v>
+      </c>
+      <c r="C942" t="s">
+        <v>199</v>
+      </c>
+      <c r="D942">
+        <v>12.1</v>
+      </c>
+      <c r="E942">
+        <v>10.3</v>
+      </c>
+      <c r="F942" t="s">
+        <v>45</v>
+      </c>
+      <c r="G942">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="943" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A943" t="s">
+        <v>227</v>
+      </c>
+      <c r="B943" t="s">
+        <v>6</v>
+      </c>
+      <c r="C943" t="s">
+        <v>246</v>
+      </c>
+      <c r="D943">
+        <v>14.5</v>
+      </c>
+      <c r="E943">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F943" t="s">
+        <v>45</v>
+      </c>
+      <c r="G943">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="944" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A944" t="s">
+        <v>227</v>
+      </c>
+      <c r="B944" t="s">
+        <v>7</v>
+      </c>
+      <c r="C944" t="s">
+        <v>39</v>
+      </c>
+      <c r="D944">
+        <v>12.9</v>
+      </c>
+      <c r="E944">
+        <v>13.2</v>
+      </c>
+      <c r="F944" t="s">
+        <v>45</v>
+      </c>
+      <c r="G944">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="945" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A945" t="s">
+        <v>223</v>
+      </c>
+      <c r="B945" t="s">
+        <v>4</v>
+      </c>
+      <c r="C945" t="s">
+        <v>94</v>
+      </c>
+      <c r="D945">
+        <v>18.8</v>
+      </c>
+      <c r="E945">
+        <v>31.84</v>
+      </c>
+      <c r="F945" t="s">
+        <v>3</v>
+      </c>
+      <c r="G945">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="946" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A946" t="s">
+        <v>223</v>
+      </c>
+      <c r="B946" t="s">
+        <v>6</v>
+      </c>
+      <c r="C946" t="s">
+        <v>96</v>
+      </c>
+      <c r="D946">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="E946">
+        <v>6.8</v>
+      </c>
+      <c r="F946" t="s">
+        <v>3</v>
+      </c>
+      <c r="G946">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="947" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A947" t="s">
+        <v>223</v>
+      </c>
+      <c r="B947" t="s">
+        <v>6</v>
+      </c>
+      <c r="C947" t="s">
+        <v>48</v>
+      </c>
+      <c r="D947">
+        <v>12.8</v>
+      </c>
+      <c r="E947">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F947" t="s">
+        <v>3</v>
+      </c>
+      <c r="G947">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="948" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A948" t="s">
+        <v>223</v>
+      </c>
+      <c r="B948" t="s">
+        <v>7</v>
+      </c>
+      <c r="C948" t="s">
+        <v>50</v>
+      </c>
+      <c r="D948">
+        <v>13.7</v>
+      </c>
+      <c r="E948">
+        <v>15.2</v>
+      </c>
+      <c r="F948" t="s">
+        <v>3</v>
+      </c>
+      <c r="G948">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="949" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A949" t="s">
+        <v>223</v>
+      </c>
+      <c r="B949" t="s">
+        <v>7</v>
+      </c>
+      <c r="C949" t="s">
+        <v>240</v>
+      </c>
+      <c r="D949">
+        <v>13.5</v>
+      </c>
+      <c r="E949">
+        <v>21.3</v>
+      </c>
+      <c r="F949" t="s">
+        <v>3</v>
+      </c>
+      <c r="G949">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="950" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A950" t="s">
+        <v>223</v>
+      </c>
+      <c r="B950" t="s">
+        <v>13</v>
+      </c>
+      <c r="C950" t="s">
+        <v>210</v>
+      </c>
+      <c r="D950">
+        <v>8.9</v>
+      </c>
+      <c r="E950">
+        <v>5.8</v>
+      </c>
+      <c r="F950" t="s">
+        <v>3</v>
+      </c>
+      <c r="G950">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="951" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A951" t="s">
+        <v>223</v>
+      </c>
+      <c r="B951" t="s">
+        <v>7</v>
+      </c>
+      <c r="C951" t="s">
+        <v>98</v>
+      </c>
+      <c r="D951">
+        <v>14.5</v>
+      </c>
+      <c r="E951">
+        <v>3.1</v>
+      </c>
+      <c r="F951" t="s">
+        <v>3</v>
+      </c>
+      <c r="G951">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="952" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A952" t="s">
+        <v>223</v>
+      </c>
+      <c r="B952" t="s">
+        <v>16</v>
+      </c>
+      <c r="C952" t="s">
+        <v>195</v>
+      </c>
+      <c r="D952">
+        <v>7.2</v>
+      </c>
+      <c r="E952">
+        <v>4</v>
+      </c>
+      <c r="F952" t="s">
+        <v>3</v>
+      </c>
+      <c r="G952">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="953" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A953" t="s">
+        <v>223</v>
+      </c>
+      <c r="B953" t="s">
+        <v>18</v>
+      </c>
+      <c r="C953" t="s">
+        <v>256</v>
+      </c>
+      <c r="D953">
+        <v>8.5</v>
+      </c>
+      <c r="E953">
+        <v>6</v>
+      </c>
+      <c r="F953" t="s">
+        <v>3</v>
+      </c>
+      <c r="G953">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="954" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A954" t="s">
+        <v>223</v>
+      </c>
+      <c r="B954" t="s">
+        <v>7</v>
+      </c>
+      <c r="C954" t="s">
+        <v>97</v>
+      </c>
+      <c r="D954" t="s">
+        <v>213</v>
+      </c>
+      <c r="E954">
+        <v>0</v>
+      </c>
+      <c r="F954" t="s">
+        <v>45</v>
+      </c>
+      <c r="G954">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="955" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A955" t="s">
+        <v>223</v>
+      </c>
+      <c r="B955" t="s">
+        <v>6</v>
+      </c>
+      <c r="C955" t="s">
+        <v>103</v>
+      </c>
+      <c r="D955">
+        <v>0</v>
+      </c>
+      <c r="E955">
+        <v>0</v>
+      </c>
+      <c r="F955" t="s">
+        <v>45</v>
+      </c>
+      <c r="G955">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="956" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A956" t="s">
+        <v>223</v>
+      </c>
+      <c r="B956" t="s">
+        <v>13</v>
+      </c>
+      <c r="C956" t="s">
+        <v>105</v>
+      </c>
+      <c r="D956" t="s">
+        <v>213</v>
+      </c>
+      <c r="E956">
+        <v>0</v>
+      </c>
+      <c r="F956" t="s">
+        <v>45</v>
+      </c>
+      <c r="G956">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="957" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A957" t="s">
+        <v>223</v>
+      </c>
+      <c r="B957" t="s">
+        <v>7</v>
+      </c>
+      <c r="C957" t="s">
+        <v>108</v>
+      </c>
+      <c r="D957">
+        <v>12.2</v>
+      </c>
+      <c r="E957">
+        <v>21.5</v>
+      </c>
+      <c r="F957" t="s">
+        <v>45</v>
+      </c>
+      <c r="G957">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="958" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A958" t="s">
+        <v>223</v>
+      </c>
+      <c r="B958" t="s">
+        <v>4</v>
+      </c>
+      <c r="C958" t="s">
+        <v>58</v>
+      </c>
+      <c r="D958">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="E958">
+        <v>12.52</v>
+      </c>
+      <c r="F958" t="s">
+        <v>45</v>
+      </c>
+      <c r="G958">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="959" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A959" t="s">
+        <v>223</v>
+      </c>
+      <c r="B959" t="s">
+        <v>7</v>
+      </c>
+      <c r="C959" t="s">
+        <v>57</v>
+      </c>
+      <c r="D959" t="s">
+        <v>213</v>
+      </c>
+      <c r="E959">
+        <v>0</v>
+      </c>
+      <c r="F959" t="s">
+        <v>45</v>
+      </c>
+      <c r="G959">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="960" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A960" t="s">
+        <v>223</v>
+      </c>
+      <c r="B960" t="s">
+        <v>6</v>
+      </c>
+      <c r="C960" t="s">
+        <v>123</v>
+      </c>
+      <c r="D960">
+        <v>0</v>
+      </c>
+      <c r="E960">
+        <v>0</v>
+      </c>
+      <c r="F960" t="s">
+        <v>45</v>
+      </c>
+      <c r="G960">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FantasyFootballData2020.xlsx
+++ b/FantasyFootballData2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b88e9b99c0e7d8c4/Documents/GitHub/fantasy_football_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2262" documentId="13_ncr:1_{C78650B9-42D7-43C9-A95D-11F9998F55D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E0A0D49A-8D63-4144-A205-B1FBACE65758}"/>
+  <xr:revisionPtr revIDLastSave="2539" documentId="13_ncr:1_{C78650B9-42D7-43C9-A95D-11F9998F55D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1F8FDE9B-D3C7-4C61-99A9-304A59F02BE2}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="16920" windowHeight="10540" activeTab="1" xr2:uid="{5502643F-E293-4B89-852D-6B7EFC2AEEB4}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="16920" windowHeight="10540" firstSheet="1" activeTab="1" xr2:uid="{5502643F-E293-4B89-852D-6B7EFC2AEEB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6510" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7164" uniqueCount="276">
   <si>
     <t>Name</t>
   </si>
@@ -837,6 +837,36 @@
   <si>
     <t>Jared GoffJared Goff</t>
   </si>
+  <si>
+    <t>Rex BurkheadRex Burkhead</t>
+  </si>
+  <si>
+    <t>Michael Pittman Jr.Michael Pittman Jr.</t>
+  </si>
+  <si>
+    <t>Taysom HillTaysom Hill</t>
+  </si>
+  <si>
+    <t>Jalen ReagorJalen Reagor</t>
+  </si>
+  <si>
+    <t>Logan ThomasLogan Thomas</t>
+  </si>
+  <si>
+    <t>Jakobi MeyersJakobi Meyers</t>
+  </si>
+  <si>
+    <t>Salvon AhmedSalvon Ahmed</t>
+  </si>
+  <si>
+    <t>Kalen BallageKalen Ballage</t>
+  </si>
+  <si>
+    <t>Carlos HydeCarlos Hyde</t>
+  </si>
+  <si>
+    <t>Darwin ThompsonDarwin Thompson</t>
+  </si>
 </sst>
 </file>
 
@@ -15957,10 +15987,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED8B136-D96F-431C-BD0D-F7EA8CFD860F}">
-  <dimension ref="A1:G960"/>
+  <dimension ref="A1:G1120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A941" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A961" sqref="A961"/>
+    <sheetView tabSelected="1" topLeftCell="A1095" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1103" sqref="D1103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -38050,6 +38080,3686 @@
         <v>10</v>
       </c>
     </row>
+    <row r="961" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A961" t="s">
+        <v>218</v>
+      </c>
+      <c r="B961" t="s">
+        <v>4</v>
+      </c>
+      <c r="C961" t="s">
+        <v>24</v>
+      </c>
+      <c r="D961">
+        <v>18.5</v>
+      </c>
+      <c r="E961">
+        <v>21.74</v>
+      </c>
+      <c r="F961" t="s">
+        <v>3</v>
+      </c>
+      <c r="G961">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="962" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A962" t="s">
+        <v>218</v>
+      </c>
+      <c r="B962" t="s">
+        <v>6</v>
+      </c>
+      <c r="C962" t="s">
+        <v>9</v>
+      </c>
+      <c r="D962">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="E962">
+        <v>10.5</v>
+      </c>
+      <c r="F962" t="s">
+        <v>3</v>
+      </c>
+      <c r="G962">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="963" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A963" t="s">
+        <v>218</v>
+      </c>
+      <c r="B963" t="s">
+        <v>6</v>
+      </c>
+      <c r="C963" t="s">
+        <v>190</v>
+      </c>
+      <c r="D963">
+        <v>17.3</v>
+      </c>
+      <c r="E963">
+        <v>15.9</v>
+      </c>
+      <c r="F963" t="s">
+        <v>3</v>
+      </c>
+      <c r="G963">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="964" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A964" t="s">
+        <v>218</v>
+      </c>
+      <c r="B964" t="s">
+        <v>7</v>
+      </c>
+      <c r="C964" t="s">
+        <v>11</v>
+      </c>
+      <c r="D964">
+        <v>12.9</v>
+      </c>
+      <c r="E964">
+        <v>21.8</v>
+      </c>
+      <c r="F964" t="s">
+        <v>3</v>
+      </c>
+      <c r="G964">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="965" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A965" t="s">
+        <v>218</v>
+      </c>
+      <c r="B965" t="s">
+        <v>7</v>
+      </c>
+      <c r="C965" t="s">
+        <v>12</v>
+      </c>
+      <c r="D965">
+        <v>13</v>
+      </c>
+      <c r="E965">
+        <v>14.1</v>
+      </c>
+      <c r="F965" t="s">
+        <v>3</v>
+      </c>
+      <c r="G965">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="966" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A966" t="s">
+        <v>218</v>
+      </c>
+      <c r="B966" t="s">
+        <v>13</v>
+      </c>
+      <c r="C966" t="s">
+        <v>188</v>
+      </c>
+      <c r="D966">
+        <v>10.5</v>
+      </c>
+      <c r="E966">
+        <v>18.7</v>
+      </c>
+      <c r="F966" t="s">
+        <v>3</v>
+      </c>
+      <c r="G966">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="967" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A967" t="s">
+        <v>218</v>
+      </c>
+      <c r="B967" t="s">
+        <v>7</v>
+      </c>
+      <c r="C967" t="s">
+        <v>214</v>
+      </c>
+      <c r="D967">
+        <v>14</v>
+      </c>
+      <c r="E967">
+        <v>5.6</v>
+      </c>
+      <c r="F967" t="s">
+        <v>3</v>
+      </c>
+      <c r="G967">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="968" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A968" t="s">
+        <v>218</v>
+      </c>
+      <c r="B968" t="s">
+        <v>16</v>
+      </c>
+      <c r="C968" t="s">
+        <v>191</v>
+      </c>
+      <c r="D968">
+        <v>5.2</v>
+      </c>
+      <c r="E968">
+        <v>1</v>
+      </c>
+      <c r="F968" t="s">
+        <v>3</v>
+      </c>
+      <c r="G968">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="969" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A969" t="s">
+        <v>218</v>
+      </c>
+      <c r="B969" t="s">
+        <v>18</v>
+      </c>
+      <c r="C969" t="s">
+        <v>19</v>
+      </c>
+      <c r="D969">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E969">
+        <v>10</v>
+      </c>
+      <c r="F969" t="s">
+        <v>3</v>
+      </c>
+      <c r="G969">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="970" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A970" t="s">
+        <v>218</v>
+      </c>
+      <c r="B970" t="s">
+        <v>6</v>
+      </c>
+      <c r="C970" t="s">
+        <v>10</v>
+      </c>
+      <c r="D970">
+        <v>11.9</v>
+      </c>
+      <c r="E970">
+        <v>16</v>
+      </c>
+      <c r="F970" t="s">
+        <v>45</v>
+      </c>
+      <c r="G970">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="971" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A971" t="s">
+        <v>218</v>
+      </c>
+      <c r="B971" t="s">
+        <v>4</v>
+      </c>
+      <c r="C971" t="s">
+        <v>8</v>
+      </c>
+      <c r="D971">
+        <v>19.2</v>
+      </c>
+      <c r="E971">
+        <v>19.2</v>
+      </c>
+      <c r="F971" t="s">
+        <v>45</v>
+      </c>
+      <c r="G971">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="972" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A972" t="s">
+        <v>218</v>
+      </c>
+      <c r="B972" t="s">
+        <v>13</v>
+      </c>
+      <c r="C972" t="s">
+        <v>206</v>
+      </c>
+      <c r="D972" t="s">
+        <v>213</v>
+      </c>
+      <c r="E972">
+        <v>0</v>
+      </c>
+      <c r="F972" t="s">
+        <v>45</v>
+      </c>
+      <c r="G972">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="973" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A973" t="s">
+        <v>218</v>
+      </c>
+      <c r="B973" t="s">
+        <v>7</v>
+      </c>
+      <c r="C973" t="s">
+        <v>207</v>
+      </c>
+      <c r="D973">
+        <v>10.4</v>
+      </c>
+      <c r="E973">
+        <v>16.3</v>
+      </c>
+      <c r="F973" t="s">
+        <v>45</v>
+      </c>
+      <c r="G973">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="974" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A974" t="s">
+        <v>218</v>
+      </c>
+      <c r="B974" t="s">
+        <v>7</v>
+      </c>
+      <c r="C974" t="s">
+        <v>233</v>
+      </c>
+      <c r="D974">
+        <v>12.5</v>
+      </c>
+      <c r="E974">
+        <v>1.8</v>
+      </c>
+      <c r="F974" t="s">
+        <v>45</v>
+      </c>
+      <c r="G974">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="975" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A975" t="s">
+        <v>218</v>
+      </c>
+      <c r="B975" t="s">
+        <v>7</v>
+      </c>
+      <c r="C975" t="s">
+        <v>251</v>
+      </c>
+      <c r="D975" t="s">
+        <v>213</v>
+      </c>
+      <c r="E975">
+        <v>0</v>
+      </c>
+      <c r="F975" t="s">
+        <v>45</v>
+      </c>
+      <c r="G975">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="976" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A976" t="s">
+        <v>218</v>
+      </c>
+      <c r="B976" t="s">
+        <v>6</v>
+      </c>
+      <c r="C976" t="s">
+        <v>266</v>
+      </c>
+      <c r="D976">
+        <v>10.9</v>
+      </c>
+      <c r="E976">
+        <v>3.2</v>
+      </c>
+      <c r="F976" t="s">
+        <v>45</v>
+      </c>
+      <c r="G976">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="977" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A977" t="s">
+        <v>223</v>
+      </c>
+      <c r="B977" t="s">
+        <v>4</v>
+      </c>
+      <c r="C977" t="s">
+        <v>58</v>
+      </c>
+      <c r="D977">
+        <v>18</v>
+      </c>
+      <c r="E977">
+        <v>11.32</v>
+      </c>
+      <c r="F977" t="s">
+        <v>3</v>
+      </c>
+      <c r="G977">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="978" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A978" t="s">
+        <v>223</v>
+      </c>
+      <c r="B978" t="s">
+        <v>6</v>
+      </c>
+      <c r="C978" t="s">
+        <v>96</v>
+      </c>
+      <c r="D978">
+        <v>14.9</v>
+      </c>
+      <c r="E978">
+        <v>12.9</v>
+      </c>
+      <c r="F978" t="s">
+        <v>3</v>
+      </c>
+      <c r="G978">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="979" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A979" t="s">
+        <v>223</v>
+      </c>
+      <c r="B979" t="s">
+        <v>6</v>
+      </c>
+      <c r="C979" t="s">
+        <v>48</v>
+      </c>
+      <c r="D979">
+        <v>12.3</v>
+      </c>
+      <c r="E979">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="F979" t="s">
+        <v>3</v>
+      </c>
+      <c r="G979">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="980" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A980" t="s">
+        <v>223</v>
+      </c>
+      <c r="B980" t="s">
+        <v>7</v>
+      </c>
+      <c r="C980" t="s">
+        <v>97</v>
+      </c>
+      <c r="D980">
+        <v>18.2</v>
+      </c>
+      <c r="E980">
+        <v>5.9</v>
+      </c>
+      <c r="F980" t="s">
+        <v>3</v>
+      </c>
+      <c r="G980">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="981" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A981" t="s">
+        <v>223</v>
+      </c>
+      <c r="B981" t="s">
+        <v>7</v>
+      </c>
+      <c r="C981" t="s">
+        <v>240</v>
+      </c>
+      <c r="D981">
+        <v>16.5</v>
+      </c>
+      <c r="E981">
+        <v>15.9</v>
+      </c>
+      <c r="F981" t="s">
+        <v>3</v>
+      </c>
+      <c r="G981">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="982" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A982" t="s">
+        <v>223</v>
+      </c>
+      <c r="B982" t="s">
+        <v>13</v>
+      </c>
+      <c r="C982" t="s">
+        <v>105</v>
+      </c>
+      <c r="D982">
+        <v>10.6</v>
+      </c>
+      <c r="E982">
+        <v>0</v>
+      </c>
+      <c r="F982" t="s">
+        <v>3</v>
+      </c>
+      <c r="G982">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="983" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A983" t="s">
+        <v>223</v>
+      </c>
+      <c r="B983" t="s">
+        <v>7</v>
+      </c>
+      <c r="C983" t="s">
+        <v>98</v>
+      </c>
+      <c r="D983">
+        <v>13.6</v>
+      </c>
+      <c r="E983">
+        <v>16.2</v>
+      </c>
+      <c r="F983" t="s">
+        <v>3</v>
+      </c>
+      <c r="G983">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="984" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A984" t="s">
+        <v>223</v>
+      </c>
+      <c r="B984" t="s">
+        <v>16</v>
+      </c>
+      <c r="C984" t="s">
+        <v>237</v>
+      </c>
+      <c r="D984">
+        <v>5.3</v>
+      </c>
+      <c r="E984">
+        <v>15</v>
+      </c>
+      <c r="F984" t="s">
+        <v>3</v>
+      </c>
+      <c r="G984">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="985" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A985" t="s">
+        <v>223</v>
+      </c>
+      <c r="B985" t="s">
+        <v>18</v>
+      </c>
+      <c r="C985" t="s">
+        <v>256</v>
+      </c>
+      <c r="D985">
+        <v>7.8</v>
+      </c>
+      <c r="E985">
+        <v>12</v>
+      </c>
+      <c r="F985" t="s">
+        <v>3</v>
+      </c>
+      <c r="G985">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="986" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A986" t="s">
+        <v>223</v>
+      </c>
+      <c r="B986" t="s">
+        <v>6</v>
+      </c>
+      <c r="C986" t="s">
+        <v>103</v>
+      </c>
+      <c r="D986" t="s">
+        <v>213</v>
+      </c>
+      <c r="E986">
+        <v>0</v>
+      </c>
+      <c r="F986" t="s">
+        <v>45</v>
+      </c>
+      <c r="G986">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="987" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A987" t="s">
+        <v>223</v>
+      </c>
+      <c r="B987" t="s">
+        <v>4</v>
+      </c>
+      <c r="C987" t="s">
+        <v>94</v>
+      </c>
+      <c r="D987">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="E987">
+        <v>12.64</v>
+      </c>
+      <c r="F987" t="s">
+        <v>45</v>
+      </c>
+      <c r="G987">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="988" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A988" t="s">
+        <v>223</v>
+      </c>
+      <c r="B988" t="s">
+        <v>7</v>
+      </c>
+      <c r="C988" t="s">
+        <v>108</v>
+      </c>
+      <c r="D988">
+        <v>12.9</v>
+      </c>
+      <c r="E988">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="F988" t="s">
+        <v>45</v>
+      </c>
+      <c r="G988">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="989" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A989" t="s">
+        <v>223</v>
+      </c>
+      <c r="B989" t="s">
+        <v>7</v>
+      </c>
+      <c r="C989" t="s">
+        <v>50</v>
+      </c>
+      <c r="D989">
+        <v>13.2</v>
+      </c>
+      <c r="E989">
+        <v>18.3</v>
+      </c>
+      <c r="F989" t="s">
+        <v>45</v>
+      </c>
+      <c r="G989">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="990" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A990" t="s">
+        <v>223</v>
+      </c>
+      <c r="B990" t="s">
+        <v>7</v>
+      </c>
+      <c r="C990" t="s">
+        <v>57</v>
+      </c>
+      <c r="D990">
+        <v>11</v>
+      </c>
+      <c r="E990">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="F990" t="s">
+        <v>45</v>
+      </c>
+      <c r="G990">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="991" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A991" t="s">
+        <v>223</v>
+      </c>
+      <c r="B991" t="s">
+        <v>13</v>
+      </c>
+      <c r="C991" t="s">
+        <v>210</v>
+      </c>
+      <c r="D991">
+        <v>9.4</v>
+      </c>
+      <c r="E991">
+        <v>13.6</v>
+      </c>
+      <c r="F991" t="s">
+        <v>45</v>
+      </c>
+      <c r="G991">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="992" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A992" t="s">
+        <v>223</v>
+      </c>
+      <c r="B992" t="s">
+        <v>6</v>
+      </c>
+      <c r="C992" t="s">
+        <v>187</v>
+      </c>
+      <c r="D992">
+        <v>12.4</v>
+      </c>
+      <c r="E992">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F992" t="s">
+        <v>45</v>
+      </c>
+      <c r="G992">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="993" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A993" t="s">
+        <v>226</v>
+      </c>
+      <c r="B993" t="s">
+        <v>4</v>
+      </c>
+      <c r="C993" t="s">
+        <v>142</v>
+      </c>
+      <c r="D993">
+        <v>26.2</v>
+      </c>
+      <c r="E993">
+        <v>20.260000000000002</v>
+      </c>
+      <c r="F993" t="s">
+        <v>3</v>
+      </c>
+      <c r="G993">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="994" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A994" t="s">
+        <v>226</v>
+      </c>
+      <c r="B994" t="s">
+        <v>6</v>
+      </c>
+      <c r="C994" t="s">
+        <v>151</v>
+      </c>
+      <c r="D994">
+        <v>17.3</v>
+      </c>
+      <c r="E994">
+        <v>9.1</v>
+      </c>
+      <c r="F994" t="s">
+        <v>3</v>
+      </c>
+      <c r="G994">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="995" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A995" t="s">
+        <v>226</v>
+      </c>
+      <c r="B995" t="s">
+        <v>6</v>
+      </c>
+      <c r="C995" t="s">
+        <v>143</v>
+      </c>
+      <c r="D995">
+        <v>17.5</v>
+      </c>
+      <c r="E995">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="F995" t="s">
+        <v>3</v>
+      </c>
+      <c r="G995">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="996" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A996" t="s">
+        <v>226</v>
+      </c>
+      <c r="B996" t="s">
+        <v>7</v>
+      </c>
+      <c r="C996" t="s">
+        <v>148</v>
+      </c>
+      <c r="D996">
+        <v>14.4</v>
+      </c>
+      <c r="E996">
+        <v>11.6</v>
+      </c>
+      <c r="F996" t="s">
+        <v>3</v>
+      </c>
+      <c r="G996">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="997" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A997" t="s">
+        <v>226</v>
+      </c>
+      <c r="B997" t="s">
+        <v>7</v>
+      </c>
+      <c r="C997" t="s">
+        <v>267</v>
+      </c>
+      <c r="D997">
+        <v>11.4</v>
+      </c>
+      <c r="E997">
+        <v>15.6</v>
+      </c>
+      <c r="F997" t="s">
+        <v>3</v>
+      </c>
+      <c r="G997">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="998" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A998" t="s">
+        <v>226</v>
+      </c>
+      <c r="B998" t="s">
+        <v>13</v>
+      </c>
+      <c r="C998" t="s">
+        <v>268</v>
+      </c>
+      <c r="D998">
+        <v>18</v>
+      </c>
+      <c r="E998">
+        <v>24.22</v>
+      </c>
+      <c r="F998" t="s">
+        <v>3</v>
+      </c>
+      <c r="G998">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="999" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A999" t="s">
+        <v>226</v>
+      </c>
+      <c r="B999" t="s">
+        <v>13</v>
+      </c>
+      <c r="C999" t="s">
+        <v>155</v>
+      </c>
+      <c r="D999">
+        <v>11.3</v>
+      </c>
+      <c r="E999">
+        <v>10.8</v>
+      </c>
+      <c r="F999" t="s">
+        <v>3</v>
+      </c>
+      <c r="G999">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1000" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1000" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1000">
+        <v>6</v>
+      </c>
+      <c r="E1000">
+        <v>13</v>
+      </c>
+      <c r="F1000" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1000">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1001" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1001" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1001">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E1001">
+        <v>13</v>
+      </c>
+      <c r="F1001" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1001">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1002" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1002" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1002" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1002">
+        <v>0</v>
+      </c>
+      <c r="F1002" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1002">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1003" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1003" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1003">
+        <v>21.7</v>
+      </c>
+      <c r="E1003">
+        <v>27.74</v>
+      </c>
+      <c r="F1003" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1003">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1004" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1004" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1004">
+        <v>9</v>
+      </c>
+      <c r="E1004">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="F1004" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1004">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1005" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1005" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1005">
+        <v>0</v>
+      </c>
+      <c r="F1005" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1005">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1006" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1006" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1006">
+        <v>5.9</v>
+      </c>
+      <c r="E1006">
+        <v>3.8</v>
+      </c>
+      <c r="F1006" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1006">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1007" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1007" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1007">
+        <v>11.5</v>
+      </c>
+      <c r="E1007">
+        <v>12.4</v>
+      </c>
+      <c r="F1007" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1007">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1008" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1008" t="s">
+        <v>269</v>
+      </c>
+      <c r="D1008">
+        <v>10.3</v>
+      </c>
+      <c r="E1008">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F1008" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1008">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1009" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1009" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1009">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="E1009">
+        <v>16.68</v>
+      </c>
+      <c r="F1009" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1009">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1010" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1010" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1010">
+        <v>15.7</v>
+      </c>
+      <c r="E1010">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="F1010" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1010">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1011" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1011" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1011">
+        <v>24.8</v>
+      </c>
+      <c r="E1011">
+        <v>25</v>
+      </c>
+      <c r="F1011" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1011">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1012" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1012" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1012">
+        <v>20.5</v>
+      </c>
+      <c r="E1012">
+        <v>23.6</v>
+      </c>
+      <c r="F1012" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1012">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1013" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1013" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1013">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="E1013">
+        <v>13.6</v>
+      </c>
+      <c r="F1013" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1013">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1014" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1014" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1014">
+        <v>12.5</v>
+      </c>
+      <c r="E1014">
+        <v>20.6</v>
+      </c>
+      <c r="F1014" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1014">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1015" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1015" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1015">
+        <v>14.6</v>
+      </c>
+      <c r="E1015">
+        <v>2.6</v>
+      </c>
+      <c r="F1015" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1015">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1016" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1016" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1016">
+        <v>7</v>
+      </c>
+      <c r="E1016">
+        <v>-1</v>
+      </c>
+      <c r="F1016" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1016">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1017" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1017" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1017">
+        <v>8</v>
+      </c>
+      <c r="E1017">
+        <v>5</v>
+      </c>
+      <c r="F1017" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1017">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1018" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1018" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1018" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1018">
+        <v>0</v>
+      </c>
+      <c r="F1018" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1018">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1019" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1019" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1019">
+        <v>8</v>
+      </c>
+      <c r="E1019">
+        <v>10.5</v>
+      </c>
+      <c r="F1019" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1019">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1020" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1020" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1020" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1020">
+        <v>0</v>
+      </c>
+      <c r="F1020" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1020">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1021" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1021" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1021">
+        <v>15.7</v>
+      </c>
+      <c r="E1021">
+        <v>21.86</v>
+      </c>
+      <c r="F1021" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1021">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1022" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1022" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1022" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1022">
+        <v>11.2</v>
+      </c>
+      <c r="E1022">
+        <v>13.8</v>
+      </c>
+      <c r="F1022" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1022">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1023" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1023" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1023" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1023">
+        <v>12.5</v>
+      </c>
+      <c r="E1023">
+        <v>14.9</v>
+      </c>
+      <c r="F1023" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1023">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1024" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1024" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1024">
+        <v>4.8</v>
+      </c>
+      <c r="E1024">
+        <v>17</v>
+      </c>
+      <c r="F1024" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1024">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1025" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1025" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1025">
+        <v>18.5</v>
+      </c>
+      <c r="E1025">
+        <v>5.28</v>
+      </c>
+      <c r="F1025" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1025">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1026" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1026" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1026">
+        <v>13.3</v>
+      </c>
+      <c r="E1026">
+        <v>3.9</v>
+      </c>
+      <c r="F1026" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1026">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1027" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1027" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1027">
+        <v>14.4</v>
+      </c>
+      <c r="E1027">
+        <v>9.1</v>
+      </c>
+      <c r="F1027" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1027">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1028" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1028" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1028">
+        <v>18.7</v>
+      </c>
+      <c r="E1028">
+        <v>21.7</v>
+      </c>
+      <c r="F1028" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1028">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1029" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1029" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1029">
+        <v>14.1</v>
+      </c>
+      <c r="E1029">
+        <v>12.5</v>
+      </c>
+      <c r="F1029" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1029">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1030" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1030" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1030">
+        <v>15.3</v>
+      </c>
+      <c r="E1030">
+        <v>21.8</v>
+      </c>
+      <c r="F1030" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1030">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1031" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1031" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1031">
+        <v>13</v>
+      </c>
+      <c r="E1031">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="F1031" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1031">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1032" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1032" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1032">
+        <v>6.2</v>
+      </c>
+      <c r="E1032">
+        <v>10</v>
+      </c>
+      <c r="F1032" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1032">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1033" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1033" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1033">
+        <v>8.9</v>
+      </c>
+      <c r="E1033">
+        <v>-1</v>
+      </c>
+      <c r="F1033" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1033">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1034" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1034" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1034">
+        <v>0</v>
+      </c>
+      <c r="E1034">
+        <v>0</v>
+      </c>
+      <c r="F1034" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1034">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1035" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1035" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1035">
+        <v>12.8</v>
+      </c>
+      <c r="E1035">
+        <v>15.9</v>
+      </c>
+      <c r="F1035" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1035">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1036" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1036" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1036">
+        <v>11.8</v>
+      </c>
+      <c r="E1036">
+        <v>0</v>
+      </c>
+      <c r="F1036" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1036">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1037" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1037" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1037">
+        <v>7.7</v>
+      </c>
+      <c r="E1037">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F1037" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1037">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1038" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1038" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1038">
+        <v>8.1</v>
+      </c>
+      <c r="E1038">
+        <v>10.6</v>
+      </c>
+      <c r="F1038" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1038">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1039" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1039" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1039" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1039">
+        <v>0</v>
+      </c>
+      <c r="F1039" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1039">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1040" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1040" t="s">
+        <v>255</v>
+      </c>
+      <c r="D1040">
+        <v>14.9</v>
+      </c>
+      <c r="E1040">
+        <v>7.06</v>
+      </c>
+      <c r="F1040" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1040">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1041" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1041" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1041">
+        <v>22.2</v>
+      </c>
+      <c r="E1041">
+        <v>16.54</v>
+      </c>
+      <c r="F1041" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1041">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1042" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1042" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1042">
+        <v>14.3</v>
+      </c>
+      <c r="E1042">
+        <v>9.9</v>
+      </c>
+      <c r="F1042" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1042">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1043" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1043" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1043">
+        <v>10.1</v>
+      </c>
+      <c r="E1043">
+        <v>8.6</v>
+      </c>
+      <c r="F1043" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1043">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1044" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1044" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1044">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="E1044">
+        <v>34.5</v>
+      </c>
+      <c r="F1044" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1044">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1045" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1045" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1045">
+        <v>12.9</v>
+      </c>
+      <c r="E1045">
+        <v>21.4</v>
+      </c>
+      <c r="F1045" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1045">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1046" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1046" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1046">
+        <v>19.2</v>
+      </c>
+      <c r="E1046">
+        <v>26.86</v>
+      </c>
+      <c r="F1046" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1046">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1047" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1047" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1047">
+        <v>16.5</v>
+      </c>
+      <c r="E1047">
+        <v>25.5</v>
+      </c>
+      <c r="F1047" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1047">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1048" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1048" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1048">
+        <v>5.9</v>
+      </c>
+      <c r="E1048">
+        <v>0</v>
+      </c>
+      <c r="F1048" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1048">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1049" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1049" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1049">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E1049">
+        <v>5</v>
+      </c>
+      <c r="F1049" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1049">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1050" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1050" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1050">
+        <v>0</v>
+      </c>
+      <c r="E1050">
+        <v>0</v>
+      </c>
+      <c r="F1050" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1050">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1051" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1051" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1051" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1051">
+        <v>0</v>
+      </c>
+      <c r="F1051" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1051">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1052" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1052" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1052">
+        <v>14.2</v>
+      </c>
+      <c r="E1052">
+        <v>9.1</v>
+      </c>
+      <c r="F1052" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1052">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1053" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1053" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1053" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1053">
+        <v>0</v>
+      </c>
+      <c r="F1053" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1053">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1054" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1054" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1054">
+        <v>12.4</v>
+      </c>
+      <c r="E1054">
+        <v>17.2</v>
+      </c>
+      <c r="F1054" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1054">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1055" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1055" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1055">
+        <v>8.9</v>
+      </c>
+      <c r="E1055">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F1055" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1055">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1056" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1056" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1056">
+        <v>8.6</v>
+      </c>
+      <c r="E1056">
+        <v>10</v>
+      </c>
+      <c r="F1056" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1056">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1057" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1057" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1057">
+        <v>20.9</v>
+      </c>
+      <c r="E1057">
+        <v>31.36</v>
+      </c>
+      <c r="F1057" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1057">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1058" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1058" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1058">
+        <v>14.4</v>
+      </c>
+      <c r="E1058">
+        <v>11.4</v>
+      </c>
+      <c r="F1058" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1058">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1059" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1059" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1059">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="E1059">
+        <v>11.4</v>
+      </c>
+      <c r="F1059" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1059">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1060" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1060" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1060">
+        <v>20.2</v>
+      </c>
+      <c r="E1060">
+        <v>10.1</v>
+      </c>
+      <c r="F1060" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1060">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1061" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1061" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1061">
+        <v>14.7</v>
+      </c>
+      <c r="E1061">
+        <v>14</v>
+      </c>
+      <c r="F1061" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1061">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1062" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1062" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1062">
+        <v>11.1</v>
+      </c>
+      <c r="E1062">
+        <v>14.8</v>
+      </c>
+      <c r="F1062" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1062">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1063" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1063" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1063">
+        <v>14.7</v>
+      </c>
+      <c r="E1063">
+        <v>9.5</v>
+      </c>
+      <c r="F1063" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1063">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1064" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1064" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1064">
+        <v>5.5</v>
+      </c>
+      <c r="E1064">
+        <v>7</v>
+      </c>
+      <c r="F1064" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1064">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1065" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1065" t="s">
+        <v>228</v>
+      </c>
+      <c r="D1065">
+        <v>8.5</v>
+      </c>
+      <c r="E1065">
+        <v>14</v>
+      </c>
+      <c r="F1065" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1065">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1066" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1066" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1066">
+        <v>0</v>
+      </c>
+      <c r="E1066">
+        <v>0</v>
+      </c>
+      <c r="F1066" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1066">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1067" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1067" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1067">
+        <v>13.7</v>
+      </c>
+      <c r="E1067">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="F1067" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1067">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1068" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1068" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1068" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1068">
+        <v>0</v>
+      </c>
+      <c r="F1068" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1068">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1069" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1069" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1069" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1069">
+        <v>5</v>
+      </c>
+      <c r="E1069">
+        <v>0</v>
+      </c>
+      <c r="F1069" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1069">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1070" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1070" t="s">
+        <v>235</v>
+      </c>
+      <c r="D1070">
+        <v>16.2</v>
+      </c>
+      <c r="E1070">
+        <v>21.6</v>
+      </c>
+      <c r="F1070" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1070">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1071" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1071" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1071">
+        <v>11.5</v>
+      </c>
+      <c r="E1071">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F1071" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1071">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1072" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1072" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1072" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1072" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1072">
+        <v>0</v>
+      </c>
+      <c r="F1072" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1072">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1073" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1073" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1073">
+        <v>24.4</v>
+      </c>
+      <c r="E1073">
+        <v>20.079999999999998</v>
+      </c>
+      <c r="F1073" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1073">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1074" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1074" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1074">
+        <v>16.8</v>
+      </c>
+      <c r="E1074">
+        <v>20.2</v>
+      </c>
+      <c r="F1074" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1074">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1075" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1075" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1075">
+        <v>15.5</v>
+      </c>
+      <c r="E1075">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="F1075" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1075">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1076" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1076" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1076" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1076">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E1076">
+        <v>13.4</v>
+      </c>
+      <c r="F1076" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1076">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1077" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1077" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1077" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1077">
+        <v>14.6</v>
+      </c>
+      <c r="E1077">
+        <v>17.5</v>
+      </c>
+      <c r="F1077" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1077">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1078" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1078" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1078" t="s">
+        <v>270</v>
+      </c>
+      <c r="D1078">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E1078">
+        <v>2.8</v>
+      </c>
+      <c r="F1078" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1078">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1079" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1079" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1079">
+        <v>14.3</v>
+      </c>
+      <c r="E1079">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="F1079" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1079">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1080" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1080" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1080" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1080">
+        <v>7.2</v>
+      </c>
+      <c r="E1080">
+        <v>16</v>
+      </c>
+      <c r="F1080" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1080">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1081" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1081" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1081">
+        <v>8.9</v>
+      </c>
+      <c r="E1081">
+        <v>7</v>
+      </c>
+      <c r="F1081" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1081">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1082" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1082" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1082" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1082">
+        <v>0</v>
+      </c>
+      <c r="E1082">
+        <v>0</v>
+      </c>
+      <c r="F1082" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1082">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1083" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1083" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1083" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1083">
+        <v>0</v>
+      </c>
+      <c r="E1083">
+        <v>0</v>
+      </c>
+      <c r="F1083" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1083">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1084" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1084" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1084" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1084">
+        <v>6.3</v>
+      </c>
+      <c r="E1084">
+        <v>1.6</v>
+      </c>
+      <c r="F1084" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1084">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1085" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1085" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1085" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1085" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1085">
+        <v>0</v>
+      </c>
+      <c r="F1085" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1085">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1086" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1086" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1086" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1086">
+        <v>14.5</v>
+      </c>
+      <c r="E1086">
+        <v>6.5</v>
+      </c>
+      <c r="F1086" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1086">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1087" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1087" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1087" t="s">
+        <v>271</v>
+      </c>
+      <c r="D1087">
+        <v>13.6</v>
+      </c>
+      <c r="E1087">
+        <v>6.8</v>
+      </c>
+      <c r="F1087" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1087">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1088" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1088" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1088" t="s">
+        <v>272</v>
+      </c>
+      <c r="D1088">
+        <v>9.9</v>
+      </c>
+      <c r="E1088">
+        <v>12.4</v>
+      </c>
+      <c r="F1088" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1088">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1089" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1089" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1089" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1089">
+        <v>18</v>
+      </c>
+      <c r="E1089">
+        <v>7.62</v>
+      </c>
+      <c r="F1089" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1089">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1090" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1090" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1090" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1090">
+        <v>14.5</v>
+      </c>
+      <c r="E1090">
+        <v>20.7</v>
+      </c>
+      <c r="F1090" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1090">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1091" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1091" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1091" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1091">
+        <v>15.8</v>
+      </c>
+      <c r="E1091">
+        <v>13.4</v>
+      </c>
+      <c r="F1091" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1091">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1092" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1092" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1092" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1092">
+        <v>16.5</v>
+      </c>
+      <c r="E1092">
+        <v>5.9</v>
+      </c>
+      <c r="F1092" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1092">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1093" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1093" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1093" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1093">
+        <v>14.5</v>
+      </c>
+      <c r="E1093">
+        <v>14</v>
+      </c>
+      <c r="F1093" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1093">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1094" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1094" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1094" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1094">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E1094">
+        <v>4.5</v>
+      </c>
+      <c r="F1094" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1094">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1095" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1095" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1095" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1095">
+        <v>14.1</v>
+      </c>
+      <c r="E1095">
+        <v>14.1</v>
+      </c>
+      <c r="F1095" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1095">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1096" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1096" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1096" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1096">
+        <v>6.2</v>
+      </c>
+      <c r="E1096">
+        <v>3</v>
+      </c>
+      <c r="F1096" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1096">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1097" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1097" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1097" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1097">
+        <v>9.1</v>
+      </c>
+      <c r="E1097">
+        <v>6</v>
+      </c>
+      <c r="F1097" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1097">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1098" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1098" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1098" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1098">
+        <v>0</v>
+      </c>
+      <c r="E1098">
+        <v>0</v>
+      </c>
+      <c r="F1098" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1098">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1099" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1099" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1099" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1099">
+        <v>9.6</v>
+      </c>
+      <c r="E1099">
+        <v>15.4</v>
+      </c>
+      <c r="F1099" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1099">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1100" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1100" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1100">
+        <v>0</v>
+      </c>
+      <c r="E1100">
+        <v>0</v>
+      </c>
+      <c r="F1100" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1100">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1101" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1101" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1101" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1101" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1101">
+        <v>0</v>
+      </c>
+      <c r="F1101" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1101">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1102" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1102" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1102" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1102">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E1102">
+        <v>18.5</v>
+      </c>
+      <c r="F1102" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1102">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1103" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1103" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1103">
+        <v>12.5</v>
+      </c>
+      <c r="E1103">
+        <v>9</v>
+      </c>
+      <c r="F1103" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1103">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1104" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1104" t="s">
+        <v>229</v>
+      </c>
+      <c r="D1104">
+        <v>0</v>
+      </c>
+      <c r="E1104">
+        <v>0</v>
+      </c>
+      <c r="F1104" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1104">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1105" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1105" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1105" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1105">
+        <v>24.1</v>
+      </c>
+      <c r="E1105">
+        <v>21.52</v>
+      </c>
+      <c r="F1105" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1105">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1106" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1106" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1106" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1106">
+        <v>12</v>
+      </c>
+      <c r="E1106">
+        <v>2.4</v>
+      </c>
+      <c r="F1106" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1106">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1107" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1107" t="s">
+        <v>274</v>
+      </c>
+      <c r="D1107">
+        <v>12.3</v>
+      </c>
+      <c r="E1107">
+        <v>17.5</v>
+      </c>
+      <c r="F1107" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1107">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1108" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1108" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1108">
+        <v>18.8</v>
+      </c>
+      <c r="E1108">
+        <v>27</v>
+      </c>
+      <c r="F1108" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1108">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1109" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1109" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1109">
+        <v>13.8</v>
+      </c>
+      <c r="E1109">
+        <v>30.6</v>
+      </c>
+      <c r="F1109" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1109">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1110" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1110" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1110">
+        <v>9.1</v>
+      </c>
+      <c r="E1110">
+        <v>9.5</v>
+      </c>
+      <c r="F1110" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1110">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1111" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1111" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1111">
+        <v>14.3</v>
+      </c>
+      <c r="E1111">
+        <v>23.1</v>
+      </c>
+      <c r="F1111" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1111">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1112" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1112" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1112" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1112">
+        <v>7.2</v>
+      </c>
+      <c r="E1112">
+        <v>20</v>
+      </c>
+      <c r="F1112" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1112">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1113" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1113" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1113" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1113">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E1113">
+        <v>10</v>
+      </c>
+      <c r="F1113" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1113">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1114" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1114" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1114" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1114">
+        <v>11.8</v>
+      </c>
+      <c r="E1114">
+        <v>9.6</v>
+      </c>
+      <c r="F1114" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1114">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1115" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1115" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1115" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1115">
+        <v>13</v>
+      </c>
+      <c r="E1115">
+        <v>8.1</v>
+      </c>
+      <c r="F1115" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1115">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1116" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1116" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1116" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1116">
+        <v>11.5</v>
+      </c>
+      <c r="E1116">
+        <v>6.7</v>
+      </c>
+      <c r="F1116" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1116">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1117" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1117" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1117" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1117">
+        <v>0</v>
+      </c>
+      <c r="E1117">
+        <v>0</v>
+      </c>
+      <c r="F1117" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1117">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1118" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1118" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1118" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1118">
+        <v>10</v>
+      </c>
+      <c r="E1118">
+        <v>0.4</v>
+      </c>
+      <c r="F1118" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1118">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1119" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1119" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1119" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1119">
+        <v>12.2</v>
+      </c>
+      <c r="E1119">
+        <v>1.8</v>
+      </c>
+      <c r="F1119" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1119">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1120" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1120" t="s">
+        <v>275</v>
+      </c>
+      <c r="D1120">
+        <v>0</v>
+      </c>
+      <c r="E1120">
+        <v>0</v>
+      </c>
+      <c r="F1120" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1120">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FantasyFootballData2020.xlsx
+++ b/FantasyFootballData2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b88e9b99c0e7d8c4/Documents/GitHub/fantasy_football_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2539" documentId="13_ncr:1_{C78650B9-42D7-43C9-A95D-11F9998F55D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1F8FDE9B-D3C7-4C61-99A9-304A59F02BE2}"/>
+  <xr:revisionPtr revIDLastSave="2867" documentId="13_ncr:1_{C78650B9-42D7-43C9-A95D-11F9998F55D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{195E1E79-EDA8-45A4-B650-E1CB638F7EB7}"/>
   <bookViews>
     <workbookView xWindow="1520" yWindow="1520" windowWidth="16920" windowHeight="10540" firstSheet="1" activeTab="1" xr2:uid="{5502643F-E293-4B89-852D-6B7EFC2AEEB4}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7164" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7804" uniqueCount="281">
   <si>
     <t>Name</t>
   </si>
@@ -867,6 +867,21 @@
   <si>
     <t>Darwin ThompsonDarwin Thompson</t>
   </si>
+  <si>
+    <t>Bengals D/STBengals D/ST</t>
+  </si>
+  <si>
+    <t>Jordan WilkinsJordan Wilkins</t>
+  </si>
+  <si>
+    <t>Team7</t>
+  </si>
+  <si>
+    <t>Brian HillBrian Hill</t>
+  </si>
+  <si>
+    <t>Royce FreemanRoyce Freeman</t>
+  </si>
 </sst>
 </file>
 
@@ -15987,10 +16002,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED8B136-D96F-431C-BD0D-F7EA8CFD860F}">
-  <dimension ref="A1:G1120"/>
+  <dimension ref="A1:G1280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1095" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1103" sqref="D1103"/>
+    <sheetView tabSelected="1" topLeftCell="A1261" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1263" sqref="I1263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -41760,6 +41775,3686 @@
         <v>11</v>
       </c>
     </row>
+    <row r="1121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1121" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1121" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1121" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1121">
+        <v>18.8</v>
+      </c>
+      <c r="E1121">
+        <v>25.64</v>
+      </c>
+      <c r="F1121" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1121">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1122" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1122" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1122">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="E1122">
+        <v>6.2</v>
+      </c>
+      <c r="F1122" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1122">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1123" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1123" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1123" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1123">
+        <v>15.5</v>
+      </c>
+      <c r="E1123">
+        <v>10.9</v>
+      </c>
+      <c r="F1123" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1123">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1124" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1124" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1124" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1124">
+        <v>14.2</v>
+      </c>
+      <c r="E1124">
+        <v>10.1</v>
+      </c>
+      <c r="F1124" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1124">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1125" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1125" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1125" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1125">
+        <v>13.3</v>
+      </c>
+      <c r="E1125">
+        <v>3.6</v>
+      </c>
+      <c r="F1125" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1125">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1126" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1126" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1126" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1126">
+        <v>11.7</v>
+      </c>
+      <c r="E1126">
+        <v>20.5</v>
+      </c>
+      <c r="F1126" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1126">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1127" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1127" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1127" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1127">
+        <v>13.1</v>
+      </c>
+      <c r="E1127">
+        <v>15.4</v>
+      </c>
+      <c r="F1127" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1127">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1128" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1128" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1128" t="s">
+        <v>276</v>
+      </c>
+      <c r="D1128">
+        <v>6.5</v>
+      </c>
+      <c r="E1128">
+        <v>7</v>
+      </c>
+      <c r="F1128" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1128">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1129" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1129" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1129" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1129">
+        <v>7.1</v>
+      </c>
+      <c r="E1129">
+        <v>2</v>
+      </c>
+      <c r="F1129" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1129">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1130" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1130" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1130" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1130">
+        <v>13.8</v>
+      </c>
+      <c r="E1130">
+        <v>24.3</v>
+      </c>
+      <c r="F1130" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1130">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1131" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1131" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1131" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1131">
+        <v>11.9</v>
+      </c>
+      <c r="E1131">
+        <v>23.2</v>
+      </c>
+      <c r="F1131" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1131">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1132" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1132" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1132" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1132">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="E1132">
+        <v>3.96</v>
+      </c>
+      <c r="F1132" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1132">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1133" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1133" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1133" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1133">
+        <v>3.3</v>
+      </c>
+      <c r="E1133">
+        <v>-2</v>
+      </c>
+      <c r="F1133" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1133">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1134" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1134" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1134" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1134">
+        <v>7.9</v>
+      </c>
+      <c r="E1134">
+        <v>6.2</v>
+      </c>
+      <c r="F1134" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1134">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1135" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1135" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1135" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1135">
+        <v>11.2</v>
+      </c>
+      <c r="E1135">
+        <v>10</v>
+      </c>
+      <c r="F1135" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1135">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1136" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1136" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1136" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1136">
+        <v>0</v>
+      </c>
+      <c r="E1136">
+        <v>0</v>
+      </c>
+      <c r="F1136" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1136">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1137" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1137" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1137" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1137">
+        <v>23.8</v>
+      </c>
+      <c r="E1137">
+        <v>33.119999999999997</v>
+      </c>
+      <c r="F1137" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1137">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1138" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1138" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1138" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1138">
+        <v>13.7</v>
+      </c>
+      <c r="E1138">
+        <v>26.6</v>
+      </c>
+      <c r="F1138" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1138">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1139" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1139" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1139" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1139">
+        <v>17.7</v>
+      </c>
+      <c r="E1139">
+        <v>26.9</v>
+      </c>
+      <c r="F1139" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1139">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1140" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1140" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1140" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1140">
+        <v>16.7</v>
+      </c>
+      <c r="E1140">
+        <v>10.5</v>
+      </c>
+      <c r="F1140" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1140">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1141" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1141" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1141" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1141">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="E1141">
+        <v>10.9</v>
+      </c>
+      <c r="F1141" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1141">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1142" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1142" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1142" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1142">
+        <v>12.3</v>
+      </c>
+      <c r="E1142">
+        <v>13.7</v>
+      </c>
+      <c r="F1142" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1142">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1143" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1143" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1143" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1143">
+        <v>16.7</v>
+      </c>
+      <c r="E1143">
+        <v>13.9</v>
+      </c>
+      <c r="F1143" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1143">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1144" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1144" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1144" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1144">
+        <v>7.2</v>
+      </c>
+      <c r="E1144">
+        <v>15</v>
+      </c>
+      <c r="F1144" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1144">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1145" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1145" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1145" t="s">
+        <v>228</v>
+      </c>
+      <c r="D1145">
+        <v>9.1</v>
+      </c>
+      <c r="E1145">
+        <v>2</v>
+      </c>
+      <c r="F1145" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1145">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1146" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1146" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1146" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1146">
+        <v>20.3</v>
+      </c>
+      <c r="E1146">
+        <v>17</v>
+      </c>
+      <c r="F1146" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1146">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1147" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1147" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1147" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1147">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E1147">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="F1147" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1147">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1148" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1148" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1148" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1148">
+        <v>6.2</v>
+      </c>
+      <c r="E1148">
+        <v>-5</v>
+      </c>
+      <c r="F1148" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1148">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1149" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1149" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1149" t="s">
+        <v>235</v>
+      </c>
+      <c r="D1149">
+        <v>17.5</v>
+      </c>
+      <c r="E1149">
+        <v>0.6</v>
+      </c>
+      <c r="F1149" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1149">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1150" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1150" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1150" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1150">
+        <v>11.8</v>
+      </c>
+      <c r="E1150">
+        <v>28.3</v>
+      </c>
+      <c r="F1150" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1150">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1151" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1151" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1151" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1151">
+        <v>12.5</v>
+      </c>
+      <c r="E1151">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="F1151" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1151">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1152" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1152" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1152" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1152">
+        <v>14.6</v>
+      </c>
+      <c r="E1152">
+        <v>17.7</v>
+      </c>
+      <c r="F1152" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1152">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1153" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1153" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1153" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1153">
+        <v>23.7</v>
+      </c>
+      <c r="E1153">
+        <v>14.4</v>
+      </c>
+      <c r="F1153" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1153">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1154" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1154" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1154" t="s">
+        <v>159</v>
+      </c>
+      <c r="D1154">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="E1154">
+        <v>38.5</v>
+      </c>
+      <c r="F1154" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1154">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1155" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1155" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1155" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1155">
+        <v>15.3</v>
+      </c>
+      <c r="E1155">
+        <v>36.6</v>
+      </c>
+      <c r="F1155" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1155">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1156" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1156" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1156" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1156">
+        <v>17.3</v>
+      </c>
+      <c r="E1156">
+        <v>16.2</v>
+      </c>
+      <c r="F1156" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1156">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1157" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1157" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1157" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1157">
+        <v>13.4</v>
+      </c>
+      <c r="E1157">
+        <v>4.5</v>
+      </c>
+      <c r="F1157" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1157">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1158" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1158" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1158" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1158">
+        <v>8.5</v>
+      </c>
+      <c r="E1158">
+        <v>0</v>
+      </c>
+      <c r="F1158" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1158">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1159" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1159" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1159" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1159">
+        <v>17</v>
+      </c>
+      <c r="E1159">
+        <v>23.9</v>
+      </c>
+      <c r="F1159" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1159">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1160" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1160" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1160" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1160">
+        <v>7.5</v>
+      </c>
+      <c r="E1160">
+        <v>16</v>
+      </c>
+      <c r="F1160" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1160">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1161" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1161" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1161" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1161">
+        <v>8.5</v>
+      </c>
+      <c r="E1161">
+        <v>6</v>
+      </c>
+      <c r="F1161" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1161">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1162" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1162" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1162" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1162">
+        <v>0</v>
+      </c>
+      <c r="E1162">
+        <v>0</v>
+      </c>
+      <c r="F1162" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1162">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1163" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1163" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1163">
+        <v>0</v>
+      </c>
+      <c r="E1163">
+        <v>0</v>
+      </c>
+      <c r="F1163" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1163">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1164" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1164" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1164">
+        <v>14.5</v>
+      </c>
+      <c r="E1164">
+        <v>17</v>
+      </c>
+      <c r="F1164" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1164">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1165" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1165" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1165" t="s">
+        <v>271</v>
+      </c>
+      <c r="D1165">
+        <v>12.9</v>
+      </c>
+      <c r="E1165">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F1165" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1165">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1166" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1166" t="s">
+        <v>270</v>
+      </c>
+      <c r="D1166">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E1166">
+        <v>13.42</v>
+      </c>
+      <c r="F1166" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1166">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1167" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1167" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1167">
+        <v>11.9</v>
+      </c>
+      <c r="E1167">
+        <v>7.4</v>
+      </c>
+      <c r="F1167" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1167">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1168" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1168" t="s">
+        <v>277</v>
+      </c>
+      <c r="D1168">
+        <v>13.7</v>
+      </c>
+      <c r="E1168">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F1168" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1168">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1169" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1169" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1169">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E1169">
+        <v>13.9</v>
+      </c>
+      <c r="F1169" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1169">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1170" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1170" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1170">
+        <v>0</v>
+      </c>
+      <c r="E1170">
+        <v>0</v>
+      </c>
+      <c r="F1170" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1170">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1171" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1171" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1171">
+        <v>14</v>
+      </c>
+      <c r="E1171">
+        <v>6.2</v>
+      </c>
+      <c r="F1171" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1171">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1172" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1172" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1172">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="E1172">
+        <v>5.3</v>
+      </c>
+      <c r="F1172" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1172">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1173" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1173" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1173">
+        <v>15.5</v>
+      </c>
+      <c r="E1173">
+        <v>13.5</v>
+      </c>
+      <c r="F1173" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1173">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1174" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1174" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1174">
+        <v>16</v>
+      </c>
+      <c r="E1174">
+        <v>6.3</v>
+      </c>
+      <c r="F1174" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1174">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1175" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1175" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1175">
+        <v>14.1</v>
+      </c>
+      <c r="E1175">
+        <v>9.1</v>
+      </c>
+      <c r="F1175" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1175">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1176" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1176" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1176">
+        <v>4.7</v>
+      </c>
+      <c r="E1176">
+        <v>5</v>
+      </c>
+      <c r="F1176" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1176">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1177" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1177" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1177">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E1177">
+        <v>5</v>
+      </c>
+      <c r="F1177" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1177">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1178" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1178" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1178">
+        <v>0</v>
+      </c>
+      <c r="E1178">
+        <v>0</v>
+      </c>
+      <c r="F1178" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1178">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1179" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1179" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1179" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1179">
+        <v>14.3</v>
+      </c>
+      <c r="E1179">
+        <v>20</v>
+      </c>
+      <c r="F1179" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1179">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1180" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1180" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1180">
+        <v>9.9</v>
+      </c>
+      <c r="E1180">
+        <v>18.5</v>
+      </c>
+      <c r="F1180" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1180">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1181" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1181" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1181">
+        <v>7.7</v>
+      </c>
+      <c r="E1181">
+        <v>2</v>
+      </c>
+      <c r="F1181" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1181">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1182" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1182" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1182">
+        <v>5.7</v>
+      </c>
+      <c r="E1182">
+        <v>5.2</v>
+      </c>
+      <c r="F1182" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1182">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1183" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1183" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1183" t="s">
+        <v>255</v>
+      </c>
+      <c r="D1183">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E1183">
+        <v>18.420000000000002</v>
+      </c>
+      <c r="F1183" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1183">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1184" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1184" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1184" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1184">
+        <v>4.2</v>
+      </c>
+      <c r="E1184">
+        <v>9</v>
+      </c>
+      <c r="F1184" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1184">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1185" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1185" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1185">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E1185">
+        <v>19.28</v>
+      </c>
+      <c r="F1185" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1185">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1186" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1186" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1186">
+        <v>15.2</v>
+      </c>
+      <c r="E1186">
+        <v>2.9</v>
+      </c>
+      <c r="F1186" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1186">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1187" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1187" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1187">
+        <v>24.5</v>
+      </c>
+      <c r="E1187">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F1187" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1187">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1188" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1188" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1188" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1188">
+        <v>21</v>
+      </c>
+      <c r="E1188">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="F1188" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1188">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1189" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1189" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1189" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1189">
+        <v>16.7</v>
+      </c>
+      <c r="E1189">
+        <v>27.7</v>
+      </c>
+      <c r="F1189" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1189">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1190" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1190" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1190" t="s">
+        <v>230</v>
+      </c>
+      <c r="D1190">
+        <v>7.8</v>
+      </c>
+      <c r="E1190">
+        <v>17.7</v>
+      </c>
+      <c r="F1190" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1190">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1191" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1191" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1191" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1191">
+        <v>13</v>
+      </c>
+      <c r="E1191">
+        <v>3.1</v>
+      </c>
+      <c r="F1191" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1191">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1192" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1192" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1192">
+        <v>5.8</v>
+      </c>
+      <c r="E1192">
+        <v>14</v>
+      </c>
+      <c r="F1192" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1192">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1193" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1193" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1193" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1193">
+        <v>7.6</v>
+      </c>
+      <c r="E1193">
+        <v>8</v>
+      </c>
+      <c r="F1193" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1193">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1194" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1194" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1194" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1194">
+        <v>0</v>
+      </c>
+      <c r="E1194">
+        <v>0</v>
+      </c>
+      <c r="F1194" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1194">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1195" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1195" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1195" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1195">
+        <v>12.6</v>
+      </c>
+      <c r="E1195">
+        <v>13.8</v>
+      </c>
+      <c r="F1195" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1195">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1196" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1196" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1196" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1196">
+        <v>8.6</v>
+      </c>
+      <c r="E1196">
+        <v>25.6</v>
+      </c>
+      <c r="F1196" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1196">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1197" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1197" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1197" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1197">
+        <v>11.5</v>
+      </c>
+      <c r="E1197">
+        <v>6.1</v>
+      </c>
+      <c r="F1197" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1197">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1198" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1198" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1198" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1198">
+        <v>15.9</v>
+      </c>
+      <c r="E1198">
+        <v>19.14</v>
+      </c>
+      <c r="F1198" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1198">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1199" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1199" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1199" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1199">
+        <v>10.9</v>
+      </c>
+      <c r="E1199">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F1199" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1199">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1200" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1200" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1200" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1200">
+        <v>8</v>
+      </c>
+      <c r="E1200">
+        <v>13</v>
+      </c>
+      <c r="F1200" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1200">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1201" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1201" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1201" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1201">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="E1201">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="F1201" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1201">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1202" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1202" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1202" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1202">
+        <v>17.3</v>
+      </c>
+      <c r="E1202">
+        <v>5.4</v>
+      </c>
+      <c r="F1202" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1202">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1203" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1203" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1203" t="s">
+        <v>279</v>
+      </c>
+      <c r="D1203">
+        <v>13.5</v>
+      </c>
+      <c r="E1203">
+        <v>5.5</v>
+      </c>
+      <c r="F1203" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1203">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1204" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1204" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1204" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1204">
+        <v>14.1</v>
+      </c>
+      <c r="E1204">
+        <v>17.7</v>
+      </c>
+      <c r="F1204" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1204">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1205" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1205" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1205" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1205">
+        <v>15.7</v>
+      </c>
+      <c r="E1205">
+        <v>35.1</v>
+      </c>
+      <c r="F1205" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1205">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1206" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1206" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1206" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1206">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E1206">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="F1206" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1206">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1207" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1207" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1207" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1207">
+        <v>13</v>
+      </c>
+      <c r="E1207">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F1207" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1207">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1208" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1208" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1208" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1208">
+        <v>6.9</v>
+      </c>
+      <c r="E1208">
+        <v>12</v>
+      </c>
+      <c r="F1208" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1208">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1209" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1209" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1209" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1209">
+        <v>8.5</v>
+      </c>
+      <c r="E1209">
+        <v>6</v>
+      </c>
+      <c r="F1209" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1209">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1210" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1210" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1210" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1210">
+        <v>0</v>
+      </c>
+      <c r="E1210">
+        <v>0</v>
+      </c>
+      <c r="F1210" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1210">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1211" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1211" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1211" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1211">
+        <v>0</v>
+      </c>
+      <c r="E1211">
+        <v>0</v>
+      </c>
+      <c r="F1211" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1211">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1212" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1212" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1212" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1212">
+        <v>0</v>
+      </c>
+      <c r="E1212">
+        <v>0</v>
+      </c>
+      <c r="F1212" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1212">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1213" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1213" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1213" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1213">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E1213">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="F1213" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1213">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1214" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1214" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1214" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1214">
+        <v>10.4</v>
+      </c>
+      <c r="E1214">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F1214" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1214">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1215" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1215" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1215" t="s">
+        <v>229</v>
+      </c>
+      <c r="D1215">
+        <v>16</v>
+      </c>
+      <c r="E1215">
+        <v>13.88</v>
+      </c>
+      <c r="F1215" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1215">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1216" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1216" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1216" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1216">
+        <v>11.9</v>
+      </c>
+      <c r="E1216">
+        <v>12.3</v>
+      </c>
+      <c r="F1216" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1216">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1217" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1217" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1217" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1217">
+        <v>19.7</v>
+      </c>
+      <c r="E1217">
+        <v>21.7</v>
+      </c>
+      <c r="F1217" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1217">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1218" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1218" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1218" t="s">
+        <v>187</v>
+      </c>
+      <c r="D1218">
+        <v>16</v>
+      </c>
+      <c r="E1218">
+        <v>17.5</v>
+      </c>
+      <c r="F1218" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1218">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1219" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1219" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1219" t="s">
+        <v>246</v>
+      </c>
+      <c r="D1219">
+        <v>13.8</v>
+      </c>
+      <c r="E1219">
+        <v>6.9</v>
+      </c>
+      <c r="F1219" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1219">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1220" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1220" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1220" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1220">
+        <v>13.3</v>
+      </c>
+      <c r="E1220">
+        <v>25.8</v>
+      </c>
+      <c r="F1220" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1220">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1221" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1221" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1221" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1221">
+        <v>15.4</v>
+      </c>
+      <c r="E1221">
+        <v>26</v>
+      </c>
+      <c r="F1221" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1221">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1222" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1222" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1222" t="s">
+        <v>210</v>
+      </c>
+      <c r="D1222">
+        <v>9.4</v>
+      </c>
+      <c r="E1222">
+        <v>12.4</v>
+      </c>
+      <c r="F1222" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1222">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1223" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1223" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1223" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1223">
+        <v>13.7</v>
+      </c>
+      <c r="E1223">
+        <v>11.2</v>
+      </c>
+      <c r="F1223" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1223">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1224" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1224" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1224" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1224">
+        <v>7.1</v>
+      </c>
+      <c r="E1224">
+        <v>11</v>
+      </c>
+      <c r="F1224" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1224">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1225" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1225" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1225" t="s">
+        <v>256</v>
+      </c>
+      <c r="D1225">
+        <v>7.5</v>
+      </c>
+      <c r="E1225">
+        <v>10</v>
+      </c>
+      <c r="F1225" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1225">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1226" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1226" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1226" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1226">
+        <v>0</v>
+      </c>
+      <c r="E1226">
+        <v>0</v>
+      </c>
+      <c r="F1226" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1226">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1227" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1227" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1227" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1227">
+        <v>0</v>
+      </c>
+      <c r="E1227">
+        <v>0</v>
+      </c>
+      <c r="F1227" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1227">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1228" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1228" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1228" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1228">
+        <v>12.9</v>
+      </c>
+      <c r="E1228">
+        <v>10.3</v>
+      </c>
+      <c r="F1228" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1228">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1229" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1229" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1229" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1229">
+        <v>10.1</v>
+      </c>
+      <c r="E1229">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F1229" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1229">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1230" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1230" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1230" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1230">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E1230">
+        <v>3.1</v>
+      </c>
+      <c r="F1230" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1230">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1231" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1231" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1231" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1231">
+        <v>10.8</v>
+      </c>
+      <c r="E1231">
+        <v>7.1</v>
+      </c>
+      <c r="F1231" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1231">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1232" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1232" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1232" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1232">
+        <v>19</v>
+      </c>
+      <c r="E1232">
+        <v>18.8</v>
+      </c>
+      <c r="F1232" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1232">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1233" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1233" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1233" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1233">
+        <v>23.6</v>
+      </c>
+      <c r="E1233">
+        <v>7.9</v>
+      </c>
+      <c r="F1233" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1233">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1234" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1234" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1234" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1234">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="E1234">
+        <v>6.2</v>
+      </c>
+      <c r="F1234" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1234">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1235" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1235" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1235" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1235">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="E1235">
+        <v>10</v>
+      </c>
+      <c r="F1235" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1235">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1236" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1236" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1236" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1236">
+        <v>15.1</v>
+      </c>
+      <c r="E1236">
+        <v>27.4</v>
+      </c>
+      <c r="F1236" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1236">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1237" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1237" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1237" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1237">
+        <v>15.3</v>
+      </c>
+      <c r="E1237">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="F1237" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1237">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1238" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1238" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1238" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1238">
+        <v>12</v>
+      </c>
+      <c r="E1238">
+        <v>13.9</v>
+      </c>
+      <c r="F1238" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1238">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1239" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1239" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1239" t="s">
+        <v>236</v>
+      </c>
+      <c r="D1239">
+        <v>13</v>
+      </c>
+      <c r="E1239">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F1239" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1239">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1240" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1240" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1240" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1240">
+        <v>7</v>
+      </c>
+      <c r="E1240">
+        <v>17</v>
+      </c>
+      <c r="F1240" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1240">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1241" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1241" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1241" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1241">
+        <v>9.5</v>
+      </c>
+      <c r="E1241">
+        <v>21</v>
+      </c>
+      <c r="F1241" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1241">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1242" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1242" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1242" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1242">
+        <v>22.6</v>
+      </c>
+      <c r="E1242">
+        <v>16.440000000000001</v>
+      </c>
+      <c r="F1242" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1242">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1243" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1243" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1243" t="s">
+        <v>243</v>
+      </c>
+      <c r="D1243">
+        <v>1.8</v>
+      </c>
+      <c r="E1243">
+        <v>0</v>
+      </c>
+      <c r="F1243" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1243">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1244" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1244" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1244" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1244">
+        <v>10</v>
+      </c>
+      <c r="E1244">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F1244" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1244">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1245" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1245" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1245" t="s">
+        <v>267</v>
+      </c>
+      <c r="D1245">
+        <v>11.2</v>
+      </c>
+      <c r="E1245">
+        <v>4.8</v>
+      </c>
+      <c r="F1245" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1245">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1246" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1246" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1246" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1246">
+        <v>10.7</v>
+      </c>
+      <c r="E1246">
+        <v>4.7</v>
+      </c>
+      <c r="F1246" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1246">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1247" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1247" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1247" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1247">
+        <v>7</v>
+      </c>
+      <c r="E1247">
+        <v>14</v>
+      </c>
+      <c r="F1247" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1247">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1248" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1248" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1248" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1248">
+        <v>0</v>
+      </c>
+      <c r="E1248">
+        <v>0</v>
+      </c>
+      <c r="F1248" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1248">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1249" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1249" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1249" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1249">
+        <v>25</v>
+      </c>
+      <c r="E1249">
+        <v>15.48</v>
+      </c>
+      <c r="F1249" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1249">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1250" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1250" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1250" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1250">
+        <v>12.6</v>
+      </c>
+      <c r="E1250">
+        <v>25.3</v>
+      </c>
+      <c r="F1250" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1250">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1251" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1251" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1251" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1251">
+        <v>13</v>
+      </c>
+      <c r="E1251">
+        <v>4.7</v>
+      </c>
+      <c r="F1251" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1251">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1252" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1252" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1252" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1252">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E1252">
+        <v>16</v>
+      </c>
+      <c r="F1252" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1252">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1253" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1253" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1253" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1253">
+        <v>14.5</v>
+      </c>
+      <c r="E1253">
+        <v>12.7</v>
+      </c>
+      <c r="F1253" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1253">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1254" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1254" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1254" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1254">
+        <v>19.3</v>
+      </c>
+      <c r="E1254">
+        <v>16.2</v>
+      </c>
+      <c r="F1254" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1254">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1255" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1255" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1255" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1255">
+        <v>15.4</v>
+      </c>
+      <c r="E1255">
+        <v>6.1</v>
+      </c>
+      <c r="F1255" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1255">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1256" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1256" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1256" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1256">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E1256">
+        <v>7</v>
+      </c>
+      <c r="F1256" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1256">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1257" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1257" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1257" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1257">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E1257">
+        <v>9</v>
+      </c>
+      <c r="F1257" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1257">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1258" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1258" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1258" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1258">
+        <v>0</v>
+      </c>
+      <c r="E1258">
+        <v>0</v>
+      </c>
+      <c r="F1258" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1258">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1259" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1259" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1259" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1259">
+        <v>0</v>
+      </c>
+      <c r="E1259">
+        <v>0</v>
+      </c>
+      <c r="F1259" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1259">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1260" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1260" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1260" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1260">
+        <v>13.5</v>
+      </c>
+      <c r="E1260">
+        <v>10.8</v>
+      </c>
+      <c r="F1260" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1260">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1261" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1261" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1261" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1261">
+        <v>12</v>
+      </c>
+      <c r="E1261">
+        <v>5.6</v>
+      </c>
+      <c r="F1261" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1261">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1262" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1262" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1262" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1262">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E1262">
+        <v>11.5</v>
+      </c>
+      <c r="F1262" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1262">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1263" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1263" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1263" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1263">
+        <v>8.5</v>
+      </c>
+      <c r="E1263">
+        <v>12</v>
+      </c>
+      <c r="F1263" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1263">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1264" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1264" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1264" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1264">
+        <v>8.5</v>
+      </c>
+      <c r="E1264">
+        <v>13.3</v>
+      </c>
+      <c r="F1264" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1264">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1265" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1265" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1265" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1265">
+        <v>24</v>
+      </c>
+      <c r="E1265">
+        <v>31.28</v>
+      </c>
+      <c r="F1265" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1265">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1266" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1266" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1266" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1266">
+        <v>12</v>
+      </c>
+      <c r="E1266">
+        <v>5</v>
+      </c>
+      <c r="F1266" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1266">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1267" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1267" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1267" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1267">
+        <v>11.7</v>
+      </c>
+      <c r="E1267">
+        <v>17.3</v>
+      </c>
+      <c r="F1267" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1267">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1268" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1268" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1268" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1268">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E1268">
+        <v>57.9</v>
+      </c>
+      <c r="F1268" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1268">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1269" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1269" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1269" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1269">
+        <v>15.2</v>
+      </c>
+      <c r="E1269">
+        <v>15.8</v>
+      </c>
+      <c r="F1269" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1269">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1270" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1270" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1270" t="s">
+        <v>234</v>
+      </c>
+      <c r="D1270">
+        <v>10.1</v>
+      </c>
+      <c r="E1270">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F1270" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1270">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1271" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1271" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1271" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1271">
+        <v>14.6</v>
+      </c>
+      <c r="E1271">
+        <v>12.6</v>
+      </c>
+      <c r="F1271" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1271">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1272" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1272" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1272" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1272">
+        <v>7.1</v>
+      </c>
+      <c r="E1272">
+        <v>-1</v>
+      </c>
+      <c r="F1272" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1272">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1273" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1273" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1273" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1273">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E1273">
+        <v>8</v>
+      </c>
+      <c r="F1273" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1273">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1274" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1274" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1274" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1274">
+        <v>0</v>
+      </c>
+      <c r="E1274">
+        <v>0</v>
+      </c>
+      <c r="F1274" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1274">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1275" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1275" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1275" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1275">
+        <v>2</v>
+      </c>
+      <c r="E1275">
+        <v>0</v>
+      </c>
+      <c r="F1275" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1275">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1276" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1276" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1276" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1276">
+        <v>0</v>
+      </c>
+      <c r="E1276">
+        <v>0</v>
+      </c>
+      <c r="F1276" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1276">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1277" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1277" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1277" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1277">
+        <v>10</v>
+      </c>
+      <c r="E1277">
+        <v>5.3</v>
+      </c>
+      <c r="F1277" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1277">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1278" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1278" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1278" t="s">
+        <v>274</v>
+      </c>
+      <c r="D1278">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E1278">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F1278" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1278">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1279" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1279" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1279" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1279">
+        <v>11.8</v>
+      </c>
+      <c r="E1279">
+        <v>17.5</v>
+      </c>
+      <c r="F1279" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1279">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1280" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1280" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1280" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1280">
+        <v>2.7</v>
+      </c>
+      <c r="E1280">
+        <v>5</v>
+      </c>
+      <c r="F1280" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1280">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FantasyFootballData2020.xlsx
+++ b/FantasyFootballData2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b88e9b99c0e7d8c4/Documents/GitHub/fantasy_football_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3548" documentId="13_ncr:1_{C78650B9-42D7-43C9-A95D-11F9998F55D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DC1F8D62-6462-4448-9C2E-BCE0AF469A09}"/>
+  <xr:revisionPtr revIDLastSave="3550" documentId="13_ncr:1_{C78650B9-42D7-43C9-A95D-11F9998F55D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{90EB9236-CAFF-4C46-A35C-E079E62DCF8F}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="1860" windowWidth="16920" windowHeight="10540" xr2:uid="{5502643F-E293-4B89-852D-6B7EFC2AEEB4}"/>
   </bookViews>
@@ -1263,8 +1263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7633469-55EE-4FF2-8B49-4F591545F24A}">
   <dimension ref="A1:G2241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1803" workbookViewId="0">
-      <selection activeCell="B2228" sqref="B2228"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/FantasyFootballData2020.xlsx
+++ b/FantasyFootballData2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b88e9b99c0e7d8c4/Documents/GitHub/fantasy_football_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3550" documentId="13_ncr:1_{C78650B9-42D7-43C9-A95D-11F9998F55D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{90EB9236-CAFF-4C46-A35C-E079E62DCF8F}"/>
+  <xr:revisionPtr revIDLastSave="3563" documentId="13_ncr:1_{C78650B9-42D7-43C9-A95D-11F9998F55D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2215A392-15BF-4BFA-8CF3-08ACEE3D8FC5}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="16920" windowHeight="10540" xr2:uid="{5502643F-E293-4B89-852D-6B7EFC2AEEB4}"/>
+    <workbookView xWindow="2440" yWindow="2000" windowWidth="16920" windowHeight="10540" xr2:uid="{5502643F-E293-4B89-852D-6B7EFC2AEEB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1264,7 +1264,7 @@
   <dimension ref="A1:G2241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6450,7 +6450,7 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B226" t="s">
         <v>4</v>
@@ -6473,7 +6473,7 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B227" t="s">
         <v>6</v>
@@ -6496,7 +6496,7 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B228" t="s">
         <v>6</v>
@@ -6519,7 +6519,7 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B229" t="s">
         <v>7</v>
@@ -6542,7 +6542,7 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B230" t="s">
         <v>7</v>
@@ -6565,7 +6565,7 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B231" t="s">
         <v>13</v>
@@ -6588,7 +6588,7 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B232" t="s">
         <v>7</v>
@@ -6611,7 +6611,7 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B233" t="s">
         <v>16</v>
@@ -6634,7 +6634,7 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B234" t="s">
         <v>18</v>
@@ -6657,7 +6657,7 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B235" t="s">
         <v>6</v>
@@ -6680,7 +6680,7 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B236" t="s">
         <v>6</v>
@@ -6703,7 +6703,7 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B237" t="s">
         <v>7</v>
@@ -6726,7 +6726,7 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B238" t="s">
         <v>4</v>
@@ -6749,7 +6749,7 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B239" t="s">
         <v>7</v>
@@ -6772,7 +6772,7 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B240" t="s">
         <v>7</v>
@@ -6795,7 +6795,7 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B241" t="s">
         <v>6</v>
@@ -26322,7 +26322,7 @@
     </row>
     <row r="1090" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1090" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B1090" t="s">
         <v>4</v>
@@ -26345,7 +26345,7 @@
     </row>
     <row r="1091" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1091" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B1091" t="s">
         <v>6</v>
@@ -26368,7 +26368,7 @@
     </row>
     <row r="1092" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1092" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B1092" t="s">
         <v>6</v>
@@ -26391,7 +26391,7 @@
     </row>
     <row r="1093" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1093" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B1093" t="s">
         <v>7</v>
@@ -26414,7 +26414,7 @@
     </row>
     <row r="1094" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1094" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B1094" t="s">
         <v>7</v>
@@ -26437,7 +26437,7 @@
     </row>
     <row r="1095" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1095" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B1095" t="s">
         <v>13</v>
@@ -26460,7 +26460,7 @@
     </row>
     <row r="1096" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1096" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B1096" t="s">
         <v>7</v>
@@ -26483,7 +26483,7 @@
     </row>
     <row r="1097" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1097" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B1097" t="s">
         <v>16</v>
@@ -26506,7 +26506,7 @@
     </row>
     <row r="1098" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1098" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B1098" t="s">
         <v>18</v>
@@ -26529,7 +26529,7 @@
     </row>
     <row r="1099" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1099" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B1099" t="s">
         <v>6</v>
@@ -26552,7 +26552,7 @@
     </row>
     <row r="1100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1100" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B1100" t="s">
         <v>13</v>
@@ -26575,7 +26575,7 @@
     </row>
     <row r="1101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1101" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B1101" t="s">
         <v>7</v>
@@ -26598,7 +26598,7 @@
     </row>
     <row r="1102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1102" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B1102" t="s">
         <v>6</v>
@@ -26621,7 +26621,7 @@
     </row>
     <row r="1103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1103" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B1103" t="s">
         <v>4</v>
@@ -26644,7 +26644,7 @@
     </row>
     <row r="1104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1104" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B1104" t="s">
         <v>7</v>
@@ -26667,7 +26667,7 @@
     </row>
     <row r="1105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1105" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B1105" t="s">
         <v>7</v>
@@ -27058,7 +27058,7 @@
     </row>
     <row r="1122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1122" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B1122" t="s">
         <v>4</v>
@@ -27081,7 +27081,7 @@
     </row>
     <row r="1123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1123" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B1123" t="s">
         <v>6</v>
@@ -27104,7 +27104,7 @@
     </row>
     <row r="1124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1124" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B1124" t="s">
         <v>6</v>
@@ -27127,7 +27127,7 @@
     </row>
     <row r="1125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1125" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B1125" t="s">
         <v>7</v>
@@ -27150,7 +27150,7 @@
     </row>
     <row r="1126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1126" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B1126" t="s">
         <v>7</v>
@@ -27173,7 +27173,7 @@
     </row>
     <row r="1127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1127" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B1127" t="s">
         <v>13</v>
@@ -27196,7 +27196,7 @@
     </row>
     <row r="1128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1128" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B1128" t="s">
         <v>6</v>
@@ -27219,7 +27219,7 @@
     </row>
     <row r="1129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1129" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B1129" t="s">
         <v>16</v>
@@ -27242,7 +27242,7 @@
     </row>
     <row r="1130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1130" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B1130" t="s">
         <v>18</v>
@@ -27265,7 +27265,7 @@
     </row>
     <row r="1131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1131" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B1131" t="s">
         <v>6</v>
@@ -27288,7 +27288,7 @@
     </row>
     <row r="1132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1132" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B1132" t="s">
         <v>7</v>
@@ -27311,7 +27311,7 @@
     </row>
     <row r="1133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1133" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B1133" t="s">
         <v>13</v>
@@ -27334,7 +27334,7 @@
     </row>
     <row r="1134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1134" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B1134" t="s">
         <v>6</v>
@@ -27357,7 +27357,7 @@
     </row>
     <row r="1135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1135" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B1135" t="s">
         <v>7</v>
@@ -27380,7 +27380,7 @@
     </row>
     <row r="1136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1136" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B1136" t="s">
         <v>7</v>
@@ -27403,7 +27403,7 @@
     </row>
     <row r="1137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1137" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B1137" t="s">
         <v>4</v>
